--- a/example_data/import/project_contents/template.xlsx
+++ b/example_data/import/project_contents/template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44b92e2d6c7d28b1/Studium/TU Berlin/Masterarbeit/Code/pros/example_data/import/project_contents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1377" documentId="13_ncr:1_{89FECAAF-B0E2-094F-9654-7E4DEF977C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA700C2E-CDB9-4342-B5BC-A1694F0FE21E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{185F267F-06DD-FF4F-8F0B-FAE85B5ED1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17200" yWindow="500" windowWidth="34400" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deutschlandtakt" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deutschlandtakt!$AW$1:$AW$997</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deutschlandtakt!$BB$1:$BB$997</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>nbs</t>
   </si>
@@ -174,241 +174,106 @@
     <t>buffer_track</t>
   </si>
   <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 1</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 2</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 3</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 4</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 5</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 6</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 7</t>
-  </si>
-  <si>
-    <t>Zweigleisigkeit Hagenow Land</t>
-  </si>
-  <si>
-    <t>Herstellung der Zweigleisigkeit im Bahnhof Hagenow Land</t>
-  </si>
-  <si>
-    <t>Kleine und Mittlere Maßnahmen zur Umsetzung der ersten Etappe Deutschlandtakt</t>
-  </si>
-  <si>
-    <t>WHL</t>
-  </si>
-  <si>
-    <t>Bad Canstatt Weichenverbindungen</t>
-  </si>
-  <si>
-    <t>Zusätzliche Weichenverbindungen in Bad Canstatt</t>
-  </si>
-  <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>Nersingen höhenfreier Bahnzugang</t>
-  </si>
-  <si>
-    <t>Beseitigung des höhengleichen Bahnsteigzugangs in Nersingen</t>
-  </si>
-  <si>
-    <t>MNSG</t>
-  </si>
-  <si>
-    <t>Gleichzeitige Einfahrten Friedberg</t>
-  </si>
-  <si>
-    <t>Herstellung der Möglichkeit für gleichzeitige Einfahrten in Friedberg</t>
-  </si>
-  <si>
-    <t>FFG</t>
-  </si>
-  <si>
-    <t>Blockverdichtungen Tübingen – Metzingen</t>
-  </si>
-  <si>
-    <t>Blockverdichtungen auf der Strecke Tübingen – Metzingen zur Erhöhung der Kapazität</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>TME</t>
-  </si>
-  <si>
-    <t>Blockverdichtungen auf der Strecke Stralsund – Züssow zur Erhöhung der Streckenkapazität</t>
-  </si>
-  <si>
-    <t>Blockverdichtungen Stralsund – Züssow</t>
-  </si>
-  <si>
-    <t>WSR</t>
-  </si>
-  <si>
-    <t>WZS</t>
-  </si>
-  <si>
-    <t>Gleichzeitige Einfahrten Oppenweiler</t>
-  </si>
-  <si>
-    <t>Herstellung der Möglichkeit für gleichzeitige Einfahrten in den Bahnhof Oppenweiler</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
     <t>simultaneous_train_entries</t>
   </si>
   <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 8</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 9</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 10</t>
-  </si>
-  <si>
-    <t>Höhere Einfahrgeschwindigkeiten Waiblingen</t>
-  </si>
-  <si>
-    <t>Erhöhung der Einfahrgeschwindigkeit in den Bahnhof Waiblingen aus Richtung Backnang</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>Zusätzlicher Bahnsteig München Pasing</t>
-  </si>
-  <si>
-    <t>Errichtung eines zusätzlichen Bahnsteigs in München Pasing</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Gleichzeitige Einfahrten Sulzbach (Murr)</t>
-  </si>
-  <si>
-    <t>Gleichzeitige Einfahrten in den Bahnhof Sulzbach</t>
-  </si>
-  <si>
-    <t>TSBM</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 11</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 12</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 13</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 14</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 15</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 16</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 17</t>
-  </si>
-  <si>
-    <t>Rövershagen höhenfreie Reisendenüberweg</t>
-  </si>
-  <si>
-    <t>Beseitigung des höhengleichen Reisendenüberwegs im Bahnhof Rövershagen</t>
-  </si>
-  <si>
-    <t>WRV</t>
-  </si>
-  <si>
-    <t>Gessertshausen Schaffung Überholmöglichkeit</t>
-  </si>
-  <si>
-    <t>Bau einer Überholmöglichkeit (Stumpfgleis) im Bahnhof Gessertshausen</t>
-  </si>
-  <si>
-    <t>MGHN</t>
-  </si>
-  <si>
-    <t>Erweiterung Knoten Wittenberge</t>
-  </si>
-  <si>
-    <t>Erweiterung des Knoten Wittenbergs zugunsten des Schienenpersonenverkehr</t>
-  </si>
-  <si>
-    <t>WW</t>
-  </si>
-  <si>
-    <t>Zusätzlicher Bahnsteig Minden</t>
-  </si>
-  <si>
-    <t>Bau eines zusätzlichen Bahnsteigs im Bahnhof Minden</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>Fulda 740m Gleis</t>
-  </si>
-  <si>
-    <t>Verlängerung des Gleis 258 für 740m-Züge im Güterbahnhof Fulda</t>
-  </si>
-  <si>
-    <t>FFU</t>
-  </si>
-  <si>
     <t>sgv740m</t>
   </si>
   <si>
-    <t>Überholgleis in Westheim</t>
-  </si>
-  <si>
-    <t>Bau eines mittigen Überholgleises im Bereich Westheim (Schwaben)/Neusäß</t>
-  </si>
-  <si>
-    <t>MWHS</t>
-  </si>
-  <si>
-    <t>MNES</t>
-  </si>
-  <si>
-    <t>Überhogleise in Ahlen und Oelde</t>
-  </si>
-  <si>
-    <t>Bau von Überholgleisen Ahlen und Oelde auf der Strecke Hamm – Bielefeld</t>
-  </si>
-  <si>
-    <t>EAHL</t>
-  </si>
-  <si>
-    <t>EOEL</t>
-  </si>
-  <si>
-    <t>KMM DTakt Etappe 1 Maßnahmen 18</t>
-  </si>
-  <si>
-    <t>Zusätzlicher Bahnsteig in Haste</t>
-  </si>
-  <si>
-    <t>Zusätzlicher Bahnsteig am Gleis 4 im Bahnhof Haste</t>
-  </si>
-  <si>
-    <t>HHAS</t>
+    <t>VDE 9 Projekt</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>GWB</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub1</t>
+  </si>
+  <si>
+    <t>ETCS Leckwitz – Kottewitz</t>
+  </si>
+  <si>
+    <t>DLEW</t>
+  </si>
+  <si>
+    <t>DKOT</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub2</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub3</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub4</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub5</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub6</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub7</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub8</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub9</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub10</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub11</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub12</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub13</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub14</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub15</t>
+  </si>
+  <si>
+    <t>VDE9-sub3-sub16</t>
+  </si>
+  <si>
+    <t>ETCS Radebeul Nord – Dresden-Neustadt</t>
+  </si>
+  <si>
+    <t>lp_12</t>
+  </si>
+  <si>
+    <t>lp_34</t>
+  </si>
+  <si>
+    <t>bau</t>
+  </si>
+  <si>
+    <t>ibn_erfolgt</t>
+  </si>
+  <si>
+    <t>DRBD</t>
+  </si>
+  <si>
+    <t>Abzweig Zeithain – Abzweig Leckwitz</t>
+  </si>
+  <si>
+    <t>Errichtung von ETCS, Voraussetzung für maximale Geschwindigkeit 200 km/h</t>
+  </si>
+  <si>
+    <t>DZNH</t>
+  </si>
+  <si>
+    <t>Modernisierung Stellwerkstechnik zur Erhöhung Geschwindigkeit auf 200 km/h; Anpassung der Haltepunkte in Glaubnitz und Nünchritz; Beseitigung von Bahnübergängen; Lärmschutz</t>
   </si>
 </sst>
 </file>
@@ -805,11 +670,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD1048573"/>
+  <dimension ref="A1:BI1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="137" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU18" sqref="AU18"/>
+      <selection pane="bottomLeft" activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -839,12 +704,12 @@
     <col min="31" max="31" width="7.83203125" customWidth="1"/>
     <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="12.1640625" customWidth="1"/>
-    <col min="47" max="47" width="24.33203125" customWidth="1"/>
-    <col min="48" max="48" width="9.83203125" customWidth="1"/>
-    <col min="55" max="56" width="14.5" customWidth="1"/>
+    <col min="52" max="52" width="24.33203125" customWidth="1"/>
+    <col min="53" max="53" width="9.83203125" customWidth="1"/>
+    <col min="60" max="61" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="9" customFormat="1" ht="16">
+    <row r="1" spans="1:61" s="9" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -957,7 +822,7 @@
         <v>36</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AM1" s="13" t="s">
         <v>41</v>
@@ -969,49 +834,66 @@
         <v>43</v>
       </c>
       <c r="AP1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
       <c r="AZ1" s="8"/>
       <c r="BA1" s="8"/>
       <c r="BB1" s="8"/>
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
-    </row>
-    <row r="2" spans="1:56" ht="16">
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+    </row>
+    <row r="2" spans="1:61" ht="16">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="b">
@@ -1030,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="15" t="b">
         <v>0</v>
@@ -1065,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="AB2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>200</v>
       </c>
       <c r="AD2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="AE2" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15" t="b">
@@ -1107,45 +989,64 @@
       <c r="AP2" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15" t="b">
+      <c r="AQ2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="15">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="15">
         <v>1</v>
       </c>
-      <c r="AS2" s="15" t="b">
+      <c r="AU2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="15">
+        <v>95785</v>
+      </c>
+      <c r="AW2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AT2" s="15" t="b">
+      <c r="AX2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="2"/>
+      <c r="AY2" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="5"/>
       <c r="BD2" s="2"/>
-    </row>
-    <row r="3" spans="1:56" ht="16">
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+    </row>
+    <row r="3" spans="1:61" ht="16">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="b">
@@ -1199,87 +1100,106 @@
         <v>0</v>
       </c>
       <c r="AB3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>200</v>
       </c>
       <c r="AD3" s="15" t="b">
         <v>0</v>
       </c>
       <c r="AE3" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="15">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="15">
         <v>1</v>
       </c>
-      <c r="AH3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15" t="b">
+      <c r="AU3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="15">
+        <v>95785</v>
+      </c>
+      <c r="AW3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AS3" s="15" t="b">
+      <c r="AX3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AT3" s="15" t="b">
+      <c r="AY3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="5"/>
       <c r="BD3" s="2"/>
-    </row>
-    <row r="4" spans="1:56" ht="16">
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+    </row>
+    <row r="4" spans="1:61" ht="16">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="b">
@@ -1333,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="AB4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>200</v>
       </c>
       <c r="AD4" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="15" t="b">
         <v>0</v>
@@ -1349,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="15" t="b">
         <v>0</v>
@@ -1375,2052 +1295,1016 @@
       <c r="AP4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15" t="b">
+      <c r="AQ4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="15">
         <v>1</v>
       </c>
-      <c r="AS4" s="15" t="b">
+      <c r="AU4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="15">
+        <v>95785</v>
+      </c>
+      <c r="AW4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AT4" s="15" t="b">
+      <c r="AX4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="2"/>
+      <c r="AY4" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="5"/>
       <c r="BD4" s="2"/>
-    </row>
-    <row r="5" spans="1:56" ht="16">
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+    </row>
+    <row r="5" spans="1:61" ht="16">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V5" s="15"/>
       <c r="W5" s="15"/>
-      <c r="X5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
       <c r="AF5" s="15"/>
-      <c r="AG5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
       <c r="AQ5" s="15"/>
-      <c r="AR5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="2"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="5"/>
       <c r="BD5" s="2"/>
-    </row>
-    <row r="6" spans="1:56" ht="16">
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+    </row>
+    <row r="6" spans="1:61" ht="16">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V6" s="15"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
       <c r="AQ6" s="15"/>
-      <c r="AR6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="2"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="5"/>
       <c r="BD6" s="2"/>
-    </row>
-    <row r="7" spans="1:56" ht="16">
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+    </row>
+    <row r="7" spans="1:61" ht="16">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>71</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V7" s="15"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
-      <c r="AG7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
       <c r="AQ7" s="15"/>
-      <c r="AR7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="2"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
       <c r="BD7" s="2"/>
-    </row>
-    <row r="8" spans="1:56" ht="16">
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+    </row>
+    <row r="8" spans="1:61" ht="16">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V8" s="15"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
       <c r="AQ8" s="15"/>
-      <c r="AR8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="2"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="5"/>
       <c r="BD8" s="2"/>
-    </row>
-    <row r="9" spans="1:56" ht="16">
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+    </row>
+    <row r="9" spans="1:61" ht="16">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>81</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V9" s="15"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
-      <c r="AG9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
       <c r="AQ9" s="15"/>
-      <c r="AR9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="2"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="5"/>
       <c r="BD9" s="2"/>
-    </row>
-    <row r="10" spans="1:56" ht="16">
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+    </row>
+    <row r="10" spans="1:61" ht="16">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>84</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V10" s="15"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
       <c r="AQ10" s="15"/>
-      <c r="AR10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="2"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="5"/>
       <c r="BD10" s="2"/>
-    </row>
-    <row r="11" spans="1:56" ht="16">
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+    </row>
+    <row r="11" spans="1:61" ht="16">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V11" s="15"/>
       <c r="W11" s="15"/>
-      <c r="X11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
-      <c r="AG11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="2"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="5"/>
       <c r="BD11" s="2"/>
-    </row>
-    <row r="12" spans="1:56" ht="16">
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+    </row>
+    <row r="12" spans="1:61" ht="16">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>97</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V12" s="15"/>
       <c r="W12" s="15"/>
-      <c r="X12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
-      <c r="AG12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
       <c r="AQ12" s="15"/>
-      <c r="AR12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="2"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
       <c r="BD12" s="2"/>
-    </row>
-    <row r="13" spans="1:56" ht="16">
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+    </row>
+    <row r="13" spans="1:61" ht="16">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>100</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="W13" s="15">
-        <v>1</v>
-      </c>
-      <c r="X13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
-      <c r="AG13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
       <c r="AQ13" s="15"/>
-      <c r="AR13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="2"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
       <c r="BD13" s="2"/>
-    </row>
-    <row r="14" spans="1:56" ht="16">
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+    </row>
+    <row r="14" spans="1:61" ht="16">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V14" s="15"/>
       <c r="W14" s="15"/>
-      <c r="X14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
       <c r="AQ14" s="15"/>
-      <c r="AR14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="2"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
       <c r="BD14" s="2"/>
-    </row>
-    <row r="15" spans="1:56" ht="16">
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+    </row>
+    <row r="15" spans="1:61" ht="16">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>106</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V15" s="15"/>
       <c r="W15" s="15"/>
-      <c r="X15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
-      <c r="AG15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
       <c r="AQ15" s="15"/>
-      <c r="AR15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="2"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="5"/>
       <c r="BD15" s="2"/>
-    </row>
-    <row r="16" spans="1:56" ht="16">
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+    </row>
+    <row r="16" spans="1:61" ht="16">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>109</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V16" s="15"/>
       <c r="W16" s="15"/>
-      <c r="X16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
-      <c r="AR16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="2"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="5"/>
       <c r="BD16" s="2"/>
-    </row>
-    <row r="17" spans="1:56" ht="16">
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+    </row>
+    <row r="17" spans="1:61" ht="16">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>114</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" s="15">
-        <v>1</v>
-      </c>
-      <c r="X17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
-      <c r="AG17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
       <c r="AQ17" s="15"/>
-      <c r="AR17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="2"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="5"/>
       <c r="BD17" s="2"/>
-    </row>
-    <row r="18" spans="1:56" ht="16">
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+    </row>
+    <row r="18" spans="1:61" ht="16">
       <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" s="15">
-        <v>2</v>
-      </c>
-      <c r="X18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
       <c r="AQ18" s="15"/>
-      <c r="AR18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="2"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
       <c r="BD18" s="2"/>
-    </row>
-    <row r="19" spans="1:56" ht="16">
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+    </row>
+    <row r="19" spans="1:61" ht="16">
       <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="V19" s="15"/>
       <c r="W19" s="15"/>
-      <c r="X19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
-      <c r="AG19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
       <c r="AQ19" s="15"/>
-      <c r="AR19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="2"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
       <c r="BD19" s="2"/>
-    </row>
-    <row r="20" spans="1:56" ht="16">
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+    </row>
+    <row r="20" spans="1:61" ht="16">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3467,18 +2351,23 @@
       <c r="AR20" s="15"/>
       <c r="AS20" s="15"/>
       <c r="AT20" s="15"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="2"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
       <c r="BD20" s="2"/>
-    </row>
-    <row r="21" spans="1:56" ht="16">
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+    </row>
+    <row r="21" spans="1:61" ht="16">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -3525,18 +2414,23 @@
       <c r="AR21" s="15"/>
       <c r="AS21" s="15"/>
       <c r="AT21" s="15"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="2"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
       <c r="BD21" s="2"/>
-    </row>
-    <row r="22" spans="1:56" ht="16">
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+    </row>
+    <row r="22" spans="1:61" ht="16">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -3583,18 +2477,23 @@
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="2"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="5"/>
       <c r="BD22" s="2"/>
-    </row>
-    <row r="23" spans="1:56" ht="16">
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+    </row>
+    <row r="23" spans="1:61" ht="16">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3641,18 +2540,23 @@
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="2"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="5"/>
       <c r="BD23" s="2"/>
-    </row>
-    <row r="24" spans="1:56" ht="16">
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+    </row>
+    <row r="24" spans="1:61" ht="16">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3699,18 +2603,23 @@
       <c r="AR24" s="15"/>
       <c r="AS24" s="15"/>
       <c r="AT24" s="15"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="2"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="5"/>
       <c r="BD24" s="2"/>
-    </row>
-    <row r="25" spans="1:56" ht="16">
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+    </row>
+    <row r="25" spans="1:61" ht="16">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -3757,18 +2666,23 @@
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="2"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
       <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="5"/>
       <c r="BD25" s="2"/>
-    </row>
-    <row r="26" spans="1:56" ht="16">
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+    </row>
+    <row r="26" spans="1:61" ht="16">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3815,18 +2729,23 @@
       <c r="AR26" s="15"/>
       <c r="AS26" s="15"/>
       <c r="AT26" s="15"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="2"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
       <c r="AZ26" s="2"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="5"/>
       <c r="BD26" s="2"/>
-    </row>
-    <row r="27" spans="1:56" ht="16">
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+    </row>
+    <row r="27" spans="1:61" ht="16">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3873,18 +2792,23 @@
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="2"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
       <c r="AZ27" s="2"/>
       <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="5"/>
       <c r="BD27" s="2"/>
-    </row>
-    <row r="28" spans="1:56" ht="16">
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+    </row>
+    <row r="28" spans="1:61" ht="16">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -3931,18 +2855,23 @@
       <c r="AR28" s="15"/>
       <c r="AS28" s="15"/>
       <c r="AT28" s="15"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="2"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
       <c r="AZ28" s="2"/>
       <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="5"/>
       <c r="BD28" s="2"/>
-    </row>
-    <row r="29" spans="1:56" ht="16">
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+    </row>
+    <row r="29" spans="1:61" ht="16">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -3989,18 +2918,23 @@
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
       <c r="AT29" s="15"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="2"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
       <c r="AZ29" s="2"/>
       <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="5"/>
       <c r="BD29" s="2"/>
-    </row>
-    <row r="30" spans="1:56" ht="16">
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+    </row>
+    <row r="30" spans="1:61" ht="16">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -4047,18 +2981,23 @@
       <c r="AR30" s="15"/>
       <c r="AS30" s="15"/>
       <c r="AT30" s="15"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="2"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="2"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="5"/>
       <c r="BD30" s="2"/>
-    </row>
-    <row r="31" spans="1:56" ht="16">
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+    </row>
+    <row r="31" spans="1:61" ht="16">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -4105,18 +3044,23 @@
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="2"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
       <c r="BD31" s="2"/>
-    </row>
-    <row r="32" spans="1:56" ht="16">
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+    </row>
+    <row r="32" spans="1:61" ht="16">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -4163,18 +3107,23 @@
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
       <c r="AT32" s="15"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="2"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="2"/>
-      <c r="BC32" s="2"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
       <c r="BD32" s="2"/>
-    </row>
-    <row r="33" spans="1:56" ht="16">
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+    </row>
+    <row r="33" spans="1:61" ht="16">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -4221,18 +3170,23 @@
       <c r="AR33" s="15"/>
       <c r="AS33" s="15"/>
       <c r="AT33" s="15"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="2"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
       <c r="BD33" s="2"/>
-    </row>
-    <row r="34" spans="1:56" ht="16">
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+    </row>
+    <row r="34" spans="1:61" ht="16">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4279,18 +3233,23 @@
       <c r="AR34" s="15"/>
       <c r="AS34" s="15"/>
       <c r="AT34" s="15"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="2"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
       <c r="BD34" s="2"/>
-    </row>
-    <row r="35" spans="1:56" ht="16">
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+    </row>
+    <row r="35" spans="1:61" ht="16">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -4337,18 +3296,23 @@
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
       <c r="AT35" s="15"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="2"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
       <c r="BD35" s="2"/>
-    </row>
-    <row r="36" spans="1:56" ht="16">
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+    </row>
+    <row r="36" spans="1:61" ht="16">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -4395,18 +3359,23 @@
       <c r="AR36" s="15"/>
       <c r="AS36" s="15"/>
       <c r="AT36" s="15"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="5"/>
-      <c r="AY36" s="2"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="5"/>
       <c r="BD36" s="2"/>
-    </row>
-    <row r="37" spans="1:56" ht="16">
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+    </row>
+    <row r="37" spans="1:61" ht="16">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -4453,18 +3422,23 @@
       <c r="AR37" s="15"/>
       <c r="AS37" s="15"/>
       <c r="AT37" s="15"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="5"/>
-      <c r="AX37" s="5"/>
-      <c r="AY37" s="2"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
       <c r="BD37" s="2"/>
-    </row>
-    <row r="38" spans="1:56" ht="16">
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+    </row>
+    <row r="38" spans="1:61" ht="16">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4511,18 +3485,23 @@
       <c r="AR38" s="15"/>
       <c r="AS38" s="15"/>
       <c r="AT38" s="15"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="2"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
       <c r="BD38" s="2"/>
-    </row>
-    <row r="39" spans="1:56" ht="16">
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+    </row>
+    <row r="39" spans="1:61" ht="16">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4569,18 +3548,23 @@
       <c r="AR39" s="15"/>
       <c r="AS39" s="15"/>
       <c r="AT39" s="15"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="2"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="5"/>
       <c r="BD39" s="2"/>
-    </row>
-    <row r="40" spans="1:56" ht="16">
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+    </row>
+    <row r="40" spans="1:61" ht="16">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4627,18 +3611,23 @@
       <c r="AR40" s="15"/>
       <c r="AS40" s="15"/>
       <c r="AT40" s="15"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="2"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
       <c r="BD40" s="2"/>
-    </row>
-    <row r="41" spans="1:56" ht="16">
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+    </row>
+    <row r="41" spans="1:61" ht="16">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4685,18 +3674,23 @@
       <c r="AR41" s="15"/>
       <c r="AS41" s="15"/>
       <c r="AT41" s="15"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="2"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
       <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
       <c r="BD41" s="2"/>
-    </row>
-    <row r="42" spans="1:56" ht="16">
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+    </row>
+    <row r="42" spans="1:61" ht="16">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4743,18 +3737,23 @@
       <c r="AR42" s="15"/>
       <c r="AS42" s="15"/>
       <c r="AT42" s="15"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="2"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
       <c r="AZ42" s="2"/>
       <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
       <c r="BD42" s="2"/>
-    </row>
-    <row r="43" spans="1:56" ht="16">
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+    </row>
+    <row r="43" spans="1:61" ht="16">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -4765,18 +3764,18 @@
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
       <c r="W43" s="1"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="2"/>
       <c r="AZ43" s="2"/>
       <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="5"/>
       <c r="BD43" s="2"/>
-    </row>
-    <row r="44" spans="1:56" ht="16">
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+    </row>
+    <row r="44" spans="1:61" ht="16">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -4787,18 +3786,18 @@
       <c r="H44" s="3"/>
       <c r="I44" s="4"/>
       <c r="U44" s="1"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="4"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="2"/>
       <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="5"/>
       <c r="BD44" s="2"/>
-    </row>
-    <row r="45" spans="1:56" ht="16">
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+    </row>
+    <row r="45" spans="1:61" ht="16">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -4809,18 +3808,18 @@
       <c r="H45" s="3"/>
       <c r="I45" s="4"/>
       <c r="AF45" s="1"/>
-      <c r="AU45" s="2"/>
-      <c r="AV45" s="2"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="5"/>
-      <c r="AY45" s="2"/>
       <c r="AZ45" s="2"/>
       <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="2"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="5"/>
       <c r="BD45" s="2"/>
-    </row>
-    <row r="46" spans="1:56" ht="16">
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+    </row>
+    <row r="46" spans="1:61" ht="16">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -4833,18 +3832,18 @@
       <c r="K46" s="1"/>
       <c r="N46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="2"/>
-      <c r="AW46" s="4"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="2"/>
       <c r="AZ46" s="2"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="5"/>
       <c r="BD46" s="2"/>
-    </row>
-    <row r="47" spans="1:56" ht="16">
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+    </row>
+    <row r="47" spans="1:61" ht="16">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -4856,18 +3855,18 @@
       <c r="I47" s="4"/>
       <c r="K47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="4"/>
-      <c r="AX47" s="5"/>
-      <c r="AY47" s="2"/>
       <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="5"/>
       <c r="BD47" s="2"/>
-    </row>
-    <row r="48" spans="1:56" ht="16">
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+    </row>
+    <row r="48" spans="1:61" ht="16">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -4879,18 +3878,18 @@
       <c r="I48" s="4"/>
       <c r="K48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="4"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="2"/>
       <c r="AZ48" s="2"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="5"/>
       <c r="BD48" s="2"/>
-    </row>
-    <row r="49" spans="1:56" ht="16">
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+    </row>
+    <row r="49" spans="1:61" ht="16">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -4901,18 +3900,18 @@
       <c r="H49" s="3"/>
       <c r="I49" s="4"/>
       <c r="K49" s="1"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="4"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="2"/>
       <c r="AZ49" s="2"/>
       <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="5"/>
       <c r="BD49" s="2"/>
-    </row>
-    <row r="50" spans="1:56" ht="16">
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+    </row>
+    <row r="50" spans="1:61" ht="16">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -4925,18 +3924,18 @@
       <c r="K50" s="1"/>
       <c r="R50" s="10"/>
       <c r="AB50" s="1"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="2"/>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
       <c r="BD50" s="2"/>
-    </row>
-    <row r="51" spans="1:56" ht="16">
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+    </row>
+    <row r="51" spans="1:61" ht="16">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -4947,18 +3946,18 @@
       <c r="H51" s="3"/>
       <c r="I51" s="4"/>
       <c r="Y51" s="1"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="5"/>
-      <c r="AX51" s="5"/>
-      <c r="AY51" s="2"/>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
       <c r="BD51" s="2"/>
-    </row>
-    <row r="52" spans="1:56" ht="16">
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+    </row>
+    <row r="52" spans="1:61" ht="16">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -4969,18 +3968,18 @@
       <c r="H52" s="3"/>
       <c r="I52" s="4"/>
       <c r="AF52" s="1"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="4"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="2"/>
       <c r="AZ52" s="2"/>
       <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="2"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="5"/>
       <c r="BD52" s="2"/>
-    </row>
-    <row r="53" spans="1:56" ht="16">
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+    </row>
+    <row r="53" spans="1:61" ht="16">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -4991,18 +3990,18 @@
       <c r="H53" s="3"/>
       <c r="I53" s="4"/>
       <c r="S53" s="1"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="2"/>
       <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="5"/>
       <c r="BD53" s="2"/>
-    </row>
-    <row r="54" spans="1:56" ht="16">
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+    </row>
+    <row r="54" spans="1:61" ht="16">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -5013,18 +4012,18 @@
       <c r="H54" s="3"/>
       <c r="I54" s="4"/>
       <c r="AF54" s="1"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="2"/>
       <c r="AZ54" s="2"/>
       <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
       <c r="BD54" s="2"/>
-    </row>
-    <row r="55" spans="1:56" ht="16">
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+    </row>
+    <row r="55" spans="1:61" ht="16">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -5035,18 +4034,18 @@
       <c r="H55" s="3"/>
       <c r="I55" s="4"/>
       <c r="AF55" s="1"/>
-      <c r="AU55" s="2"/>
-      <c r="AV55" s="2"/>
-      <c r="AW55" s="4"/>
-      <c r="AX55" s="5"/>
-      <c r="AY55" s="2"/>
       <c r="AZ55" s="2"/>
       <c r="BA55" s="2"/>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="2"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="5"/>
       <c r="BD55" s="2"/>
-    </row>
-    <row r="56" spans="1:56" ht="16">
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+    </row>
+    <row r="56" spans="1:61" ht="16">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -5058,18 +4057,18 @@
       <c r="I56" s="4"/>
       <c r="K56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="AU56" s="2"/>
-      <c r="AV56" s="2"/>
-      <c r="AW56" s="4"/>
-      <c r="AX56" s="5"/>
-      <c r="AY56" s="2"/>
       <c r="AZ56" s="2"/>
       <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="2"/>
+      <c r="BB56" s="4"/>
+      <c r="BC56" s="5"/>
       <c r="BD56" s="2"/>
-    </row>
-    <row r="57" spans="1:56" ht="16">
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+    </row>
+    <row r="57" spans="1:61" ht="16">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -5081,18 +4080,18 @@
       <c r="I57" s="4"/>
       <c r="K57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
-      <c r="AW57" s="4"/>
-      <c r="AX57" s="5"/>
-      <c r="AY57" s="2"/>
       <c r="AZ57" s="2"/>
       <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
+      <c r="BB57" s="4"/>
+      <c r="BC57" s="5"/>
       <c r="BD57" s="2"/>
-    </row>
-    <row r="58" spans="1:56" ht="16">
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+    </row>
+    <row r="58" spans="1:61" ht="16">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -5103,18 +4102,18 @@
       <c r="H58" s="3"/>
       <c r="I58" s="4"/>
       <c r="K58" s="1"/>
-      <c r="AU58" s="2"/>
-      <c r="AV58" s="2"/>
-      <c r="AW58" s="5"/>
-      <c r="AX58" s="5"/>
-      <c r="AY58" s="2"/>
       <c r="AZ58" s="2"/>
       <c r="BA58" s="2"/>
-      <c r="BB58" s="2"/>
-      <c r="BC58" s="2"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
       <c r="BD58" s="2"/>
-    </row>
-    <row r="59" spans="1:56" ht="16">
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+    </row>
+    <row r="59" spans="1:61" ht="16">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -5125,18 +4124,18 @@
       <c r="H59" s="3"/>
       <c r="I59" s="4"/>
       <c r="R59" s="1"/>
-      <c r="AU59" s="2"/>
-      <c r="AV59" s="2"/>
-      <c r="AW59" s="5"/>
-      <c r="AX59" s="5"/>
-      <c r="AY59" s="2"/>
       <c r="AZ59" s="2"/>
       <c r="BA59" s="2"/>
-      <c r="BB59" s="2"/>
-      <c r="BC59" s="2"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
       <c r="BD59" s="2"/>
-    </row>
-    <row r="60" spans="1:56" ht="16">
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+    </row>
+    <row r="60" spans="1:61" ht="16">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -5148,18 +4147,18 @@
       <c r="I60" s="4"/>
       <c r="J60" s="10"/>
       <c r="R60" s="1"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="2"/>
-      <c r="AW60" s="5"/>
-      <c r="AX60" s="5"/>
-      <c r="AY60" s="2"/>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="2"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
       <c r="BD60" s="2"/>
-    </row>
-    <row r="61" spans="1:56" ht="16">
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+    </row>
+    <row r="61" spans="1:61" ht="16">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -5170,18 +4169,18 @@
       <c r="H61" s="3"/>
       <c r="I61" s="4"/>
       <c r="R61" s="1"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
-      <c r="AW61" s="5"/>
-      <c r="AX61" s="5"/>
-      <c r="AY61" s="2"/>
       <c r="AZ61" s="2"/>
       <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="2"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="5"/>
       <c r="BD61" s="2"/>
-    </row>
-    <row r="62" spans="1:56" ht="16">
+      <c r="BE61" s="2"/>
+      <c r="BF61" s="2"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+    </row>
+    <row r="62" spans="1:61" ht="16">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -5192,18 +4191,18 @@
       <c r="H62" s="3"/>
       <c r="I62" s="4"/>
       <c r="K62" s="1"/>
-      <c r="AU62" s="2"/>
-      <c r="AV62" s="2"/>
-      <c r="AW62" s="4"/>
-      <c r="AX62" s="5"/>
-      <c r="AY62" s="2"/>
       <c r="AZ62" s="2"/>
       <c r="BA62" s="2"/>
-      <c r="BB62" s="2"/>
-      <c r="BC62" s="2"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="5"/>
       <c r="BD62" s="2"/>
-    </row>
-    <row r="63" spans="1:56" ht="16">
+      <c r="BE62" s="2"/>
+      <c r="BF62" s="2"/>
+      <c r="BG62" s="2"/>
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+    </row>
+    <row r="63" spans="1:61" ht="16">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -5213,18 +4212,18 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="4"/>
-      <c r="AU63" s="2"/>
-      <c r="AV63" s="2"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="5"/>
-      <c r="AY63" s="2"/>
       <c r="AZ63" s="2"/>
       <c r="BA63" s="2"/>
-      <c r="BB63" s="2"/>
-      <c r="BC63" s="2"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="5"/>
       <c r="BD63" s="2"/>
-    </row>
-    <row r="64" spans="1:56" ht="16">
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="2"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+    </row>
+    <row r="64" spans="1:61" ht="16">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -5236,18 +4235,18 @@
       <c r="I64" s="4"/>
       <c r="R64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
-      <c r="AW64" s="4"/>
-      <c r="AX64" s="5"/>
-      <c r="AY64" s="2"/>
       <c r="AZ64" s="2"/>
       <c r="BA64" s="2"/>
-      <c r="BB64" s="2"/>
-      <c r="BC64" s="2"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="5"/>
       <c r="BD64" s="2"/>
-    </row>
-    <row r="65" spans="1:56" ht="16">
+      <c r="BE64" s="2"/>
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="2"/>
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+    </row>
+    <row r="65" spans="1:61" ht="16">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -5260,18 +4259,18 @@
       <c r="J65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="AU65" s="2"/>
-      <c r="AV65" s="2"/>
-      <c r="AW65" s="4"/>
-      <c r="AX65" s="5"/>
-      <c r="AY65" s="2"/>
       <c r="AZ65" s="2"/>
       <c r="BA65" s="2"/>
-      <c r="BB65" s="2"/>
-      <c r="BC65" s="2"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="5"/>
       <c r="BD65" s="2"/>
-    </row>
-    <row r="66" spans="1:56" ht="16">
+      <c r="BE65" s="2"/>
+      <c r="BF65" s="2"/>
+      <c r="BG65" s="2"/>
+      <c r="BH65" s="2"/>
+      <c r="BI65" s="2"/>
+    </row>
+    <row r="66" spans="1:61" ht="16">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -5283,18 +4282,18 @@
       <c r="I66" s="4"/>
       <c r="K66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="4"/>
-      <c r="AX66" s="5"/>
-      <c r="AY66" s="2"/>
       <c r="AZ66" s="2"/>
       <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="2"/>
+      <c r="BB66" s="4"/>
+      <c r="BC66" s="5"/>
       <c r="BD66" s="2"/>
-    </row>
-    <row r="67" spans="1:56" ht="16">
+      <c r="BE66" s="2"/>
+      <c r="BF66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+    </row>
+    <row r="67" spans="1:61" ht="16">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -5305,18 +4304,18 @@
       <c r="H67" s="3"/>
       <c r="I67" s="4"/>
       <c r="R67" s="1"/>
-      <c r="AU67" s="2"/>
-      <c r="AV67" s="2"/>
-      <c r="AW67" s="4"/>
-      <c r="AX67" s="5"/>
-      <c r="AY67" s="2"/>
       <c r="AZ67" s="2"/>
       <c r="BA67" s="2"/>
-      <c r="BB67" s="2"/>
-      <c r="BC67" s="2"/>
+      <c r="BB67" s="4"/>
+      <c r="BC67" s="5"/>
       <c r="BD67" s="2"/>
-    </row>
-    <row r="68" spans="1:56" ht="16">
+      <c r="BE67" s="2"/>
+      <c r="BF67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+    </row>
+    <row r="68" spans="1:61" ht="16">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -5329,18 +4328,18 @@
       <c r="K68" s="1"/>
       <c r="N68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="AU68" s="2"/>
-      <c r="AV68" s="2"/>
-      <c r="AW68" s="4"/>
-      <c r="AX68" s="5"/>
-      <c r="AY68" s="2"/>
       <c r="AZ68" s="2"/>
       <c r="BA68" s="2"/>
-      <c r="BB68" s="2"/>
-      <c r="BC68" s="2"/>
+      <c r="BB68" s="4"/>
+      <c r="BC68" s="5"/>
       <c r="BD68" s="2"/>
-    </row>
-    <row r="69" spans="1:56" ht="16">
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+    </row>
+    <row r="69" spans="1:61" ht="16">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -5351,18 +4350,18 @@
       <c r="H69" s="3"/>
       <c r="I69" s="4"/>
       <c r="AF69" s="1"/>
-      <c r="AU69" s="2"/>
-      <c r="AV69" s="2"/>
-      <c r="AW69" s="5"/>
-      <c r="AX69" s="5"/>
-      <c r="AY69" s="2"/>
       <c r="AZ69" s="2"/>
       <c r="BA69" s="2"/>
-      <c r="BB69" s="2"/>
-      <c r="BC69" s="2"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
       <c r="BD69" s="2"/>
-    </row>
-    <row r="70" spans="1:56" ht="16">
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+    </row>
+    <row r="70" spans="1:61" ht="16">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -5374,18 +4373,18 @@
       <c r="I70" s="4"/>
       <c r="K70" s="1"/>
       <c r="Y70" s="1"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="5"/>
-      <c r="AX70" s="5"/>
-      <c r="AY70" s="2"/>
       <c r="AZ70" s="2"/>
       <c r="BA70" s="2"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
       <c r="BD70" s="2"/>
-    </row>
-    <row r="71" spans="1:56" ht="16">
+      <c r="BE70" s="2"/>
+      <c r="BF70" s="2"/>
+      <c r="BG70" s="2"/>
+      <c r="BH70" s="2"/>
+      <c r="BI70" s="2"/>
+    </row>
+    <row r="71" spans="1:61" ht="16">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -5398,18 +4397,18 @@
       <c r="N71" s="1"/>
       <c r="P71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="AU71" s="2"/>
-      <c r="AV71" s="2"/>
-      <c r="AW71" s="5"/>
-      <c r="AX71" s="5"/>
-      <c r="AY71" s="2"/>
       <c r="AZ71" s="2"/>
       <c r="BA71" s="2"/>
-      <c r="BB71" s="2"/>
-      <c r="BC71" s="2"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
       <c r="BD71" s="2"/>
-    </row>
-    <row r="72" spans="1:56" ht="16">
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+    </row>
+    <row r="72" spans="1:61" ht="16">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -5421,18 +4420,18 @@
       <c r="I72" s="4"/>
       <c r="N72" s="1"/>
       <c r="AF72" s="1"/>
-      <c r="AU72" s="2"/>
-      <c r="AV72" s="2"/>
-      <c r="AW72" s="4"/>
-      <c r="AX72" s="5"/>
-      <c r="AY72" s="2"/>
       <c r="AZ72" s="2"/>
       <c r="BA72" s="2"/>
-      <c r="BB72" s="2"/>
-      <c r="BC72" s="2"/>
+      <c r="BB72" s="4"/>
+      <c r="BC72" s="5"/>
       <c r="BD72" s="2"/>
-    </row>
-    <row r="73" spans="1:56" ht="16">
+      <c r="BE72" s="2"/>
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+    </row>
+    <row r="73" spans="1:61" ht="16">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -5443,18 +4442,18 @@
       <c r="H73" s="3"/>
       <c r="I73" s="4"/>
       <c r="S73" s="1"/>
-      <c r="AU73" s="2"/>
-      <c r="AV73" s="2"/>
-      <c r="AW73" s="4"/>
-      <c r="AX73" s="5"/>
-      <c r="AY73" s="2"/>
       <c r="AZ73" s="2"/>
       <c r="BA73" s="2"/>
-      <c r="BB73" s="2"/>
-      <c r="BC73" s="2"/>
+      <c r="BB73" s="4"/>
+      <c r="BC73" s="5"/>
       <c r="BD73" s="2"/>
-    </row>
-    <row r="74" spans="1:56" ht="16">
+      <c r="BE73" s="2"/>
+      <c r="BF73" s="2"/>
+      <c r="BG73" s="2"/>
+      <c r="BH73" s="2"/>
+      <c r="BI73" s="2"/>
+    </row>
+    <row r="74" spans="1:61" ht="16">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -5465,18 +4464,18 @@
       <c r="H74" s="3"/>
       <c r="I74" s="4"/>
       <c r="J74" s="1"/>
-      <c r="AU74" s="2"/>
-      <c r="AV74" s="2"/>
-      <c r="AW74" s="4"/>
-      <c r="AX74" s="5"/>
-      <c r="AY74" s="2"/>
       <c r="AZ74" s="2"/>
       <c r="BA74" s="2"/>
-      <c r="BB74" s="2"/>
-      <c r="BC74" s="2"/>
+      <c r="BB74" s="4"/>
+      <c r="BC74" s="5"/>
       <c r="BD74" s="2"/>
-    </row>
-    <row r="75" spans="1:56" ht="16">
+      <c r="BE74" s="2"/>
+      <c r="BF74" s="2"/>
+      <c r="BG74" s="2"/>
+      <c r="BH74" s="2"/>
+      <c r="BI74" s="2"/>
+    </row>
+    <row r="75" spans="1:61" ht="16">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -5489,18 +4488,18 @@
       <c r="K75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="AU75" s="2"/>
-      <c r="AV75" s="2"/>
-      <c r="AW75" s="4"/>
-      <c r="AX75" s="5"/>
-      <c r="AY75" s="2"/>
       <c r="AZ75" s="2"/>
       <c r="BA75" s="2"/>
-      <c r="BB75" s="2"/>
-      <c r="BC75" s="2"/>
+      <c r="BB75" s="4"/>
+      <c r="BC75" s="5"/>
       <c r="BD75" s="2"/>
-    </row>
-    <row r="76" spans="1:56" ht="16">
+      <c r="BE75" s="2"/>
+      <c r="BF75" s="2"/>
+      <c r="BG75" s="2"/>
+      <c r="BH75" s="2"/>
+      <c r="BI75" s="2"/>
+    </row>
+    <row r="76" spans="1:61" ht="16">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -5512,18 +4511,18 @@
       <c r="I76" s="4"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="AU76" s="2"/>
-      <c r="AV76" s="2"/>
-      <c r="AW76" s="4"/>
-      <c r="AX76" s="5"/>
-      <c r="AY76" s="2"/>
       <c r="AZ76" s="2"/>
       <c r="BA76" s="2"/>
-      <c r="BB76" s="2"/>
-      <c r="BC76" s="2"/>
+      <c r="BB76" s="4"/>
+      <c r="BC76" s="5"/>
       <c r="BD76" s="2"/>
-    </row>
-    <row r="77" spans="1:56" ht="16">
+      <c r="BE76" s="2"/>
+      <c r="BF76" s="2"/>
+      <c r="BG76" s="2"/>
+      <c r="BH76" s="2"/>
+      <c r="BI76" s="2"/>
+    </row>
+    <row r="77" spans="1:61" ht="16">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -5536,18 +4535,18 @@
       <c r="K77" s="1"/>
       <c r="O77" s="1"/>
       <c r="U77" s="1"/>
-      <c r="AU77" s="2"/>
-      <c r="AV77" s="2"/>
-      <c r="AW77" s="4"/>
-      <c r="AX77" s="5"/>
-      <c r="AY77" s="2"/>
       <c r="AZ77" s="2"/>
       <c r="BA77" s="2"/>
-      <c r="BB77" s="2"/>
-      <c r="BC77" s="2"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="5"/>
       <c r="BD77" s="2"/>
-    </row>
-    <row r="78" spans="1:56" ht="16">
+      <c r="BE77" s="2"/>
+      <c r="BF77" s="2"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+    </row>
+    <row r="78" spans="1:61" ht="16">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -5559,18 +4558,18 @@
       <c r="I78" s="4"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="AU78" s="2"/>
-      <c r="AV78" s="2"/>
-      <c r="AW78" s="4"/>
-      <c r="AX78" s="5"/>
-      <c r="AY78" s="2"/>
       <c r="AZ78" s="2"/>
       <c r="BA78" s="2"/>
-      <c r="BB78" s="2"/>
-      <c r="BC78" s="2"/>
+      <c r="BB78" s="4"/>
+      <c r="BC78" s="5"/>
       <c r="BD78" s="2"/>
-    </row>
-    <row r="79" spans="1:56" ht="16">
+      <c r="BE78" s="2"/>
+      <c r="BF78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+    </row>
+    <row r="79" spans="1:61" ht="16">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -5582,18 +4581,18 @@
       <c r="I79" s="4"/>
       <c r="K79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="AU79" s="2"/>
-      <c r="AV79" s="2"/>
-      <c r="AW79" s="4"/>
-      <c r="AX79" s="5"/>
-      <c r="AY79" s="2"/>
       <c r="AZ79" s="2"/>
       <c r="BA79" s="2"/>
-      <c r="BB79" s="2"/>
-      <c r="BC79" s="2"/>
+      <c r="BB79" s="4"/>
+      <c r="BC79" s="5"/>
       <c r="BD79" s="2"/>
-    </row>
-    <row r="80" spans="1:56" ht="16">
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="2"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+    </row>
+    <row r="80" spans="1:61" ht="16">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -5604,18 +4603,18 @@
       <c r="H80" s="3"/>
       <c r="I80" s="4"/>
       <c r="R80" s="1"/>
-      <c r="AU80" s="2"/>
-      <c r="AV80" s="2"/>
-      <c r="AW80" s="4"/>
-      <c r="AX80" s="5"/>
-      <c r="AY80" s="2"/>
       <c r="AZ80" s="2"/>
       <c r="BA80" s="2"/>
-      <c r="BB80" s="2"/>
-      <c r="BC80" s="2"/>
+      <c r="BB80" s="4"/>
+      <c r="BC80" s="5"/>
       <c r="BD80" s="2"/>
-    </row>
-    <row r="81" spans="1:56" ht="16">
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+    </row>
+    <row r="81" spans="1:61" ht="16">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -5627,18 +4626,18 @@
       <c r="I81" s="4"/>
       <c r="K81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="AU81" s="2"/>
-      <c r="AV81" s="2"/>
-      <c r="AW81" s="4"/>
-      <c r="AX81" s="5"/>
-      <c r="AY81" s="2"/>
       <c r="AZ81" s="2"/>
       <c r="BA81" s="2"/>
-      <c r="BB81" s="2"/>
-      <c r="BC81" s="2"/>
+      <c r="BB81" s="4"/>
+      <c r="BC81" s="5"/>
       <c r="BD81" s="2"/>
-    </row>
-    <row r="82" spans="1:56" ht="16">
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="2"/>
+      <c r="BG81" s="2"/>
+      <c r="BH81" s="2"/>
+      <c r="BI81" s="2"/>
+    </row>
+    <row r="82" spans="1:61" ht="16">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -5650,18 +4649,18 @@
       <c r="I82" s="4"/>
       <c r="K82" s="1"/>
       <c r="S82" s="1"/>
-      <c r="AU82" s="2"/>
-      <c r="AV82" s="2"/>
-      <c r="AW82" s="4"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="2"/>
       <c r="AZ82" s="2"/>
       <c r="BA82" s="2"/>
-      <c r="BB82" s="2"/>
-      <c r="BC82" s="2"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="5"/>
       <c r="BD82" s="2"/>
-    </row>
-    <row r="83" spans="1:56" ht="16">
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+    </row>
+    <row r="83" spans="1:61" ht="16">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -5672,18 +4671,18 @@
       <c r="H83" s="3"/>
       <c r="I83" s="4"/>
       <c r="AB83" s="1"/>
-      <c r="AU83" s="2"/>
-      <c r="AV83" s="2"/>
-      <c r="AW83" s="4"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="2"/>
       <c r="AZ83" s="2"/>
       <c r="BA83" s="2"/>
-      <c r="BB83" s="2"/>
-      <c r="BC83" s="2"/>
+      <c r="BB83" s="4"/>
+      <c r="BC83" s="5"/>
       <c r="BD83" s="2"/>
-    </row>
-    <row r="84" spans="1:56" ht="16">
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+    </row>
+    <row r="84" spans="1:61" ht="16">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -5695,18 +4694,18 @@
       <c r="I84" s="4"/>
       <c r="K84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="AU84" s="2"/>
-      <c r="AV84" s="2"/>
-      <c r="AW84" s="4"/>
-      <c r="AX84" s="5"/>
-      <c r="AY84" s="2"/>
       <c r="AZ84" s="2"/>
       <c r="BA84" s="2"/>
-      <c r="BB84" s="2"/>
-      <c r="BC84" s="2"/>
+      <c r="BB84" s="4"/>
+      <c r="BC84" s="5"/>
       <c r="BD84" s="2"/>
-    </row>
-    <row r="85" spans="1:56" ht="16">
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="2"/>
+      <c r="BG84" s="2"/>
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+    </row>
+    <row r="85" spans="1:61" ht="16">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -5718,18 +4717,18 @@
       <c r="I85" s="4"/>
       <c r="K85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="AU85" s="2"/>
-      <c r="AV85" s="2"/>
-      <c r="AW85" s="4"/>
-      <c r="AX85" s="5"/>
-      <c r="AY85" s="2"/>
       <c r="AZ85" s="2"/>
       <c r="BA85" s="2"/>
-      <c r="BB85" s="2"/>
-      <c r="BC85" s="2"/>
+      <c r="BB85" s="4"/>
+      <c r="BC85" s="5"/>
       <c r="BD85" s="2"/>
-    </row>
-    <row r="86" spans="1:56" ht="16">
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="2"/>
+      <c r="BG85" s="2"/>
+      <c r="BH85" s="2"/>
+      <c r="BI85" s="2"/>
+    </row>
+    <row r="86" spans="1:61" ht="16">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -5741,18 +4740,18 @@
       <c r="I86" s="4"/>
       <c r="K86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="AU86" s="2"/>
-      <c r="AV86" s="2"/>
-      <c r="AW86" s="4"/>
-      <c r="AX86" s="5"/>
-      <c r="AY86" s="2"/>
       <c r="AZ86" s="2"/>
       <c r="BA86" s="2"/>
-      <c r="BB86" s="2"/>
-      <c r="BC86" s="2"/>
+      <c r="BB86" s="4"/>
+      <c r="BC86" s="5"/>
       <c r="BD86" s="2"/>
-    </row>
-    <row r="87" spans="1:56" ht="16">
+      <c r="BE86" s="2"/>
+      <c r="BF86" s="2"/>
+      <c r="BG86" s="2"/>
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+    </row>
+    <row r="87" spans="1:61" ht="16">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -5772,18 +4771,23 @@
       <c r="AP87" s="10"/>
       <c r="AQ87" s="10"/>
       <c r="AR87" s="10"/>
-      <c r="AU87" s="2"/>
-      <c r="AV87" s="2"/>
-      <c r="AW87" s="4"/>
-      <c r="AX87" s="5"/>
-      <c r="AY87" s="2"/>
+      <c r="AS87" s="10"/>
+      <c r="AT87" s="10"/>
+      <c r="AU87" s="10"/>
+      <c r="AV87" s="10"/>
+      <c r="AW87" s="10"/>
       <c r="AZ87" s="2"/>
       <c r="BA87" s="2"/>
-      <c r="BB87" s="2"/>
-      <c r="BC87" s="2"/>
+      <c r="BB87" s="4"/>
+      <c r="BC87" s="5"/>
       <c r="BD87" s="2"/>
-    </row>
-    <row r="88" spans="1:56" ht="16">
+      <c r="BE87" s="2"/>
+      <c r="BF87" s="2"/>
+      <c r="BG87" s="2"/>
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+    </row>
+    <row r="88" spans="1:61" ht="16">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -5802,18 +4806,23 @@
       <c r="AP88" s="10"/>
       <c r="AQ88" s="10"/>
       <c r="AR88" s="10"/>
-      <c r="AU88" s="2"/>
-      <c r="AV88" s="2"/>
-      <c r="AW88" s="4"/>
-      <c r="AX88" s="5"/>
-      <c r="AY88" s="2"/>
+      <c r="AS88" s="10"/>
+      <c r="AT88" s="10"/>
+      <c r="AU88" s="10"/>
+      <c r="AV88" s="10"/>
+      <c r="AW88" s="10"/>
       <c r="AZ88" s="2"/>
       <c r="BA88" s="2"/>
-      <c r="BB88" s="2"/>
-      <c r="BC88" s="2"/>
+      <c r="BB88" s="4"/>
+      <c r="BC88" s="5"/>
       <c r="BD88" s="2"/>
-    </row>
-    <row r="89" spans="1:56" ht="16">
+      <c r="BE88" s="2"/>
+      <c r="BF88" s="2"/>
+      <c r="BG88" s="2"/>
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+    </row>
+    <row r="89" spans="1:61" ht="16">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -5832,18 +4841,23 @@
       <c r="AP89" s="10"/>
       <c r="AQ89" s="10"/>
       <c r="AR89" s="10"/>
-      <c r="AU89" s="2"/>
-      <c r="AV89" s="2"/>
-      <c r="AW89" s="4"/>
-      <c r="AX89" s="5"/>
-      <c r="AY89" s="2"/>
+      <c r="AS89" s="10"/>
+      <c r="AT89" s="10"/>
+      <c r="AU89" s="10"/>
+      <c r="AV89" s="10"/>
+      <c r="AW89" s="10"/>
       <c r="AZ89" s="2"/>
       <c r="BA89" s="2"/>
-      <c r="BB89" s="2"/>
-      <c r="BC89" s="2"/>
+      <c r="BB89" s="4"/>
+      <c r="BC89" s="5"/>
       <c r="BD89" s="2"/>
-    </row>
-    <row r="90" spans="1:56" ht="16">
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="2"/>
+    </row>
+    <row r="90" spans="1:61" ht="16">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -5862,18 +4876,23 @@
       <c r="AP90" s="10"/>
       <c r="AQ90" s="10"/>
       <c r="AR90" s="10"/>
-      <c r="AU90" s="2"/>
-      <c r="AV90" s="2"/>
-      <c r="AW90" s="4"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="2"/>
+      <c r="AS90" s="10"/>
+      <c r="AT90" s="10"/>
+      <c r="AU90" s="10"/>
+      <c r="AV90" s="10"/>
+      <c r="AW90" s="10"/>
       <c r="AZ90" s="2"/>
       <c r="BA90" s="2"/>
-      <c r="BB90" s="2"/>
-      <c r="BC90" s="2"/>
+      <c r="BB90" s="4"/>
+      <c r="BC90" s="5"/>
       <c r="BD90" s="2"/>
-    </row>
-    <row r="91" spans="1:56" ht="16">
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+    </row>
+    <row r="91" spans="1:61" ht="16">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -5894,18 +4913,23 @@
       <c r="AP91" s="10"/>
       <c r="AQ91" s="10"/>
       <c r="AR91" s="10"/>
-      <c r="AU91" s="2"/>
-      <c r="AV91" s="2"/>
-      <c r="AW91" s="4"/>
-      <c r="AX91" s="5"/>
-      <c r="AY91" s="2"/>
+      <c r="AS91" s="10"/>
+      <c r="AT91" s="10"/>
+      <c r="AU91" s="10"/>
+      <c r="AV91" s="10"/>
+      <c r="AW91" s="10"/>
       <c r="AZ91" s="2"/>
       <c r="BA91" s="2"/>
-      <c r="BB91" s="2"/>
-      <c r="BC91" s="2"/>
+      <c r="BB91" s="4"/>
+      <c r="BC91" s="5"/>
       <c r="BD91" s="2"/>
-    </row>
-    <row r="92" spans="1:56" ht="16">
+      <c r="BE91" s="2"/>
+      <c r="BF91" s="2"/>
+      <c r="BG91" s="2"/>
+      <c r="BH91" s="2"/>
+      <c r="BI91" s="2"/>
+    </row>
+    <row r="92" spans="1:61" ht="16">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -5916,19 +4940,19 @@
       <c r="H92" s="3"/>
       <c r="I92" s="4"/>
       <c r="K92" s="1"/>
-      <c r="AR92" s="10"/>
-      <c r="AU92" s="2"/>
-      <c r="AV92" s="2"/>
-      <c r="AW92" s="4"/>
-      <c r="AX92" s="5"/>
-      <c r="AY92" s="2"/>
+      <c r="AW92" s="10"/>
       <c r="AZ92" s="2"/>
       <c r="BA92" s="2"/>
-      <c r="BB92" s="2"/>
-      <c r="BC92" s="2"/>
+      <c r="BB92" s="4"/>
+      <c r="BC92" s="5"/>
       <c r="BD92" s="2"/>
-    </row>
-    <row r="93" spans="1:56" ht="16">
+      <c r="BE92" s="2"/>
+      <c r="BF92" s="2"/>
+      <c r="BG92" s="2"/>
+      <c r="BH92" s="2"/>
+      <c r="BI92" s="2"/>
+    </row>
+    <row r="93" spans="1:61" ht="16">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -5939,19 +4963,19 @@
       <c r="H93" s="3"/>
       <c r="I93" s="4"/>
       <c r="K93" s="1"/>
-      <c r="AR93" s="10"/>
-      <c r="AU93" s="2"/>
-      <c r="AV93" s="2"/>
-      <c r="AW93" s="4"/>
-      <c r="AX93" s="5"/>
-      <c r="AY93" s="2"/>
+      <c r="AW93" s="10"/>
       <c r="AZ93" s="2"/>
       <c r="BA93" s="2"/>
-      <c r="BB93" s="2"/>
-      <c r="BC93" s="2"/>
+      <c r="BB93" s="4"/>
+      <c r="BC93" s="5"/>
       <c r="BD93" s="2"/>
-    </row>
-    <row r="94" spans="1:56" ht="16">
+      <c r="BE93" s="2"/>
+      <c r="BF93" s="2"/>
+      <c r="BG93" s="2"/>
+      <c r="BH93" s="2"/>
+      <c r="BI93" s="2"/>
+    </row>
+    <row r="94" spans="1:61" ht="16">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -5962,19 +4986,19 @@
       <c r="H94" s="3"/>
       <c r="I94" s="4"/>
       <c r="K94" s="1"/>
-      <c r="AR94" s="10"/>
-      <c r="AU94" s="2"/>
-      <c r="AV94" s="2"/>
-      <c r="AW94" s="4"/>
-      <c r="AX94" s="5"/>
-      <c r="AY94" s="2"/>
+      <c r="AW94" s="10"/>
       <c r="AZ94" s="2"/>
       <c r="BA94" s="2"/>
-      <c r="BB94" s="2"/>
-      <c r="BC94" s="2"/>
+      <c r="BB94" s="4"/>
+      <c r="BC94" s="5"/>
       <c r="BD94" s="2"/>
-    </row>
-    <row r="95" spans="1:56" ht="16">
+      <c r="BE94" s="2"/>
+      <c r="BF94" s="2"/>
+      <c r="BG94" s="2"/>
+      <c r="BH94" s="2"/>
+      <c r="BI94" s="2"/>
+    </row>
+    <row r="95" spans="1:61" ht="16">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -5984,18 +5008,18 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="4"/>
-      <c r="AU95" s="2"/>
-      <c r="AV95" s="2"/>
-      <c r="AW95" s="4"/>
-      <c r="AX95" s="5"/>
-      <c r="AY95" s="2"/>
       <c r="AZ95" s="2"/>
       <c r="BA95" s="2"/>
-      <c r="BB95" s="2"/>
-      <c r="BC95" s="2"/>
+      <c r="BB95" s="4"/>
+      <c r="BC95" s="5"/>
       <c r="BD95" s="2"/>
-    </row>
-    <row r="96" spans="1:56" ht="16">
+      <c r="BE95" s="2"/>
+      <c r="BF95" s="2"/>
+      <c r="BG95" s="2"/>
+      <c r="BH95" s="2"/>
+      <c r="BI95" s="2"/>
+    </row>
+    <row r="96" spans="1:61" ht="16">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -6006,18 +5030,18 @@
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
       <c r="K96" s="1"/>
-      <c r="AU96" s="2"/>
-      <c r="AV96" s="2"/>
-      <c r="AW96" s="4"/>
-      <c r="AX96" s="5"/>
-      <c r="AY96" s="2"/>
       <c r="AZ96" s="2"/>
       <c r="BA96" s="2"/>
-      <c r="BB96" s="2"/>
-      <c r="BC96" s="2"/>
+      <c r="BB96" s="4"/>
+      <c r="BC96" s="5"/>
       <c r="BD96" s="2"/>
-    </row>
-    <row r="97" spans="1:56" ht="16">
+      <c r="BE96" s="2"/>
+      <c r="BF96" s="2"/>
+      <c r="BG96" s="2"/>
+      <c r="BH96" s="2"/>
+      <c r="BI96" s="2"/>
+    </row>
+    <row r="97" spans="1:61" ht="16">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -6028,18 +5052,18 @@
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
       <c r="K97" s="1"/>
-      <c r="AU97" s="2"/>
-      <c r="AV97" s="2"/>
-      <c r="AW97" s="4"/>
-      <c r="AX97" s="5"/>
-      <c r="AY97" s="2"/>
       <c r="AZ97" s="2"/>
       <c r="BA97" s="2"/>
-      <c r="BB97" s="2"/>
-      <c r="BC97" s="2"/>
+      <c r="BB97" s="4"/>
+      <c r="BC97" s="5"/>
       <c r="BD97" s="2"/>
-    </row>
-    <row r="98" spans="1:56" ht="16">
+      <c r="BE97" s="2"/>
+      <c r="BF97" s="2"/>
+      <c r="BG97" s="2"/>
+      <c r="BH97" s="2"/>
+      <c r="BI97" s="2"/>
+    </row>
+    <row r="98" spans="1:61" ht="16">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -6050,18 +5074,18 @@
       <c r="H98" s="3"/>
       <c r="I98" s="4"/>
       <c r="K98" s="1"/>
-      <c r="AU98" s="2"/>
-      <c r="AV98" s="2"/>
-      <c r="AW98" s="4"/>
-      <c r="AX98" s="5"/>
-      <c r="AY98" s="2"/>
       <c r="AZ98" s="2"/>
       <c r="BA98" s="2"/>
-      <c r="BB98" s="2"/>
-      <c r="BC98" s="2"/>
-      <c r="BD98" s="5"/>
-    </row>
-    <row r="99" spans="1:56" ht="16">
+      <c r="BB98" s="4"/>
+      <c r="BC98" s="5"/>
+      <c r="BD98" s="2"/>
+      <c r="BE98" s="2"/>
+      <c r="BF98" s="2"/>
+      <c r="BG98" s="2"/>
+      <c r="BH98" s="2"/>
+      <c r="BI98" s="5"/>
+    </row>
+    <row r="99" spans="1:61" ht="16">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -6072,18 +5096,18 @@
       <c r="H99" s="3"/>
       <c r="I99" s="4"/>
       <c r="K99" s="1"/>
-      <c r="AU99" s="2"/>
-      <c r="AV99" s="2"/>
-      <c r="AW99" s="4"/>
-      <c r="AX99" s="5"/>
-      <c r="AY99" s="2"/>
       <c r="AZ99" s="2"/>
       <c r="BA99" s="2"/>
-      <c r="BB99" s="2"/>
-      <c r="BC99" s="2"/>
-      <c r="BD99" s="5"/>
-    </row>
-    <row r="100" spans="1:56" ht="16">
+      <c r="BB99" s="4"/>
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="2"/>
+      <c r="BE99" s="2"/>
+      <c r="BF99" s="2"/>
+      <c r="BG99" s="2"/>
+      <c r="BH99" s="2"/>
+      <c r="BI99" s="5"/>
+    </row>
+    <row r="100" spans="1:61" ht="16">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -6096,18 +5120,18 @@
       <c r="K100" s="1"/>
       <c r="P100" s="1"/>
       <c r="AF100" s="1"/>
-      <c r="AU100" s="2"/>
-      <c r="AV100" s="2"/>
-      <c r="AW100" s="4"/>
-      <c r="AX100" s="5"/>
-      <c r="AY100" s="2"/>
       <c r="AZ100" s="2"/>
       <c r="BA100" s="2"/>
-      <c r="BB100" s="2"/>
-      <c r="BC100" s="2"/>
-      <c r="BD100" s="5"/>
-    </row>
-    <row r="101" spans="1:56" ht="16">
+      <c r="BB100" s="4"/>
+      <c r="BC100" s="5"/>
+      <c r="BD100" s="2"/>
+      <c r="BE100" s="2"/>
+      <c r="BF100" s="2"/>
+      <c r="BG100" s="2"/>
+      <c r="BH100" s="2"/>
+      <c r="BI100" s="5"/>
+    </row>
+    <row r="101" spans="1:61" ht="16">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
@@ -6119,18 +5143,18 @@
       <c r="I101" s="4"/>
       <c r="K101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="AU101" s="2"/>
-      <c r="AV101" s="2"/>
-      <c r="AW101" s="4"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="2"/>
       <c r="AZ101" s="2"/>
       <c r="BA101" s="2"/>
-      <c r="BB101" s="2"/>
-      <c r="BC101" s="2"/>
-      <c r="BD101" s="5"/>
-    </row>
-    <row r="102" spans="1:56" ht="16">
+      <c r="BB101" s="4"/>
+      <c r="BC101" s="5"/>
+      <c r="BD101" s="2"/>
+      <c r="BE101" s="2"/>
+      <c r="BF101" s="2"/>
+      <c r="BG101" s="2"/>
+      <c r="BH101" s="2"/>
+      <c r="BI101" s="5"/>
+    </row>
+    <row r="102" spans="1:61" ht="16">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -6144,18 +5168,18 @@
       <c r="K102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="AF102" s="1"/>
-      <c r="AU102" s="2"/>
-      <c r="AV102" s="2"/>
-      <c r="AW102" s="4"/>
-      <c r="AX102" s="5"/>
-      <c r="AY102" s="2"/>
       <c r="AZ102" s="2"/>
       <c r="BA102" s="2"/>
-      <c r="BB102" s="2"/>
-      <c r="BC102" s="2"/>
-      <c r="BD102" s="5"/>
-    </row>
-    <row r="103" spans="1:56" ht="16">
+      <c r="BB102" s="4"/>
+      <c r="BC102" s="5"/>
+      <c r="BD102" s="2"/>
+      <c r="BE102" s="2"/>
+      <c r="BF102" s="2"/>
+      <c r="BG102" s="2"/>
+      <c r="BH102" s="2"/>
+      <c r="BI102" s="5"/>
+    </row>
+    <row r="103" spans="1:61" ht="16">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -6168,18 +5192,18 @@
       <c r="K103" s="1"/>
       <c r="X103" s="1"/>
       <c r="AF103" s="1"/>
-      <c r="AU103" s="2"/>
-      <c r="AV103" s="2"/>
-      <c r="AW103" s="5"/>
-      <c r="AX103" s="5"/>
-      <c r="AY103" s="2"/>
       <c r="AZ103" s="2"/>
       <c r="BA103" s="2"/>
-      <c r="BB103" s="2"/>
-      <c r="BC103" s="2"/>
-      <c r="BD103" s="5"/>
-    </row>
-    <row r="104" spans="1:56" ht="16">
+      <c r="BB103" s="5"/>
+      <c r="BC103" s="5"/>
+      <c r="BD103" s="2"/>
+      <c r="BE103" s="2"/>
+      <c r="BF103" s="2"/>
+      <c r="BG103" s="2"/>
+      <c r="BH103" s="2"/>
+      <c r="BI103" s="5"/>
+    </row>
+    <row r="104" spans="1:61" ht="16">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -6191,18 +5215,18 @@
       <c r="I104" s="4"/>
       <c r="K104" s="1"/>
       <c r="AF104" s="1"/>
-      <c r="AU104" s="2"/>
-      <c r="AV104" s="2"/>
-      <c r="AW104" s="5"/>
-      <c r="AX104" s="5"/>
-      <c r="AY104" s="2"/>
       <c r="AZ104" s="2"/>
       <c r="BA104" s="2"/>
-      <c r="BB104" s="2"/>
-      <c r="BC104" s="2"/>
-      <c r="BD104" s="5"/>
-    </row>
-    <row r="105" spans="1:56" ht="16">
+      <c r="BB104" s="5"/>
+      <c r="BC104" s="5"/>
+      <c r="BD104" s="2"/>
+      <c r="BE104" s="2"/>
+      <c r="BF104" s="2"/>
+      <c r="BG104" s="2"/>
+      <c r="BH104" s="2"/>
+      <c r="BI104" s="5"/>
+    </row>
+    <row r="105" spans="1:61" ht="16">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
@@ -6222,18 +5246,23 @@
       <c r="AN105" s="1"/>
       <c r="AO105" s="1"/>
       <c r="AP105" s="1"/>
-      <c r="AU105" s="2"/>
-      <c r="AV105" s="2"/>
-      <c r="AW105" s="4"/>
-      <c r="AX105" s="5"/>
-      <c r="AY105" s="2"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
       <c r="AZ105" s="2"/>
       <c r="BA105" s="2"/>
-      <c r="BB105" s="2"/>
-      <c r="BC105" s="2"/>
-      <c r="BD105" s="5"/>
-    </row>
-    <row r="106" spans="1:56" ht="16">
+      <c r="BB105" s="4"/>
+      <c r="BC105" s="5"/>
+      <c r="BD105" s="2"/>
+      <c r="BE105" s="2"/>
+      <c r="BF105" s="2"/>
+      <c r="BG105" s="2"/>
+      <c r="BH105" s="2"/>
+      <c r="BI105" s="5"/>
+    </row>
+    <row r="106" spans="1:61" ht="16">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -6245,18 +5274,18 @@
       <c r="I106" s="4"/>
       <c r="K106" s="1"/>
       <c r="Z106" s="1"/>
-      <c r="AU106" s="2"/>
-      <c r="AV106" s="2"/>
-      <c r="AW106" s="5"/>
-      <c r="AX106" s="5"/>
-      <c r="AY106" s="2"/>
       <c r="AZ106" s="2"/>
       <c r="BA106" s="2"/>
-      <c r="BB106" s="2"/>
-      <c r="BC106" s="2"/>
-      <c r="BD106" s="5"/>
-    </row>
-    <row r="107" spans="1:56" ht="16">
+      <c r="BB106" s="5"/>
+      <c r="BC106" s="5"/>
+      <c r="BD106" s="2"/>
+      <c r="BE106" s="2"/>
+      <c r="BF106" s="2"/>
+      <c r="BG106" s="2"/>
+      <c r="BH106" s="2"/>
+      <c r="BI106" s="5"/>
+    </row>
+    <row r="107" spans="1:61" ht="16">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
@@ -6267,18 +5296,18 @@
       <c r="H107" s="3"/>
       <c r="I107" s="4"/>
       <c r="L107" s="1"/>
-      <c r="AU107" s="2"/>
-      <c r="AV107" s="2"/>
-      <c r="AW107" s="4"/>
-      <c r="AX107" s="5"/>
-      <c r="AY107" s="2"/>
       <c r="AZ107" s="2"/>
       <c r="BA107" s="2"/>
-      <c r="BB107" s="2"/>
-      <c r="BC107" s="2"/>
-      <c r="BD107" s="5"/>
-    </row>
-    <row r="108" spans="1:56" ht="16">
+      <c r="BB107" s="4"/>
+      <c r="BC107" s="5"/>
+      <c r="BD107" s="2"/>
+      <c r="BE107" s="2"/>
+      <c r="BF107" s="2"/>
+      <c r="BG107" s="2"/>
+      <c r="BH107" s="2"/>
+      <c r="BI107" s="5"/>
+    </row>
+    <row r="108" spans="1:61" ht="16">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -6289,18 +5318,18 @@
       <c r="H108" s="3"/>
       <c r="I108" s="4"/>
       <c r="S108" s="1"/>
-      <c r="AU108" s="2"/>
-      <c r="AV108" s="2"/>
-      <c r="AW108" s="4"/>
-      <c r="AX108" s="5"/>
-      <c r="AY108" s="2"/>
       <c r="AZ108" s="2"/>
       <c r="BA108" s="2"/>
-      <c r="BB108" s="2"/>
-      <c r="BC108" s="2"/>
-      <c r="BD108" s="5"/>
-    </row>
-    <row r="109" spans="1:56" ht="16">
+      <c r="BB108" s="4"/>
+      <c r="BC108" s="5"/>
+      <c r="BD108" s="2"/>
+      <c r="BE108" s="2"/>
+      <c r="BF108" s="2"/>
+      <c r="BG108" s="2"/>
+      <c r="BH108" s="2"/>
+      <c r="BI108" s="5"/>
+    </row>
+    <row r="109" spans="1:61" ht="16">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -6311,18 +5340,18 @@
       <c r="H109" s="3"/>
       <c r="I109" s="4"/>
       <c r="K109" s="1"/>
-      <c r="AU109" s="2"/>
-      <c r="AV109" s="2"/>
-      <c r="AW109" s="4"/>
-      <c r="AX109" s="5"/>
-      <c r="AY109" s="2"/>
       <c r="AZ109" s="2"/>
       <c r="BA109" s="2"/>
-      <c r="BB109" s="2"/>
-      <c r="BC109" s="2"/>
-      <c r="BD109" s="5"/>
-    </row>
-    <row r="110" spans="1:56" ht="16">
+      <c r="BB109" s="4"/>
+      <c r="BC109" s="5"/>
+      <c r="BD109" s="2"/>
+      <c r="BE109" s="2"/>
+      <c r="BF109" s="2"/>
+      <c r="BG109" s="2"/>
+      <c r="BH109" s="2"/>
+      <c r="BI109" s="5"/>
+    </row>
+    <row r="110" spans="1:61" ht="16">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -6335,18 +5364,18 @@
       <c r="K110" s="1"/>
       <c r="S110" s="1"/>
       <c r="U110" s="1"/>
-      <c r="AU110" s="2"/>
-      <c r="AV110" s="2"/>
-      <c r="AW110" s="4"/>
-      <c r="AX110" s="5"/>
-      <c r="AY110" s="2"/>
       <c r="AZ110" s="2"/>
       <c r="BA110" s="2"/>
-      <c r="BB110" s="2"/>
-      <c r="BC110" s="2"/>
-      <c r="BD110" s="5"/>
-    </row>
-    <row r="111" spans="1:56" ht="16">
+      <c r="BB110" s="4"/>
+      <c r="BC110" s="5"/>
+      <c r="BD110" s="2"/>
+      <c r="BE110" s="2"/>
+      <c r="BF110" s="2"/>
+      <c r="BG110" s="2"/>
+      <c r="BH110" s="2"/>
+      <c r="BI110" s="5"/>
+    </row>
+    <row r="111" spans="1:61" ht="16">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -6359,18 +5388,18 @@
       <c r="K111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="AU111" s="2"/>
-      <c r="AV111" s="2"/>
-      <c r="AW111" s="4"/>
-      <c r="AX111" s="5"/>
-      <c r="AY111" s="2"/>
       <c r="AZ111" s="2"/>
       <c r="BA111" s="2"/>
-      <c r="BB111" s="2"/>
-      <c r="BC111" s="2"/>
-      <c r="BD111" s="5"/>
-    </row>
-    <row r="112" spans="1:56" ht="16">
+      <c r="BB111" s="4"/>
+      <c r="BC111" s="5"/>
+      <c r="BD111" s="2"/>
+      <c r="BE111" s="2"/>
+      <c r="BF111" s="2"/>
+      <c r="BG111" s="2"/>
+      <c r="BH111" s="2"/>
+      <c r="BI111" s="5"/>
+    </row>
+    <row r="112" spans="1:61" ht="16">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -6380,18 +5409,18 @@
       <c r="H112" s="3"/>
       <c r="I112" s="4"/>
       <c r="K112" s="1"/>
-      <c r="AU112" s="2"/>
-      <c r="AV112" s="2"/>
-      <c r="AW112" s="4"/>
-      <c r="AX112" s="5"/>
-      <c r="AY112" s="2"/>
       <c r="AZ112" s="2"/>
       <c r="BA112" s="2"/>
-      <c r="BB112" s="2"/>
-      <c r="BC112" s="2"/>
-      <c r="BD112" s="5"/>
-    </row>
-    <row r="113" spans="1:56" ht="16">
+      <c r="BB112" s="4"/>
+      <c r="BC112" s="5"/>
+      <c r="BD112" s="2"/>
+      <c r="BE112" s="2"/>
+      <c r="BF112" s="2"/>
+      <c r="BG112" s="2"/>
+      <c r="BH112" s="2"/>
+      <c r="BI112" s="5"/>
+    </row>
+    <row r="113" spans="1:61" ht="16">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -6403,18 +5432,18 @@
       <c r="I113" s="4"/>
       <c r="K113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="AU113" s="2"/>
-      <c r="AV113" s="2"/>
-      <c r="AW113" s="4"/>
-      <c r="AX113" s="5"/>
-      <c r="AY113" s="2"/>
       <c r="AZ113" s="2"/>
       <c r="BA113" s="2"/>
-      <c r="BB113" s="2"/>
-      <c r="BC113" s="2"/>
-      <c r="BD113" s="5"/>
-    </row>
-    <row r="114" spans="1:56" ht="16">
+      <c r="BB113" s="4"/>
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="2"/>
+      <c r="BE113" s="2"/>
+      <c r="BF113" s="2"/>
+      <c r="BG113" s="2"/>
+      <c r="BH113" s="2"/>
+      <c r="BI113" s="5"/>
+    </row>
+    <row r="114" spans="1:61" ht="16">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -6425,18 +5454,18 @@
       <c r="H114" s="3"/>
       <c r="I114" s="4"/>
       <c r="K114" s="1"/>
-      <c r="AU114" s="2"/>
-      <c r="AV114" s="2"/>
-      <c r="AW114" s="4"/>
-      <c r="AX114" s="5"/>
-      <c r="AY114" s="2"/>
       <c r="AZ114" s="2"/>
       <c r="BA114" s="2"/>
-      <c r="BB114" s="2"/>
-      <c r="BC114" s="2"/>
-      <c r="BD114" s="5"/>
-    </row>
-    <row r="115" spans="1:56" ht="16">
+      <c r="BB114" s="4"/>
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="2"/>
+      <c r="BE114" s="2"/>
+      <c r="BF114" s="2"/>
+      <c r="BG114" s="2"/>
+      <c r="BH114" s="2"/>
+      <c r="BI114" s="5"/>
+    </row>
+    <row r="115" spans="1:61" ht="16">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -6447,18 +5476,18 @@
       <c r="H115" s="3"/>
       <c r="I115" s="4"/>
       <c r="Y115" s="1"/>
-      <c r="AU115" s="2"/>
-      <c r="AV115" s="2"/>
-      <c r="AW115" s="5"/>
-      <c r="AX115" s="5"/>
-      <c r="AY115" s="2"/>
       <c r="AZ115" s="2"/>
       <c r="BA115" s="2"/>
-      <c r="BB115" s="2"/>
-      <c r="BC115" s="2"/>
-      <c r="BD115" s="5"/>
-    </row>
-    <row r="116" spans="1:56" ht="16">
+      <c r="BB115" s="5"/>
+      <c r="BC115" s="5"/>
+      <c r="BD115" s="2"/>
+      <c r="BE115" s="2"/>
+      <c r="BF115" s="2"/>
+      <c r="BG115" s="2"/>
+      <c r="BH115" s="2"/>
+      <c r="BI115" s="5"/>
+    </row>
+    <row r="116" spans="1:61" ht="16">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -6469,18 +5498,18 @@
       <c r="H116" s="3"/>
       <c r="I116" s="4"/>
       <c r="K116" s="1"/>
-      <c r="AU116" s="2"/>
-      <c r="AV116" s="2"/>
-      <c r="AW116" s="4"/>
-      <c r="AX116" s="5"/>
-      <c r="AY116" s="2"/>
       <c r="AZ116" s="2"/>
       <c r="BA116" s="2"/>
-      <c r="BB116" s="2"/>
-      <c r="BC116" s="2"/>
-      <c r="BD116" s="5"/>
-    </row>
-    <row r="117" spans="1:56" ht="16">
+      <c r="BB116" s="4"/>
+      <c r="BC116" s="5"/>
+      <c r="BD116" s="2"/>
+      <c r="BE116" s="2"/>
+      <c r="BF116" s="2"/>
+      <c r="BG116" s="2"/>
+      <c r="BH116" s="2"/>
+      <c r="BI116" s="5"/>
+    </row>
+    <row r="117" spans="1:61" ht="16">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -6491,18 +5520,18 @@
       <c r="H117" s="3"/>
       <c r="I117" s="4"/>
       <c r="S117" s="1"/>
-      <c r="AU117" s="2"/>
-      <c r="AV117" s="2"/>
-      <c r="AW117" s="4"/>
-      <c r="AX117" s="5"/>
-      <c r="AY117" s="2"/>
       <c r="AZ117" s="2"/>
       <c r="BA117" s="2"/>
-      <c r="BB117" s="2"/>
-      <c r="BC117" s="2"/>
-      <c r="BD117" s="5"/>
-    </row>
-    <row r="118" spans="1:56" ht="16">
+      <c r="BB117" s="4"/>
+      <c r="BC117" s="5"/>
+      <c r="BD117" s="2"/>
+      <c r="BE117" s="2"/>
+      <c r="BF117" s="2"/>
+      <c r="BG117" s="2"/>
+      <c r="BH117" s="2"/>
+      <c r="BI117" s="5"/>
+    </row>
+    <row r="118" spans="1:61" ht="16">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -6513,18 +5542,18 @@
       <c r="H118" s="3"/>
       <c r="I118" s="4"/>
       <c r="S118" s="1"/>
-      <c r="AU118" s="2"/>
-      <c r="AV118" s="2"/>
-      <c r="AW118" s="4"/>
-      <c r="AX118" s="5"/>
-      <c r="AY118" s="2"/>
       <c r="AZ118" s="2"/>
       <c r="BA118" s="2"/>
-      <c r="BB118" s="2"/>
-      <c r="BC118" s="2"/>
-      <c r="BD118" s="5"/>
-    </row>
-    <row r="119" spans="1:56" ht="16">
+      <c r="BB118" s="4"/>
+      <c r="BC118" s="5"/>
+      <c r="BD118" s="2"/>
+      <c r="BE118" s="2"/>
+      <c r="BF118" s="2"/>
+      <c r="BG118" s="2"/>
+      <c r="BH118" s="2"/>
+      <c r="BI118" s="5"/>
+    </row>
+    <row r="119" spans="1:61" ht="16">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
@@ -6535,18 +5564,18 @@
       <c r="H119" s="3"/>
       <c r="I119" s="4"/>
       <c r="S119" s="1"/>
-      <c r="AU119" s="2"/>
-      <c r="AV119" s="2"/>
-      <c r="AW119" s="4"/>
-      <c r="AX119" s="5"/>
-      <c r="AY119" s="2"/>
       <c r="AZ119" s="2"/>
       <c r="BA119" s="2"/>
-      <c r="BB119" s="2"/>
-      <c r="BC119" s="2"/>
-      <c r="BD119" s="5"/>
-    </row>
-    <row r="120" spans="1:56" ht="16">
+      <c r="BB119" s="4"/>
+      <c r="BC119" s="5"/>
+      <c r="BD119" s="2"/>
+      <c r="BE119" s="2"/>
+      <c r="BF119" s="2"/>
+      <c r="BG119" s="2"/>
+      <c r="BH119" s="2"/>
+      <c r="BI119" s="5"/>
+    </row>
+    <row r="120" spans="1:61" ht="16">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -6557,18 +5586,18 @@
       <c r="H120" s="3"/>
       <c r="I120" s="4"/>
       <c r="S120" s="1"/>
-      <c r="AU120" s="2"/>
-      <c r="AV120" s="2"/>
-      <c r="AW120" s="4"/>
-      <c r="AX120" s="5"/>
-      <c r="AY120" s="2"/>
       <c r="AZ120" s="2"/>
       <c r="BA120" s="2"/>
-      <c r="BB120" s="2"/>
-      <c r="BC120" s="2"/>
-      <c r="BD120" s="5"/>
-    </row>
-    <row r="121" spans="1:56" ht="16">
+      <c r="BB120" s="4"/>
+      <c r="BC120" s="5"/>
+      <c r="BD120" s="2"/>
+      <c r="BE120" s="2"/>
+      <c r="BF120" s="2"/>
+      <c r="BG120" s="2"/>
+      <c r="BH120" s="2"/>
+      <c r="BI120" s="5"/>
+    </row>
+    <row r="121" spans="1:61" ht="16">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
@@ -6579,18 +5608,18 @@
       <c r="H121" s="3"/>
       <c r="I121" s="4"/>
       <c r="U121" s="1"/>
-      <c r="AU121" s="2"/>
-      <c r="AV121" s="2"/>
-      <c r="AW121" s="4"/>
-      <c r="AX121" s="5"/>
-      <c r="AY121" s="2"/>
       <c r="AZ121" s="2"/>
       <c r="BA121" s="2"/>
-      <c r="BB121" s="2"/>
-      <c r="BC121" s="2"/>
-      <c r="BD121" s="5"/>
-    </row>
-    <row r="122" spans="1:56" ht="16">
+      <c r="BB121" s="4"/>
+      <c r="BC121" s="5"/>
+      <c r="BD121" s="2"/>
+      <c r="BE121" s="2"/>
+      <c r="BF121" s="2"/>
+      <c r="BG121" s="2"/>
+      <c r="BH121" s="2"/>
+      <c r="BI121" s="5"/>
+    </row>
+    <row r="122" spans="1:61" ht="16">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -6602,18 +5631,18 @@
       <c r="I122" s="4"/>
       <c r="K122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="AU122" s="2"/>
-      <c r="AV122" s="2"/>
-      <c r="AW122" s="4"/>
-      <c r="AX122" s="5"/>
-      <c r="AY122" s="2"/>
       <c r="AZ122" s="2"/>
       <c r="BA122" s="2"/>
-      <c r="BB122" s="2"/>
-      <c r="BC122" s="2"/>
-      <c r="BD122" s="5"/>
-    </row>
-    <row r="123" spans="1:56" ht="16">
+      <c r="BB122" s="4"/>
+      <c r="BC122" s="5"/>
+      <c r="BD122" s="2"/>
+      <c r="BE122" s="2"/>
+      <c r="BF122" s="2"/>
+      <c r="BG122" s="2"/>
+      <c r="BH122" s="2"/>
+      <c r="BI122" s="5"/>
+    </row>
+    <row r="123" spans="1:61" ht="16">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -6624,18 +5653,18 @@
       <c r="H123" s="3"/>
       <c r="I123" s="4"/>
       <c r="AF123" s="1"/>
-      <c r="AU123" s="2"/>
-      <c r="AV123" s="2"/>
-      <c r="AW123" s="4"/>
-      <c r="AX123" s="5"/>
-      <c r="AY123" s="2"/>
       <c r="AZ123" s="2"/>
       <c r="BA123" s="2"/>
-      <c r="BB123" s="2"/>
-      <c r="BC123" s="2"/>
-      <c r="BD123" s="5"/>
-    </row>
-    <row r="124" spans="1:56" ht="16">
+      <c r="BB123" s="4"/>
+      <c r="BC123" s="5"/>
+      <c r="BD123" s="2"/>
+      <c r="BE123" s="2"/>
+      <c r="BF123" s="2"/>
+      <c r="BG123" s="2"/>
+      <c r="BH123" s="2"/>
+      <c r="BI123" s="5"/>
+    </row>
+    <row r="124" spans="1:61" ht="16">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -6646,18 +5675,18 @@
       <c r="H124" s="3"/>
       <c r="I124" s="4"/>
       <c r="Y124" s="1"/>
-      <c r="AU124" s="2"/>
-      <c r="AV124" s="2"/>
-      <c r="AW124" s="5"/>
-      <c r="AX124" s="5"/>
-      <c r="AY124" s="2"/>
       <c r="AZ124" s="2"/>
       <c r="BA124" s="2"/>
-      <c r="BB124" s="2"/>
-      <c r="BC124" s="2"/>
-      <c r="BD124" s="5"/>
-    </row>
-    <row r="125" spans="1:56" ht="16">
+      <c r="BB124" s="5"/>
+      <c r="BC124" s="5"/>
+      <c r="BD124" s="2"/>
+      <c r="BE124" s="2"/>
+      <c r="BF124" s="2"/>
+      <c r="BG124" s="2"/>
+      <c r="BH124" s="2"/>
+      <c r="BI124" s="5"/>
+    </row>
+    <row r="125" spans="1:61" ht="16">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
@@ -6668,18 +5697,18 @@
       <c r="H125" s="3"/>
       <c r="I125" s="4"/>
       <c r="U125" s="1"/>
-      <c r="AU125" s="2"/>
-      <c r="AV125" s="2"/>
-      <c r="AW125" s="4"/>
-      <c r="AX125" s="5"/>
-      <c r="AY125" s="2"/>
       <c r="AZ125" s="2"/>
       <c r="BA125" s="2"/>
-      <c r="BB125" s="2"/>
-      <c r="BC125" s="2"/>
-      <c r="BD125" s="5"/>
-    </row>
-    <row r="126" spans="1:56" ht="16">
+      <c r="BB125" s="4"/>
+      <c r="BC125" s="5"/>
+      <c r="BD125" s="2"/>
+      <c r="BE125" s="2"/>
+      <c r="BF125" s="2"/>
+      <c r="BG125" s="2"/>
+      <c r="BH125" s="2"/>
+      <c r="BI125" s="5"/>
+    </row>
+    <row r="126" spans="1:61" ht="16">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -6690,18 +5719,18 @@
       <c r="H126" s="3"/>
       <c r="I126" s="4"/>
       <c r="O126" s="1"/>
-      <c r="AU126" s="2"/>
-      <c r="AV126" s="2"/>
-      <c r="AW126" s="4"/>
-      <c r="AX126" s="5"/>
-      <c r="AY126" s="2"/>
       <c r="AZ126" s="2"/>
       <c r="BA126" s="2"/>
-      <c r="BB126" s="2"/>
-      <c r="BC126" s="2"/>
-      <c r="BD126" s="5"/>
-    </row>
-    <row r="127" spans="1:56" ht="16">
+      <c r="BB126" s="4"/>
+      <c r="BC126" s="5"/>
+      <c r="BD126" s="2"/>
+      <c r="BE126" s="2"/>
+      <c r="BF126" s="2"/>
+      <c r="BG126" s="2"/>
+      <c r="BH126" s="2"/>
+      <c r="BI126" s="5"/>
+    </row>
+    <row r="127" spans="1:61" ht="16">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -6712,18 +5741,18 @@
       <c r="H127" s="3"/>
       <c r="I127" s="4"/>
       <c r="K127" s="1"/>
-      <c r="AU127" s="2"/>
-      <c r="AV127" s="2"/>
-      <c r="AW127" s="4"/>
-      <c r="AX127" s="5"/>
-      <c r="AY127" s="2"/>
       <c r="AZ127" s="2"/>
       <c r="BA127" s="2"/>
-      <c r="BB127" s="2"/>
-      <c r="BC127" s="2"/>
-      <c r="BD127" s="5"/>
-    </row>
-    <row r="128" spans="1:56" ht="16">
+      <c r="BB127" s="4"/>
+      <c r="BC127" s="5"/>
+      <c r="BD127" s="2"/>
+      <c r="BE127" s="2"/>
+      <c r="BF127" s="2"/>
+      <c r="BG127" s="2"/>
+      <c r="BH127" s="2"/>
+      <c r="BI127" s="5"/>
+    </row>
+    <row r="128" spans="1:61" ht="16">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -6734,18 +5763,18 @@
       <c r="H128" s="3"/>
       <c r="I128" s="4"/>
       <c r="K128" s="1"/>
-      <c r="AU128" s="2"/>
-      <c r="AV128" s="2"/>
-      <c r="AW128" s="4"/>
-      <c r="AX128" s="5"/>
-      <c r="AY128" s="2"/>
       <c r="AZ128" s="2"/>
       <c r="BA128" s="2"/>
-      <c r="BB128" s="2"/>
-      <c r="BC128" s="2"/>
-      <c r="BD128" s="5"/>
-    </row>
-    <row r="129" spans="1:56" ht="16">
+      <c r="BB128" s="4"/>
+      <c r="BC128" s="5"/>
+      <c r="BD128" s="2"/>
+      <c r="BE128" s="2"/>
+      <c r="BF128" s="2"/>
+      <c r="BG128" s="2"/>
+      <c r="BH128" s="2"/>
+      <c r="BI128" s="5"/>
+    </row>
+    <row r="129" spans="1:61" ht="16">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
@@ -6757,18 +5786,18 @@
       <c r="I129" s="4"/>
       <c r="K129" s="1"/>
       <c r="R129" s="1"/>
-      <c r="AU129" s="2"/>
-      <c r="AV129" s="2"/>
-      <c r="AW129" s="4"/>
-      <c r="AX129" s="5"/>
-      <c r="AY129" s="2"/>
       <c r="AZ129" s="2"/>
       <c r="BA129" s="2"/>
-      <c r="BB129" s="2"/>
-      <c r="BC129" s="2"/>
-      <c r="BD129" s="5"/>
-    </row>
-    <row r="130" spans="1:56" ht="16">
+      <c r="BB129" s="4"/>
+      <c r="BC129" s="5"/>
+      <c r="BD129" s="2"/>
+      <c r="BE129" s="2"/>
+      <c r="BF129" s="2"/>
+      <c r="BG129" s="2"/>
+      <c r="BH129" s="2"/>
+      <c r="BI129" s="5"/>
+    </row>
+    <row r="130" spans="1:61" ht="16">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -6780,18 +5809,18 @@
       <c r="I130" s="4"/>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
-      <c r="AU130" s="2"/>
-      <c r="AV130" s="2"/>
-      <c r="AW130" s="4"/>
-      <c r="AX130" s="5"/>
-      <c r="AY130" s="2"/>
       <c r="AZ130" s="2"/>
       <c r="BA130" s="2"/>
-      <c r="BB130" s="2"/>
-      <c r="BC130" s="2"/>
-      <c r="BD130" s="5"/>
-    </row>
-    <row r="131" spans="1:56" ht="16">
+      <c r="BB130" s="4"/>
+      <c r="BC130" s="5"/>
+      <c r="BD130" s="2"/>
+      <c r="BE130" s="2"/>
+      <c r="BF130" s="2"/>
+      <c r="BG130" s="2"/>
+      <c r="BH130" s="2"/>
+      <c r="BI130" s="5"/>
+    </row>
+    <row r="131" spans="1:61" ht="16">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -6802,18 +5831,18 @@
       <c r="H131" s="3"/>
       <c r="I131" s="4"/>
       <c r="S131" s="1"/>
-      <c r="AU131" s="2"/>
-      <c r="AV131" s="2"/>
-      <c r="AW131" s="4"/>
-      <c r="AX131" s="5"/>
-      <c r="AY131" s="2"/>
       <c r="AZ131" s="2"/>
       <c r="BA131" s="2"/>
-      <c r="BB131" s="2"/>
-      <c r="BC131" s="2"/>
-      <c r="BD131" s="5"/>
-    </row>
-    <row r="132" spans="1:56" ht="16">
+      <c r="BB131" s="4"/>
+      <c r="BC131" s="5"/>
+      <c r="BD131" s="2"/>
+      <c r="BE131" s="2"/>
+      <c r="BF131" s="2"/>
+      <c r="BG131" s="2"/>
+      <c r="BH131" s="2"/>
+      <c r="BI131" s="5"/>
+    </row>
+    <row r="132" spans="1:61" ht="16">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -6824,18 +5853,18 @@
       <c r="H132" s="3"/>
       <c r="I132" s="4"/>
       <c r="J132" s="1"/>
-      <c r="AU132" s="2"/>
-      <c r="AV132" s="2"/>
-      <c r="AW132" s="5"/>
-      <c r="AX132" s="5"/>
-      <c r="AY132" s="2"/>
       <c r="AZ132" s="2"/>
       <c r="BA132" s="2"/>
-      <c r="BB132" s="2"/>
-      <c r="BC132" s="2"/>
-      <c r="BD132" s="5"/>
-    </row>
-    <row r="133" spans="1:56" ht="16">
+      <c r="BB132" s="5"/>
+      <c r="BC132" s="5"/>
+      <c r="BD132" s="2"/>
+      <c r="BE132" s="2"/>
+      <c r="BF132" s="2"/>
+      <c r="BG132" s="2"/>
+      <c r="BH132" s="2"/>
+      <c r="BI132" s="5"/>
+    </row>
+    <row r="133" spans="1:61" ht="16">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -6846,18 +5875,18 @@
       <c r="H133" s="3"/>
       <c r="I133" s="4"/>
       <c r="Y133" s="1"/>
-      <c r="AU133" s="2"/>
-      <c r="AV133" s="2"/>
-      <c r="AW133" s="5"/>
-      <c r="AX133" s="5"/>
-      <c r="AY133" s="2"/>
       <c r="AZ133" s="2"/>
       <c r="BA133" s="2"/>
-      <c r="BB133" s="2"/>
-      <c r="BC133" s="2"/>
-      <c r="BD133" s="5"/>
-    </row>
-    <row r="134" spans="1:56" ht="16">
+      <c r="BB133" s="5"/>
+      <c r="BC133" s="5"/>
+      <c r="BD133" s="2"/>
+      <c r="BE133" s="2"/>
+      <c r="BF133" s="2"/>
+      <c r="BG133" s="2"/>
+      <c r="BH133" s="2"/>
+      <c r="BI133" s="5"/>
+    </row>
+    <row r="134" spans="1:61" ht="16">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -6868,18 +5897,18 @@
       <c r="H134" s="3"/>
       <c r="I134" s="4"/>
       <c r="S134" s="1"/>
-      <c r="AU134" s="2"/>
-      <c r="AV134" s="2"/>
-      <c r="AW134" s="4"/>
-      <c r="AX134" s="5"/>
-      <c r="AY134" s="2"/>
       <c r="AZ134" s="2"/>
       <c r="BA134" s="2"/>
-      <c r="BB134" s="2"/>
-      <c r="BC134" s="2"/>
-      <c r="BD134" s="5"/>
-    </row>
-    <row r="135" spans="1:56" ht="16">
+      <c r="BB134" s="4"/>
+      <c r="BC134" s="5"/>
+      <c r="BD134" s="2"/>
+      <c r="BE134" s="2"/>
+      <c r="BF134" s="2"/>
+      <c r="BG134" s="2"/>
+      <c r="BH134" s="2"/>
+      <c r="BI134" s="5"/>
+    </row>
+    <row r="135" spans="1:61" ht="16">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -6890,18 +5919,18 @@
       <c r="H135" s="3"/>
       <c r="I135" s="4"/>
       <c r="AF135" s="1"/>
-      <c r="AU135" s="2"/>
-      <c r="AV135" s="2"/>
-      <c r="AW135" s="5"/>
-      <c r="AX135" s="5"/>
-      <c r="AY135" s="2"/>
       <c r="AZ135" s="2"/>
       <c r="BA135" s="2"/>
-      <c r="BB135" s="2"/>
-      <c r="BC135" s="2"/>
-      <c r="BD135" s="5"/>
-    </row>
-    <row r="136" spans="1:56" ht="16">
+      <c r="BB135" s="5"/>
+      <c r="BC135" s="5"/>
+      <c r="BD135" s="2"/>
+      <c r="BE135" s="2"/>
+      <c r="BF135" s="2"/>
+      <c r="BG135" s="2"/>
+      <c r="BH135" s="2"/>
+      <c r="BI135" s="5"/>
+    </row>
+    <row r="136" spans="1:61" ht="16">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -6912,18 +5941,18 @@
       <c r="H136" s="3"/>
       <c r="I136" s="4"/>
       <c r="Y136" s="1"/>
-      <c r="AU136" s="2"/>
-      <c r="AV136" s="2"/>
-      <c r="AW136" s="5"/>
-      <c r="AX136" s="5"/>
-      <c r="AY136" s="2"/>
       <c r="AZ136" s="2"/>
       <c r="BA136" s="2"/>
-      <c r="BB136" s="2"/>
-      <c r="BC136" s="2"/>
-      <c r="BD136" s="5"/>
-    </row>
-    <row r="137" spans="1:56" ht="16">
+      <c r="BB136" s="5"/>
+      <c r="BC136" s="5"/>
+      <c r="BD136" s="2"/>
+      <c r="BE136" s="2"/>
+      <c r="BF136" s="2"/>
+      <c r="BG136" s="2"/>
+      <c r="BH136" s="2"/>
+      <c r="BI136" s="5"/>
+    </row>
+    <row r="137" spans="1:61" ht="16">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -6934,18 +5963,18 @@
       <c r="H137" s="3"/>
       <c r="I137" s="4"/>
       <c r="R137" s="1"/>
-      <c r="AU137" s="2"/>
-      <c r="AV137" s="2"/>
-      <c r="AW137" s="4"/>
-      <c r="AX137" s="5"/>
-      <c r="AY137" s="2"/>
       <c r="AZ137" s="2"/>
       <c r="BA137" s="2"/>
-      <c r="BB137" s="2"/>
-      <c r="BC137" s="2"/>
-      <c r="BD137" s="5"/>
-    </row>
-    <row r="138" spans="1:56" ht="16">
+      <c r="BB137" s="4"/>
+      <c r="BC137" s="5"/>
+      <c r="BD137" s="2"/>
+      <c r="BE137" s="2"/>
+      <c r="BF137" s="2"/>
+      <c r="BG137" s="2"/>
+      <c r="BH137" s="2"/>
+      <c r="BI137" s="5"/>
+    </row>
+    <row r="138" spans="1:61" ht="16">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -6956,18 +5985,18 @@
       <c r="H138" s="3"/>
       <c r="I138" s="4"/>
       <c r="K138" s="1"/>
-      <c r="AU138" s="2"/>
-      <c r="AV138" s="2"/>
-      <c r="AW138" s="5"/>
-      <c r="AX138" s="5"/>
-      <c r="AY138" s="2"/>
       <c r="AZ138" s="2"/>
       <c r="BA138" s="2"/>
-      <c r="BB138" s="2"/>
-      <c r="BC138" s="2"/>
-      <c r="BD138" s="5"/>
-    </row>
-    <row r="139" spans="1:56" ht="16">
+      <c r="BB138" s="5"/>
+      <c r="BC138" s="5"/>
+      <c r="BD138" s="2"/>
+      <c r="BE138" s="2"/>
+      <c r="BF138" s="2"/>
+      <c r="BG138" s="2"/>
+      <c r="BH138" s="2"/>
+      <c r="BI138" s="5"/>
+    </row>
+    <row r="139" spans="1:61" ht="16">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
@@ -6978,18 +6007,18 @@
       <c r="H139" s="3"/>
       <c r="I139" s="4"/>
       <c r="Y139" s="1"/>
-      <c r="AU139" s="2"/>
-      <c r="AV139" s="2"/>
-      <c r="AW139" s="5"/>
-      <c r="AX139" s="5"/>
-      <c r="AY139" s="2"/>
       <c r="AZ139" s="2"/>
       <c r="BA139" s="2"/>
-      <c r="BB139" s="2"/>
-      <c r="BC139" s="2"/>
-      <c r="BD139" s="5"/>
-    </row>
-    <row r="140" spans="1:56" ht="16">
+      <c r="BB139" s="5"/>
+      <c r="BC139" s="5"/>
+      <c r="BD139" s="2"/>
+      <c r="BE139" s="2"/>
+      <c r="BF139" s="2"/>
+      <c r="BG139" s="2"/>
+      <c r="BH139" s="2"/>
+      <c r="BI139" s="5"/>
+    </row>
+    <row r="140" spans="1:61" ht="16">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -7000,17 +6029,17 @@
       <c r="H140" s="3"/>
       <c r="I140" s="4"/>
       <c r="K140" s="1"/>
-      <c r="AU140" s="2"/>
-      <c r="AW140" s="4"/>
-      <c r="AX140" s="5"/>
-      <c r="AY140" s="2"/>
       <c r="AZ140" s="2"/>
-      <c r="BA140" s="2"/>
-      <c r="BB140" s="2"/>
-      <c r="BC140" s="2"/>
-      <c r="BD140" s="5"/>
-    </row>
-    <row r="141" spans="1:56" ht="16">
+      <c r="BB140" s="4"/>
+      <c r="BC140" s="5"/>
+      <c r="BD140" s="2"/>
+      <c r="BE140" s="2"/>
+      <c r="BF140" s="2"/>
+      <c r="BG140" s="2"/>
+      <c r="BH140" s="2"/>
+      <c r="BI140" s="5"/>
+    </row>
+    <row r="141" spans="1:61" ht="16">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
@@ -7023,18 +6052,18 @@
       <c r="J141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="Y141" s="1"/>
-      <c r="AU141" s="2"/>
-      <c r="AV141" s="2"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
-      <c r="AY141" s="2"/>
       <c r="AZ141" s="2"/>
       <c r="BA141" s="2"/>
-      <c r="BB141" s="2"/>
-      <c r="BC141" s="2"/>
-      <c r="BD141" s="5"/>
-    </row>
-    <row r="142" spans="1:56" ht="16">
+      <c r="BB141" s="5"/>
+      <c r="BC141" s="5"/>
+      <c r="BD141" s="2"/>
+      <c r="BE141" s="2"/>
+      <c r="BF141" s="2"/>
+      <c r="BG141" s="2"/>
+      <c r="BH141" s="2"/>
+      <c r="BI141" s="5"/>
+    </row>
+    <row r="142" spans="1:61" ht="16">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -7047,18 +6076,18 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="AB142" s="1"/>
-      <c r="AU142" s="2"/>
-      <c r="AV142" s="2"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
-      <c r="AY142" s="2"/>
       <c r="AZ142" s="2"/>
       <c r="BA142" s="2"/>
-      <c r="BB142" s="2"/>
-      <c r="BC142" s="2"/>
-      <c r="BD142" s="5"/>
-    </row>
-    <row r="143" spans="1:56" ht="16">
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="2"/>
+      <c r="BE142" s="2"/>
+      <c r="BF142" s="2"/>
+      <c r="BG142" s="2"/>
+      <c r="BH142" s="2"/>
+      <c r="BI142" s="5"/>
+    </row>
+    <row r="143" spans="1:61" ht="16">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
@@ -7069,18 +6098,18 @@
       <c r="H143" s="3"/>
       <c r="I143" s="4"/>
       <c r="U143" s="1"/>
-      <c r="AU143" s="2"/>
-      <c r="AV143" s="2"/>
-      <c r="AW143" s="5"/>
-      <c r="AX143" s="5"/>
-      <c r="AY143" s="2"/>
       <c r="AZ143" s="2"/>
       <c r="BA143" s="2"/>
-      <c r="BB143" s="2"/>
-      <c r="BC143" s="2"/>
-      <c r="BD143" s="5"/>
-    </row>
-    <row r="144" spans="1:56" ht="16">
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="2"/>
+      <c r="BE143" s="2"/>
+      <c r="BF143" s="2"/>
+      <c r="BG143" s="2"/>
+      <c r="BH143" s="2"/>
+      <c r="BI143" s="5"/>
+    </row>
+    <row r="144" spans="1:61" ht="16">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -7091,18 +6120,18 @@
       <c r="H144" s="3"/>
       <c r="I144" s="4"/>
       <c r="U144" s="1"/>
-      <c r="AU144" s="2"/>
-      <c r="AV144" s="2"/>
-      <c r="AW144" s="5"/>
-      <c r="AX144" s="5"/>
-      <c r="AY144" s="2"/>
       <c r="AZ144" s="2"/>
       <c r="BA144" s="2"/>
-      <c r="BB144" s="2"/>
-      <c r="BC144" s="2"/>
-      <c r="BD144" s="5"/>
-    </row>
-    <row r="145" spans="1:56" ht="16">
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="2"/>
+      <c r="BE144" s="2"/>
+      <c r="BF144" s="2"/>
+      <c r="BG144" s="2"/>
+      <c r="BH144" s="2"/>
+      <c r="BI144" s="5"/>
+    </row>
+    <row r="145" spans="1:61" ht="16">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
@@ -7113,18 +6142,18 @@
       <c r="H145" s="3"/>
       <c r="I145" s="4"/>
       <c r="AF145" s="1"/>
-      <c r="AU145" s="2"/>
-      <c r="AV145" s="2"/>
-      <c r="AW145" s="4"/>
-      <c r="AX145" s="5"/>
-      <c r="AY145" s="2"/>
       <c r="AZ145" s="2"/>
       <c r="BA145" s="2"/>
-      <c r="BB145" s="2"/>
-      <c r="BC145" s="2"/>
-      <c r="BD145" s="5"/>
-    </row>
-    <row r="146" spans="1:56" ht="16">
+      <c r="BB145" s="4"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="2"/>
+      <c r="BE145" s="2"/>
+      <c r="BF145" s="2"/>
+      <c r="BG145" s="2"/>
+      <c r="BH145" s="2"/>
+      <c r="BI145" s="5"/>
+    </row>
+    <row r="146" spans="1:61" ht="16">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -7136,18 +6165,18 @@
       <c r="I146" s="4"/>
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
-      <c r="AU146" s="2"/>
-      <c r="AV146" s="2"/>
-      <c r="AW146" s="4"/>
-      <c r="AX146" s="5"/>
-      <c r="AY146" s="2"/>
       <c r="AZ146" s="2"/>
       <c r="BA146" s="2"/>
-      <c r="BB146" s="2"/>
-      <c r="BC146" s="2"/>
-      <c r="BD146" s="5"/>
-    </row>
-    <row r="147" spans="1:56" ht="16">
+      <c r="BB146" s="4"/>
+      <c r="BC146" s="5"/>
+      <c r="BD146" s="2"/>
+      <c r="BE146" s="2"/>
+      <c r="BF146" s="2"/>
+      <c r="BG146" s="2"/>
+      <c r="BH146" s="2"/>
+      <c r="BI146" s="5"/>
+    </row>
+    <row r="147" spans="1:61" ht="16">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -7158,18 +6187,18 @@
       <c r="H147" s="3"/>
       <c r="I147" s="4"/>
       <c r="AF147" s="1"/>
-      <c r="AU147" s="2"/>
-      <c r="AV147" s="2"/>
-      <c r="AW147" s="5"/>
-      <c r="AX147" s="5"/>
-      <c r="AY147" s="2"/>
       <c r="AZ147" s="2"/>
       <c r="BA147" s="2"/>
-      <c r="BB147" s="2"/>
-      <c r="BC147" s="2"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="5"/>
       <c r="BD147" s="2"/>
-    </row>
-    <row r="148" spans="1:56" ht="16">
+      <c r="BE147" s="2"/>
+      <c r="BF147" s="2"/>
+      <c r="BG147" s="2"/>
+      <c r="BH147" s="2"/>
+      <c r="BI147" s="2"/>
+    </row>
+    <row r="148" spans="1:61" ht="16">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -7180,18 +6209,18 @@
       <c r="H148" s="3"/>
       <c r="I148" s="4"/>
       <c r="J148" s="1"/>
-      <c r="AU148" s="2"/>
-      <c r="AV148" s="2"/>
-      <c r="AW148" s="5"/>
-      <c r="AX148" s="5"/>
-      <c r="AY148" s="2"/>
       <c r="AZ148" s="2"/>
       <c r="BA148" s="2"/>
-      <c r="BB148" s="2"/>
-      <c r="BC148" s="2"/>
+      <c r="BB148" s="5"/>
+      <c r="BC148" s="5"/>
       <c r="BD148" s="2"/>
-    </row>
-    <row r="149" spans="1:56" ht="16">
+      <c r="BE148" s="2"/>
+      <c r="BF148" s="2"/>
+      <c r="BG148" s="2"/>
+      <c r="BH148" s="2"/>
+      <c r="BI148" s="2"/>
+    </row>
+    <row r="149" spans="1:61" ht="16">
       <c r="A149" s="7"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
@@ -7202,18 +6231,18 @@
       <c r="H149" s="3"/>
       <c r="I149" s="4"/>
       <c r="J149" s="1"/>
-      <c r="AU149" s="7"/>
-      <c r="AV149" s="2"/>
-      <c r="AW149" s="4"/>
-      <c r="AX149" s="5"/>
-      <c r="AY149" s="2"/>
-      <c r="AZ149" s="2"/>
+      <c r="AZ149" s="7"/>
       <c r="BA149" s="2"/>
-      <c r="BB149" s="2"/>
-      <c r="BC149" s="2"/>
+      <c r="BB149" s="4"/>
+      <c r="BC149" s="5"/>
       <c r="BD149" s="2"/>
-    </row>
-    <row r="150" spans="1:56" ht="16">
+      <c r="BE149" s="2"/>
+      <c r="BF149" s="2"/>
+      <c r="BG149" s="2"/>
+      <c r="BH149" s="2"/>
+      <c r="BI149" s="2"/>
+    </row>
+    <row r="150" spans="1:61" ht="16">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -7224,18 +6253,18 @@
       <c r="H150" s="3"/>
       <c r="I150" s="4"/>
       <c r="R150" s="1"/>
-      <c r="AU150" s="2"/>
-      <c r="AV150" s="2"/>
-      <c r="AW150" s="4"/>
-      <c r="AX150" s="5"/>
-      <c r="AY150" s="2"/>
       <c r="AZ150" s="2"/>
       <c r="BA150" s="2"/>
-      <c r="BB150" s="2"/>
-      <c r="BC150" s="2"/>
+      <c r="BB150" s="4"/>
+      <c r="BC150" s="5"/>
       <c r="BD150" s="2"/>
-    </row>
-    <row r="151" spans="1:56" ht="16">
+      <c r="BE150" s="2"/>
+      <c r="BF150" s="2"/>
+      <c r="BG150" s="2"/>
+      <c r="BH150" s="2"/>
+      <c r="BI150" s="2"/>
+    </row>
+    <row r="151" spans="1:61" ht="16">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
@@ -7246,18 +6275,18 @@
       <c r="H151" s="3"/>
       <c r="I151" s="4"/>
       <c r="K151" s="1"/>
-      <c r="AU151" s="2"/>
-      <c r="AV151" s="2"/>
-      <c r="AW151" s="4"/>
-      <c r="AX151" s="5"/>
-      <c r="AY151" s="2"/>
       <c r="AZ151" s="2"/>
       <c r="BA151" s="2"/>
-      <c r="BB151" s="2"/>
-      <c r="BC151" s="2"/>
+      <c r="BB151" s="4"/>
+      <c r="BC151" s="5"/>
       <c r="BD151" s="2"/>
-    </row>
-    <row r="152" spans="1:56" ht="16">
+      <c r="BE151" s="2"/>
+      <c r="BF151" s="2"/>
+      <c r="BG151" s="2"/>
+      <c r="BH151" s="2"/>
+      <c r="BI151" s="2"/>
+    </row>
+    <row r="152" spans="1:61" ht="16">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -7268,18 +6297,18 @@
       <c r="H152" s="3"/>
       <c r="I152" s="4"/>
       <c r="AF152" s="1"/>
-      <c r="AU152" s="2"/>
-      <c r="AV152" s="2"/>
-      <c r="AW152" s="5"/>
-      <c r="AX152" s="5"/>
-      <c r="AY152" s="2"/>
       <c r="AZ152" s="2"/>
       <c r="BA152" s="2"/>
-      <c r="BB152" s="2"/>
-      <c r="BC152" s="2"/>
+      <c r="BB152" s="5"/>
+      <c r="BC152" s="5"/>
       <c r="BD152" s="2"/>
-    </row>
-    <row r="153" spans="1:56" ht="16">
+      <c r="BE152" s="2"/>
+      <c r="BF152" s="2"/>
+      <c r="BG152" s="2"/>
+      <c r="BH152" s="2"/>
+      <c r="BI152" s="2"/>
+    </row>
+    <row r="153" spans="1:61" ht="16">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
@@ -7292,18 +6321,18 @@
       <c r="K153" s="1"/>
       <c r="N153" s="1"/>
       <c r="AF153" s="1"/>
-      <c r="AU153" s="2"/>
-      <c r="AV153" s="2"/>
-      <c r="AW153" s="5"/>
-      <c r="AX153" s="5"/>
-      <c r="AY153" s="2"/>
       <c r="AZ153" s="2"/>
       <c r="BA153" s="2"/>
-      <c r="BB153" s="2"/>
-      <c r="BC153" s="2"/>
+      <c r="BB153" s="5"/>
+      <c r="BC153" s="5"/>
       <c r="BD153" s="2"/>
-    </row>
-    <row r="154" spans="1:56" ht="16">
+      <c r="BE153" s="2"/>
+      <c r="BF153" s="2"/>
+      <c r="BG153" s="2"/>
+      <c r="BH153" s="2"/>
+      <c r="BI153" s="2"/>
+    </row>
+    <row r="154" spans="1:61" ht="16">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -7314,18 +6343,18 @@
       <c r="H154" s="3"/>
       <c r="I154" s="4"/>
       <c r="R154" s="1"/>
-      <c r="AU154" s="2"/>
-      <c r="AV154" s="2"/>
-      <c r="AW154" s="4"/>
-      <c r="AX154" s="5"/>
-      <c r="AY154" s="2"/>
       <c r="AZ154" s="2"/>
       <c r="BA154" s="2"/>
-      <c r="BB154" s="2"/>
-      <c r="BC154" s="2"/>
+      <c r="BB154" s="4"/>
+      <c r="BC154" s="5"/>
       <c r="BD154" s="2"/>
-    </row>
-    <row r="155" spans="1:56" ht="16">
+      <c r="BE154" s="2"/>
+      <c r="BF154" s="2"/>
+      <c r="BG154" s="2"/>
+      <c r="BH154" s="2"/>
+      <c r="BI154" s="2"/>
+    </row>
+    <row r="155" spans="1:61" ht="16">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -7336,18 +6365,18 @@
       <c r="H155" s="3"/>
       <c r="I155" s="4"/>
       <c r="K155" s="1"/>
-      <c r="AU155" s="2"/>
-      <c r="AV155" s="2"/>
-      <c r="AW155" s="5"/>
-      <c r="AX155" s="5"/>
-      <c r="AY155" s="2"/>
       <c r="AZ155" s="2"/>
       <c r="BA155" s="2"/>
-      <c r="BB155" s="2"/>
-      <c r="BC155" s="2"/>
+      <c r="BB155" s="5"/>
+      <c r="BC155" s="5"/>
       <c r="BD155" s="2"/>
-    </row>
-    <row r="156" spans="1:56" ht="16">
+      <c r="BE155" s="2"/>
+      <c r="BF155" s="2"/>
+      <c r="BG155" s="2"/>
+      <c r="BH155" s="2"/>
+      <c r="BI155" s="2"/>
+    </row>
+    <row r="156" spans="1:61" ht="16">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -7358,18 +6387,18 @@
       <c r="H156" s="3"/>
       <c r="I156" s="4"/>
       <c r="U156" s="1"/>
-      <c r="AU156" s="2"/>
-      <c r="AV156" s="2"/>
-      <c r="AW156" s="5"/>
-      <c r="AX156" s="5"/>
-      <c r="AY156" s="2"/>
       <c r="AZ156" s="2"/>
       <c r="BA156" s="2"/>
-      <c r="BB156" s="2"/>
-      <c r="BC156" s="2"/>
+      <c r="BB156" s="5"/>
+      <c r="BC156" s="5"/>
       <c r="BD156" s="2"/>
-    </row>
-    <row r="157" spans="1:56" ht="16">
+      <c r="BE156" s="2"/>
+      <c r="BF156" s="2"/>
+      <c r="BG156" s="2"/>
+      <c r="BH156" s="2"/>
+      <c r="BI156" s="2"/>
+    </row>
+    <row r="157" spans="1:61" ht="16">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -7380,18 +6409,18 @@
       <c r="H157" s="3"/>
       <c r="I157" s="4"/>
       <c r="Y157" s="1"/>
-      <c r="AU157" s="2"/>
-      <c r="AV157" s="2"/>
-      <c r="AW157" s="5"/>
-      <c r="AX157" s="5"/>
-      <c r="AY157" s="2"/>
       <c r="AZ157" s="2"/>
       <c r="BA157" s="2"/>
-      <c r="BB157" s="2"/>
-      <c r="BC157" s="2"/>
+      <c r="BB157" s="5"/>
+      <c r="BC157" s="5"/>
       <c r="BD157" s="2"/>
-    </row>
-    <row r="158" spans="1:56" ht="16">
+      <c r="BE157" s="2"/>
+      <c r="BF157" s="2"/>
+      <c r="BG157" s="2"/>
+      <c r="BH157" s="2"/>
+      <c r="BI157" s="2"/>
+    </row>
+    <row r="158" spans="1:61" ht="16">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -7403,18 +6432,18 @@
       <c r="I158" s="4"/>
       <c r="L158" s="1"/>
       <c r="U158" s="10"/>
-      <c r="AU158" s="2"/>
-      <c r="AV158" s="2"/>
-      <c r="AW158" s="4"/>
-      <c r="AX158" s="5"/>
-      <c r="AY158" s="2"/>
       <c r="AZ158" s="2"/>
       <c r="BA158" s="2"/>
-      <c r="BB158" s="2"/>
-      <c r="BC158" s="2"/>
+      <c r="BB158" s="4"/>
+      <c r="BC158" s="5"/>
       <c r="BD158" s="2"/>
-    </row>
-    <row r="159" spans="1:56" ht="16">
+      <c r="BE158" s="2"/>
+      <c r="BF158" s="2"/>
+      <c r="BG158" s="2"/>
+      <c r="BH158" s="2"/>
+      <c r="BI158" s="2"/>
+    </row>
+    <row r="159" spans="1:61" ht="16">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
@@ -7426,18 +6455,18 @@
       <c r="I159" s="4"/>
       <c r="L159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="AU159" s="2"/>
-      <c r="AV159" s="2"/>
-      <c r="AW159" s="4"/>
-      <c r="AX159" s="5"/>
-      <c r="AY159" s="2"/>
       <c r="AZ159" s="2"/>
       <c r="BA159" s="2"/>
-      <c r="BB159" s="2"/>
-      <c r="BC159" s="2"/>
+      <c r="BB159" s="4"/>
+      <c r="BC159" s="5"/>
       <c r="BD159" s="2"/>
-    </row>
-    <row r="160" spans="1:56" ht="16">
+      <c r="BE159" s="2"/>
+      <c r="BF159" s="2"/>
+      <c r="BG159" s="2"/>
+      <c r="BH159" s="2"/>
+      <c r="BI159" s="2"/>
+    </row>
+    <row r="160" spans="1:61" ht="16">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -7448,18 +6477,18 @@
       <c r="H160" s="3"/>
       <c r="I160" s="4"/>
       <c r="S160" s="1"/>
-      <c r="AU160" s="2"/>
-      <c r="AV160" s="2"/>
-      <c r="AW160" s="4"/>
-      <c r="AX160" s="5"/>
-      <c r="AY160" s="2"/>
       <c r="AZ160" s="2"/>
       <c r="BA160" s="2"/>
-      <c r="BB160" s="2"/>
-      <c r="BC160" s="2"/>
+      <c r="BB160" s="4"/>
+      <c r="BC160" s="5"/>
       <c r="BD160" s="2"/>
-    </row>
-    <row r="161" spans="1:56" ht="16">
+      <c r="BE160" s="2"/>
+      <c r="BF160" s="2"/>
+      <c r="BG160" s="2"/>
+      <c r="BH160" s="2"/>
+      <c r="BI160" s="2"/>
+    </row>
+    <row r="161" spans="1:61" ht="16">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
@@ -7470,18 +6499,18 @@
       <c r="H161" s="3"/>
       <c r="I161" s="4"/>
       <c r="AF161" s="1"/>
-      <c r="AU161" s="2"/>
-      <c r="AV161" s="2"/>
-      <c r="AW161" s="5"/>
-      <c r="AX161" s="5"/>
-      <c r="AY161" s="2"/>
       <c r="AZ161" s="2"/>
       <c r="BA161" s="2"/>
-      <c r="BB161" s="2"/>
-      <c r="BC161" s="2"/>
+      <c r="BB161" s="5"/>
+      <c r="BC161" s="5"/>
       <c r="BD161" s="2"/>
-    </row>
-    <row r="162" spans="1:56" ht="16">
+      <c r="BE161" s="2"/>
+      <c r="BF161" s="2"/>
+      <c r="BG161" s="2"/>
+      <c r="BH161" s="2"/>
+      <c r="BI161" s="2"/>
+    </row>
+    <row r="162" spans="1:61" ht="16">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -7492,18 +6521,18 @@
       <c r="H162" s="3"/>
       <c r="I162" s="4"/>
       <c r="V162" s="1"/>
-      <c r="AU162" s="2"/>
-      <c r="AV162" s="2"/>
-      <c r="AW162" s="4"/>
-      <c r="AX162" s="5"/>
-      <c r="AY162" s="2"/>
       <c r="AZ162" s="2"/>
       <c r="BA162" s="2"/>
-      <c r="BB162" s="2"/>
-      <c r="BC162" s="2"/>
+      <c r="BB162" s="4"/>
+      <c r="BC162" s="5"/>
       <c r="BD162" s="2"/>
-    </row>
-    <row r="163" spans="1:56" ht="16">
+      <c r="BE162" s="2"/>
+      <c r="BF162" s="2"/>
+      <c r="BG162" s="2"/>
+      <c r="BH162" s="2"/>
+      <c r="BI162" s="2"/>
+    </row>
+    <row r="163" spans="1:61" ht="16">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="2"/>
@@ -7513,18 +6542,18 @@
       <c r="H163" s="3"/>
       <c r="I163" s="4"/>
       <c r="R163" s="1"/>
-      <c r="AU163" s="2"/>
-      <c r="AV163" s="2"/>
-      <c r="AW163" s="4"/>
-      <c r="AX163" s="5"/>
-      <c r="AY163" s="2"/>
       <c r="AZ163" s="2"/>
       <c r="BA163" s="2"/>
-      <c r="BB163" s="2"/>
-      <c r="BC163" s="2"/>
+      <c r="BB163" s="4"/>
+      <c r="BC163" s="5"/>
       <c r="BD163" s="2"/>
-    </row>
-    <row r="164" spans="1:56" ht="16">
+      <c r="BE163" s="2"/>
+      <c r="BF163" s="2"/>
+      <c r="BG163" s="2"/>
+      <c r="BH163" s="2"/>
+      <c r="BI163" s="2"/>
+    </row>
+    <row r="164" spans="1:61" ht="16">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -7535,18 +6564,18 @@
       <c r="H164" s="3"/>
       <c r="I164" s="4"/>
       <c r="AF164" s="1"/>
-      <c r="AU164" s="2"/>
-      <c r="AV164" s="2"/>
-      <c r="AW164" s="4"/>
-      <c r="AX164" s="5"/>
-      <c r="AY164" s="2"/>
       <c r="AZ164" s="2"/>
       <c r="BA164" s="2"/>
-      <c r="BB164" s="2"/>
-      <c r="BC164" s="2"/>
+      <c r="BB164" s="4"/>
+      <c r="BC164" s="5"/>
       <c r="BD164" s="2"/>
-    </row>
-    <row r="165" spans="1:56" ht="16">
+      <c r="BE164" s="2"/>
+      <c r="BF164" s="2"/>
+      <c r="BG164" s="2"/>
+      <c r="BH164" s="2"/>
+      <c r="BI164" s="2"/>
+    </row>
+    <row r="165" spans="1:61" ht="16">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="2"/>
@@ -7556,18 +6585,18 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="4"/>
-      <c r="AU165" s="2"/>
-      <c r="AV165" s="2"/>
-      <c r="AW165" s="4"/>
-      <c r="AX165" s="5"/>
-      <c r="AY165" s="2"/>
       <c r="AZ165" s="2"/>
       <c r="BA165" s="2"/>
-      <c r="BB165" s="2"/>
-      <c r="BC165" s="2"/>
+      <c r="BB165" s="4"/>
+      <c r="BC165" s="5"/>
       <c r="BD165" s="2"/>
-    </row>
-    <row r="166" spans="1:56" ht="16">
+      <c r="BE165" s="2"/>
+      <c r="BF165" s="2"/>
+      <c r="BG165" s="2"/>
+      <c r="BH165" s="2"/>
+      <c r="BI165" s="2"/>
+    </row>
+    <row r="166" spans="1:61" ht="16">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -7580,18 +6609,18 @@
       <c r="J166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
-      <c r="AU166" s="2"/>
-      <c r="AV166" s="2"/>
-      <c r="AW166" s="4"/>
-      <c r="AX166" s="5"/>
-      <c r="AY166" s="2"/>
       <c r="AZ166" s="2"/>
       <c r="BA166" s="2"/>
-      <c r="BB166" s="2"/>
-      <c r="BC166" s="2"/>
+      <c r="BB166" s="4"/>
+      <c r="BC166" s="5"/>
       <c r="BD166" s="2"/>
-    </row>
-    <row r="167" spans="1:56" ht="16">
+      <c r="BE166" s="2"/>
+      <c r="BF166" s="2"/>
+      <c r="BG166" s="2"/>
+      <c r="BH166" s="2"/>
+      <c r="BI166" s="2"/>
+    </row>
+    <row r="167" spans="1:61" ht="16">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="2"/>
@@ -7602,18 +6631,18 @@
       <c r="H167" s="3"/>
       <c r="I167" s="4"/>
       <c r="Y167" s="1"/>
-      <c r="AU167" s="2"/>
-      <c r="AV167" s="2"/>
-      <c r="AW167" s="4"/>
-      <c r="AX167" s="5"/>
-      <c r="AY167" s="2"/>
       <c r="AZ167" s="2"/>
       <c r="BA167" s="2"/>
-      <c r="BB167" s="2"/>
-      <c r="BC167" s="2"/>
+      <c r="BB167" s="4"/>
+      <c r="BC167" s="5"/>
       <c r="BD167" s="2"/>
-    </row>
-    <row r="168" spans="1:56" ht="16">
+      <c r="BE167" s="2"/>
+      <c r="BF167" s="2"/>
+      <c r="BG167" s="2"/>
+      <c r="BH167" s="2"/>
+      <c r="BI167" s="2"/>
+    </row>
+    <row r="168" spans="1:61" ht="16">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -7624,18 +6653,18 @@
       <c r="H168" s="3"/>
       <c r="I168" s="4"/>
       <c r="AF168" s="1"/>
-      <c r="AU168" s="2"/>
-      <c r="AV168" s="2"/>
-      <c r="AW168" s="5"/>
-      <c r="AX168" s="5"/>
-      <c r="AY168" s="2"/>
       <c r="AZ168" s="2"/>
       <c r="BA168" s="2"/>
-      <c r="BB168" s="2"/>
-      <c r="BC168" s="2"/>
+      <c r="BB168" s="5"/>
+      <c r="BC168" s="5"/>
       <c r="BD168" s="2"/>
-    </row>
-    <row r="169" spans="1:56" ht="16">
+      <c r="BE168" s="2"/>
+      <c r="BF168" s="2"/>
+      <c r="BG168" s="2"/>
+      <c r="BH168" s="2"/>
+      <c r="BI168" s="2"/>
+    </row>
+    <row r="169" spans="1:61" ht="16">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -7646,42 +6675,42 @@
       <c r="H169" s="3"/>
       <c r="I169" s="4"/>
       <c r="AF169" s="1"/>
-      <c r="AU169" s="2"/>
-      <c r="AV169" s="2"/>
-      <c r="AW169" s="4"/>
-      <c r="AX169" s="5"/>
-      <c r="AY169" s="2"/>
       <c r="AZ169" s="2"/>
       <c r="BA169" s="2"/>
-      <c r="BB169" s="2"/>
-      <c r="BC169" s="2"/>
+      <c r="BB169" s="4"/>
+      <c r="BC169" s="5"/>
       <c r="BD169" s="2"/>
-    </row>
-    <row r="170" spans="1:56" ht="15.75" customHeight="1">
+      <c r="BE169" s="2"/>
+      <c r="BF169" s="2"/>
+      <c r="BG169" s="2"/>
+      <c r="BH169" s="2"/>
+      <c r="BI169" s="2"/>
+    </row>
+    <row r="170" spans="1:61" ht="15.75" customHeight="1">
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:56" ht="15.75" customHeight="1">
+    <row r="171" spans="1:61" ht="15.75" customHeight="1">
       <c r="B171" s="3"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:56" ht="15.75" customHeight="1">
+    <row r="172" spans="1:61" ht="15.75" customHeight="1">
       <c r="B172" s="3"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:56" ht="15.75" customHeight="1">
+    <row r="173" spans="1:61" ht="15.75" customHeight="1">
       <c r="B173" s="3"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:56" ht="15.75" customHeight="1">
+    <row r="174" spans="1:61" ht="15.75" customHeight="1">
       <c r="B174" s="3"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>

--- a/example_data/import/project_contents/template.xlsx
+++ b/example_data/import/project_contents/template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44b92e2d6c7d28b1/Studium/TU Berlin/Masterarbeit/Code/pros/example_data/import/project_contents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{185F267F-06DD-FF4F-8F0B-FAE85B5ED1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{9313D326-1979-714E-95A0-D23878B6B21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EA5E85-A94D-BF4A-9249-319E62A0657F}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="500" windowWidth="34400" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17600" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deutschlandtakt" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deutschlandtakt!$BB$1:$BB$997</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Deutschlandtakt!$BD$1:$BD$989</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>nbs</t>
   </si>
@@ -180,75 +180,9 @@
     <t>sgv740m</t>
   </si>
   <si>
-    <t>VDE 9 Projekt</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
     <t>GWB</t>
   </si>
   <si>
-    <t>VDE9-sub3-sub1</t>
-  </si>
-  <si>
-    <t>ETCS Leckwitz – Kottewitz</t>
-  </si>
-  <si>
-    <t>DLEW</t>
-  </si>
-  <si>
-    <t>DKOT</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub2</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub3</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub4</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub5</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub6</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub7</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub8</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub9</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub10</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub11</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub12</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub13</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub14</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub15</t>
-  </si>
-  <si>
-    <t>VDE9-sub3-sub16</t>
-  </si>
-  <si>
-    <t>ETCS Radebeul Nord – Dresden-Neustadt</t>
-  </si>
-  <si>
     <t>lp_12</t>
   </si>
   <si>
@@ -261,19 +195,55 @@
     <t>ibn_erfolgt</t>
   </si>
   <si>
-    <t>DRBD</t>
-  </si>
-  <si>
-    <t>Abzweig Zeithain – Abzweig Leckwitz</t>
-  </si>
-  <si>
-    <t>Errichtung von ETCS, Voraussetzung für maximale Geschwindigkeit 200 km/h</t>
-  </si>
-  <si>
-    <t>DZNH</t>
-  </si>
-  <si>
-    <t>Modernisierung Stellwerkstechnik zur Erhöhung Geschwindigkeit auf 200 km/h; Anpassung der Haltepunkte in Glaubnitz und Nünchritz; Beseitigung von Bahnübergängen; Lärmschutz</t>
+    <t>tilting</t>
+  </si>
+  <si>
+    <t>project_group_id</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>ABS Augsburg – München</t>
+  </si>
+  <si>
+    <t>Fest disponiertes Projekt BSWAG</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Ausbau der Strecke Augsburg – München; viergleisiger Ausbau Mering – Olching, vmax=230</t>
+  </si>
+  <si>
+    <t>MOL</t>
+  </si>
+  <si>
+    <t>L07</t>
+  </si>
+  <si>
+    <t>ABS Löhne - Braunschweig - Wolfsburg</t>
+  </si>
+  <si>
+    <t>HHI</t>
+  </si>
+  <si>
+    <t>zweigleisiger Ausbau der Strecke Hildesheim – Groß Gleidingen; Höchstgeschwindigkeit 160 km/h</t>
+  </si>
+  <si>
+    <t>HGGL</t>
+  </si>
+  <si>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>Knoten Berlin (fest disponiert)</t>
+  </si>
+  <si>
+    <t>Ausbaumaßnahmen im Knoten Berlin, u.a. Dresdner Bahn, Anbindung BER, Ostkreuz)</t>
+  </si>
+  <si>
+    <t>BOKN</t>
   </si>
 </sst>
 </file>
@@ -467,6 +437,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,11 +644,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BI1048573"/>
+  <dimension ref="A1:BK1048565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="137" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomLeft" activeCell="AS4" sqref="AS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -683,33 +657,33 @@
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
-    <col min="22" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" customWidth="1"/>
-    <col min="30" max="30" width="7.6640625" customWidth="1"/>
-    <col min="31" max="31" width="7.83203125" customWidth="1"/>
-    <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.1640625" customWidth="1"/>
-    <col min="52" max="52" width="24.33203125" customWidth="1"/>
-    <col min="53" max="53" width="9.83203125" customWidth="1"/>
-    <col min="60" max="61" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="23" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="7.83203125" customWidth="1"/>
+    <col min="35" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.1640625" customWidth="1"/>
+    <col min="54" max="54" width="24.33203125" customWidth="1"/>
+    <col min="55" max="55" width="9.83203125" customWidth="1"/>
+    <col min="62" max="63" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="9" customFormat="1" ht="16">
+    <row r="1" spans="1:63" s="9" customFormat="1" ht="16">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -726,145 +700,149 @@
         <v>27</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="L1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT1" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="AU1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="BA1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
       <c r="BB1" s="8"/>
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
@@ -873,32 +851,34 @@
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
       <c r="BI1" s="8"/>
-    </row>
-    <row r="2" spans="1:61" ht="16">
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+    </row>
+    <row r="2" spans="1:63" ht="16">
       <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
-        <v>49</v>
+      <c r="B2" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="15">
+        <v>12</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J2" s="15"/>
       <c r="K2" s="15" t="b">
         <v>0</v>
       </c>
@@ -921,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="15" t="b">
         <v>0</v>
@@ -929,14 +909,14 @@
       <c r="T2" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="U2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="15"/>
       <c r="Y2" s="15" t="b">
         <v>0</v>
       </c>
@@ -947,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="AB2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AC2" s="15">
-        <v>200</v>
-      </c>
-      <c r="AD2" s="15" t="b">
-        <v>0</v>
+      <c r="AD2" s="15">
+        <v>230</v>
       </c>
       <c r="AE2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="15"/>
       <c r="AH2" s="15" t="b">
         <v>0</v>
       </c>
@@ -992,66 +972,70 @@
       <c r="AQ2" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" s="15">
-        <v>2</v>
+      <c r="AR2" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AS2" s="15">
         <v>2</v>
       </c>
       <c r="AT2" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="15">
-        <v>95785</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="15"/>
       <c r="AY2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
+      <c r="AZ2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="5"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
-    </row>
-    <row r="3" spans="1:61" ht="16">
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+    </row>
+    <row r="3" spans="1:63" ht="16">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="15">
+        <v>12</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J3" s="15"/>
       <c r="K3" s="15" t="b">
         <v>0</v>
       </c>
@@ -1068,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="15" t="b">
         <v>0</v>
       </c>
       <c r="R3" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="15" t="b">
         <v>0</v>
@@ -1082,14 +1066,14 @@
       <c r="T3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="U3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15"/>
       <c r="Y3" s="15" t="b">
         <v>0</v>
       </c>
@@ -1100,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="AB3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AC3" s="15">
-        <v>200</v>
-      </c>
-      <c r="AD3" s="15" t="b">
-        <v>0</v>
+      <c r="AD3" s="15">
+        <v>160</v>
       </c>
       <c r="AE3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="15"/>
       <c r="AH3" s="15" t="b">
         <v>0</v>
       </c>
@@ -1145,71 +1129,73 @@
       <c r="AQ3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AR3" s="15">
-        <v>2</v>
+      <c r="AR3" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AS3" s="15">
         <v>2</v>
       </c>
       <c r="AT3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="15">
-        <v>95785</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="15"/>
       <c r="AY3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
+      <c r="AZ3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="5"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
-    </row>
-    <row r="4" spans="1:61" ht="16">
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+    </row>
+    <row r="4" spans="1:63" ht="16">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="15">
+        <v>12</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="J4" s="15"/>
       <c r="K4" s="15" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="15" t="b">
         <v>0</v>
@@ -1235,14 +1221,14 @@
       <c r="T4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="U4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15"/>
       <c r="Y4" s="15" t="b">
         <v>0</v>
       </c>
@@ -1253,30 +1239,28 @@
         <v>0</v>
       </c>
       <c r="AB4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="15">
-        <v>200</v>
-      </c>
-      <c r="AD4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="15" t="b">
+      <c r="AJ4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AI4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="15" t="b">
-        <v>0</v>
-      </c>
       <c r="AK4" s="15" t="b">
         <v>0</v>
       </c>
@@ -1298,46 +1282,48 @@
       <c r="AQ4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AR4" s="15">
-        <v>2</v>
+      <c r="AR4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AS4" s="15">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AT4" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="15">
         <v>0</v>
       </c>
       <c r="AV4" s="15">
-        <v>95785</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="15" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="15"/>
       <c r="AY4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
+      <c r="AZ4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
-    </row>
-    <row r="5" spans="1:61" ht="16">
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+    </row>
+    <row r="5" spans="1:63" ht="16">
       <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1387,22 +1373,22 @@
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
       <c r="AY5" s="15"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
-    </row>
-    <row r="6" spans="1:61" ht="16">
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+    </row>
+    <row r="6" spans="1:63" ht="16">
       <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -1452,22 +1438,22 @@
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
       <c r="AY6" s="15"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
-    </row>
-    <row r="7" spans="1:61" ht="16">
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+    </row>
+    <row r="7" spans="1:63" ht="16">
       <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1517,22 +1503,22 @@
       <c r="AW7" s="15"/>
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="5"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
       <c r="BI7" s="2"/>
-    </row>
-    <row r="8" spans="1:61" ht="16">
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+    </row>
+    <row r="8" spans="1:63" ht="16">
       <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>58</v>
-      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1582,22 +1568,22 @@
       <c r="AW8" s="15"/>
       <c r="AX8" s="15"/>
       <c r="AY8" s="15"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="5"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
-    </row>
-    <row r="9" spans="1:61" ht="16">
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+    </row>
+    <row r="9" spans="1:63" ht="16">
       <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1647,22 +1633,22 @@
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
       <c r="AY9" s="15"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="5"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
-    </row>
-    <row r="10" spans="1:61" ht="16">
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+    </row>
+    <row r="10" spans="1:63" ht="16">
       <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1712,22 +1698,22 @@
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
       <c r="AY10" s="15"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
-    </row>
-    <row r="11" spans="1:61" ht="16">
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+    </row>
+    <row r="11" spans="1:63" ht="16">
       <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1777,22 +1763,22 @@
       <c r="AW11" s="15"/>
       <c r="AX11" s="15"/>
       <c r="AY11" s="15"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
-    </row>
-    <row r="12" spans="1:61" ht="16">
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+    </row>
+    <row r="12" spans="1:63" ht="16">
       <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1842,22 +1828,22 @@
       <c r="AW12" s="15"/>
       <c r="AX12" s="15"/>
       <c r="AY12" s="15"/>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
-    </row>
-    <row r="13" spans="1:61" ht="16">
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+    </row>
+    <row r="13" spans="1:63" ht="16">
       <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1907,22 +1893,22 @@
       <c r="AW13" s="15"/>
       <c r="AX13" s="15"/>
       <c r="AY13" s="15"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
-    </row>
-    <row r="14" spans="1:61" ht="16">
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+    </row>
+    <row r="14" spans="1:63" ht="16">
       <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1972,22 +1958,22 @@
       <c r="AW14" s="15"/>
       <c r="AX14" s="15"/>
       <c r="AY14" s="15"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="5"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
-    </row>
-    <row r="15" spans="1:61" ht="16">
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+    </row>
+    <row r="15" spans="1:63" ht="16">
       <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2037,22 +2023,22 @@
       <c r="AW15" s="15"/>
       <c r="AX15" s="15"/>
       <c r="AY15" s="15"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="5"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
-    </row>
-    <row r="16" spans="1:61" ht="16">
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+    </row>
+    <row r="16" spans="1:63" ht="16">
       <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2102,22 +2088,22 @@
       <c r="AW16" s="15"/>
       <c r="AX16" s="15"/>
       <c r="AY16" s="15"/>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="5"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
-    </row>
-    <row r="17" spans="1:61" ht="16">
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+    </row>
+    <row r="17" spans="1:63" ht="16">
       <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2167,18 +2153,20 @@
       <c r="AW17" s="15"/>
       <c r="AX17" s="15"/>
       <c r="AY17" s="15"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="5"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
-    </row>
-    <row r="18" spans="1:61" ht="16">
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+    </row>
+    <row r="18" spans="1:63" ht="16">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2230,18 +2218,20 @@
       <c r="AW18" s="15"/>
       <c r="AX18" s="15"/>
       <c r="AY18" s="15"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="5"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
-    </row>
-    <row r="19" spans="1:61" ht="16">
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+    </row>
+    <row r="19" spans="1:63" ht="16">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2293,18 +2283,20 @@
       <c r="AW19" s="15"/>
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="5"/>
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
-    </row>
-    <row r="20" spans="1:61" ht="16">
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+    </row>
+    <row r="20" spans="1:63" ht="16">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2356,18 +2348,20 @@
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
       <c r="AY20" s="15"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="5"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
-    </row>
-    <row r="21" spans="1:61" ht="16">
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+    </row>
+    <row r="21" spans="1:63" ht="16">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -2419,18 +2413,20 @@
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
       <c r="AY21" s="15"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="5"/>
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
-    </row>
-    <row r="22" spans="1:61" ht="16">
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+    </row>
+    <row r="22" spans="1:63" ht="16">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2482,18 +2478,20 @@
       <c r="AW22" s="15"/>
       <c r="AX22" s="15"/>
       <c r="AY22" s="15"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="5"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
       <c r="BI22" s="2"/>
-    </row>
-    <row r="23" spans="1:61" ht="16">
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+    </row>
+    <row r="23" spans="1:63" ht="16">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2545,18 +2543,20 @@
       <c r="AW23" s="15"/>
       <c r="AX23" s="15"/>
       <c r="AY23" s="15"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
       <c r="BI23" s="2"/>
-    </row>
-    <row r="24" spans="1:61" ht="16">
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+    </row>
+    <row r="24" spans="1:63" ht="16">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2608,18 +2608,20 @@
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
       <c r="AY24" s="15"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
-    </row>
-    <row r="25" spans="1:61" ht="16">
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+    </row>
+    <row r="25" spans="1:63" ht="16">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2671,18 +2673,20 @@
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
       <c r="BI25" s="2"/>
-    </row>
-    <row r="26" spans="1:61" ht="16">
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+    </row>
+    <row r="26" spans="1:63" ht="16">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2734,18 +2738,20 @@
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
       <c r="AY26" s="15"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
-    </row>
-    <row r="27" spans="1:61" ht="16">
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+    </row>
+    <row r="27" spans="1:63" ht="16">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2797,18 +2803,20 @@
       <c r="AW27" s="15"/>
       <c r="AX27" s="15"/>
       <c r="AY27" s="15"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
       <c r="BI27" s="2"/>
-    </row>
-    <row r="28" spans="1:61" ht="16">
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+    </row>
+    <row r="28" spans="1:63" ht="16">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2860,18 +2868,20 @@
       <c r="AW28" s="15"/>
       <c r="AX28" s="15"/>
       <c r="AY28" s="15"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="5"/>
       <c r="BF28" s="2"/>
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
       <c r="BI28" s="2"/>
-    </row>
-    <row r="29" spans="1:61" ht="16">
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+    </row>
+    <row r="29" spans="1:63" ht="16">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2923,18 +2933,20 @@
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="15"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
       <c r="BF29" s="2"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
       <c r="BI29" s="2"/>
-    </row>
-    <row r="30" spans="1:61" ht="16">
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+    </row>
+    <row r="30" spans="1:63" ht="16">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2986,18 +2998,20 @@
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
       <c r="AY30" s="15"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="2"/>
-      <c r="BE30" s="2"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
-    </row>
-    <row r="31" spans="1:61" ht="16">
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+    </row>
+    <row r="31" spans="1:63" ht="16">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -3049,18 +3063,20 @@
       <c r="AW31" s="15"/>
       <c r="AX31" s="15"/>
       <c r="AY31" s="15"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="5"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
-    </row>
-    <row r="32" spans="1:61" ht="16">
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+    </row>
+    <row r="32" spans="1:63" ht="16">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3112,18 +3128,20 @@
       <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
-      <c r="AZ32" s="2"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="2"/>
-      <c r="BE32" s="2"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
       <c r="BI32" s="2"/>
-    </row>
-    <row r="33" spans="1:61" ht="16">
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+    </row>
+    <row r="33" spans="1:63" ht="16">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3175,18 +3193,20 @@
       <c r="AW33" s="15"/>
       <c r="AX33" s="15"/>
       <c r="AY33" s="15"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
-    </row>
-    <row r="34" spans="1:61" ht="16">
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+    </row>
+    <row r="34" spans="1:63" ht="16">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -3238,522 +3258,210 @@
       <c r="AW34" s="15"/>
       <c r="AX34" s="15"/>
       <c r="AY34" s="15"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
       <c r="BI34" s="2"/>
-    </row>
-    <row r="35" spans="1:61" ht="16">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="15"/>
-      <c r="AM35" s="15"/>
-      <c r="AN35" s="15"/>
-      <c r="AO35" s="15"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="15"/>
-      <c r="AR35" s="15"/>
-      <c r="AS35" s="15"/>
-      <c r="AT35" s="15"/>
-      <c r="AU35" s="15"/>
-      <c r="AV35" s="15"/>
-      <c r="AW35" s="15"/>
-      <c r="AX35" s="15"/>
-      <c r="AY35" s="15"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+    </row>
+    <row r="35" spans="1:63" ht="16">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="X35" s="1"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="5"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
       <c r="BI35" s="2"/>
-    </row>
-    <row r="36" spans="1:61" ht="16">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="15"/>
-      <c r="AJ36" s="15"/>
-      <c r="AK36" s="15"/>
-      <c r="AL36" s="15"/>
-      <c r="AM36" s="15"/>
-      <c r="AN36" s="15"/>
-      <c r="AO36" s="15"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="15"/>
-      <c r="AR36" s="15"/>
-      <c r="AS36" s="15"/>
-      <c r="AT36" s="15"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="15"/>
-      <c r="AW36" s="15"/>
-      <c r="AX36" s="15"/>
-      <c r="AY36" s="15"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="2"/>
-      <c r="BE36" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+    </row>
+    <row r="36" spans="1:63" ht="16">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="V36" s="1"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="5"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
       <c r="BI36" s="2"/>
-    </row>
-    <row r="37" spans="1:61" ht="16">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
-      <c r="AO37" s="15"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="15"/>
-      <c r="AR37" s="15"/>
-      <c r="AS37" s="15"/>
-      <c r="AT37" s="15"/>
-      <c r="AU37" s="15"/>
-      <c r="AV37" s="15"/>
-      <c r="AW37" s="15"/>
-      <c r="AX37" s="15"/>
-      <c r="AY37" s="15"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="5"/>
-      <c r="BC37" s="5"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+    </row>
+    <row r="37" spans="1:63" ht="16">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="AG37" s="1"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="5"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
       <c r="BI37" s="2"/>
-    </row>
-    <row r="38" spans="1:61" ht="16">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="15"/>
-      <c r="AO38" s="15"/>
-      <c r="AP38" s="15"/>
-      <c r="AQ38" s="15"/>
-      <c r="AR38" s="15"/>
-      <c r="AS38" s="15"/>
-      <c r="AT38" s="15"/>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="15"/>
-      <c r="AW38" s="15"/>
-      <c r="AX38" s="15"/>
-      <c r="AY38" s="15"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+    </row>
+    <row r="38" spans="1:63" ht="16">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="L38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="5"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
       <c r="BI38" s="2"/>
-    </row>
-    <row r="39" spans="1:61" ht="16">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="15"/>
-      <c r="AW39" s="15"/>
-      <c r="AX39" s="15"/>
-      <c r="AY39" s="15"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+    </row>
+    <row r="39" spans="1:63" ht="16">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="L39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="5"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="2"/>
       <c r="BH39" s="2"/>
       <c r="BI39" s="2"/>
-    </row>
-    <row r="40" spans="1:61" ht="16">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
-      <c r="AS40" s="15"/>
-      <c r="AT40" s="15"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="15"/>
-      <c r="AW40" s="15"/>
-      <c r="AX40" s="15"/>
-      <c r="AY40" s="15"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+    </row>
+    <row r="40" spans="1:63" ht="16">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4"/>
+      <c r="L40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="5"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="2"/>
       <c r="BH40" s="2"/>
       <c r="BI40" s="2"/>
-    </row>
-    <row r="41" spans="1:61" ht="16">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="15"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="15"/>
-      <c r="AL41" s="15"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
-      <c r="AS41" s="15"/>
-      <c r="AT41" s="15"/>
-      <c r="AU41" s="15"/>
-      <c r="AV41" s="15"/>
-      <c r="AW41" s="15"/>
-      <c r="AX41" s="15"/>
-      <c r="AY41" s="15"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+    </row>
+    <row r="41" spans="1:63" ht="16">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+      <c r="L41" s="1"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="5"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="2"/>
       <c r="BH41" s="2"/>
       <c r="BI41" s="2"/>
-    </row>
-    <row r="42" spans="1:61" ht="16">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
-      <c r="AK42" s="15"/>
-      <c r="AL42" s="15"/>
-      <c r="AM42" s="15"/>
-      <c r="AN42" s="15"/>
-      <c r="AO42" s="15"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="15"/>
-      <c r="AR42" s="15"/>
-      <c r="AS42" s="15"/>
-      <c r="AT42" s="15"/>
-      <c r="AU42" s="15"/>
-      <c r="AV42" s="15"/>
-      <c r="AW42" s="15"/>
-      <c r="AX42" s="15"/>
-      <c r="AY42" s="15"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="2"/>
-      <c r="BE42" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+    </row>
+    <row r="42" spans="1:63" ht="16">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="L42" s="1"/>
+      <c r="S42" s="10"/>
+      <c r="AC42" s="1"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="2"/>
       <c r="BH42" s="2"/>
       <c r="BI42" s="2"/>
-    </row>
-    <row r="43" spans="1:61" ht="16">
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+    </row>
+    <row r="43" spans="1:63" ht="16">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -3762,1732 +3470,1806 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-      <c r="W43" s="1"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="4"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="Z43" s="1"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
       <c r="BH43" s="2"/>
       <c r="BI43" s="2"/>
-    </row>
-    <row r="44" spans="1:61" ht="16">
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+    </row>
+    <row r="44" spans="1:63" ht="16">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-      <c r="U44" s="1"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="4"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+      <c r="AG44" s="1"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="5"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
       <c r="BH44" s="2"/>
       <c r="BI44" s="2"/>
-    </row>
-    <row r="45" spans="1:61" ht="16">
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="2"/>
+    </row>
+    <row r="45" spans="1:63" ht="16">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
-      <c r="AF45" s="1"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="4"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="2"/>
-      <c r="BE45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+      <c r="T45" s="1"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="5"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
       <c r="BH45" s="2"/>
       <c r="BI45" s="2"/>
-    </row>
-    <row r="46" spans="1:61" ht="16">
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+    </row>
+    <row r="46" spans="1:63" ht="16">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-      <c r="K46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="4"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="2"/>
-      <c r="BE46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="AG46" s="1"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
       <c r="BH46" s="2"/>
       <c r="BI46" s="2"/>
-    </row>
-    <row r="47" spans="1:61" ht="16">
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+    </row>
+    <row r="47" spans="1:63" ht="16">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="K47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="4"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+      <c r="AG47" s="1"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="5"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
       <c r="BH47" s="2"/>
       <c r="BI47" s="2"/>
-    </row>
-    <row r="48" spans="1:61" ht="16">
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+    </row>
+    <row r="48" spans="1:63" ht="16">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
-      <c r="K48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="4"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+      <c r="L48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="5"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
       <c r="BH48" s="2"/>
       <c r="BI48" s="2"/>
-    </row>
-    <row r="49" spans="1:61" ht="16">
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+    </row>
+    <row r="49" spans="1:63" ht="16">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-      <c r="K49" s="1"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="4"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+      <c r="L49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="5"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
-    </row>
-    <row r="50" spans="1:61" ht="16">
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+    </row>
+    <row r="50" spans="1:63" ht="16">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
-      <c r="K50" s="1"/>
-      <c r="R50" s="10"/>
-      <c r="AB50" s="1"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
-      <c r="BD50" s="2"/>
-      <c r="BE50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
+      <c r="L50" s="1"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="2"/>
       <c r="BH50" s="2"/>
       <c r="BI50" s="2"/>
-    </row>
-    <row r="51" spans="1:61" ht="16">
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+    </row>
+    <row r="51" spans="1:63" ht="16">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-      <c r="Y51" s="1"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="5"/>
-      <c r="BC51" s="5"/>
-      <c r="BD51" s="2"/>
-      <c r="BE51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+      <c r="S51" s="1"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
       <c r="BH51" s="2"/>
       <c r="BI51" s="2"/>
-    </row>
-    <row r="52" spans="1:61" ht="16">
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+    </row>
+    <row r="52" spans="1:63" ht="16">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-      <c r="AF52" s="1"/>
-      <c r="AZ52" s="2"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="4"/>
-      <c r="BC52" s="5"/>
-      <c r="BD52" s="2"/>
-      <c r="BE52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="10"/>
+      <c r="S52" s="1"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="2"/>
       <c r="BH52" s="2"/>
       <c r="BI52" s="2"/>
-    </row>
-    <row r="53" spans="1:61" ht="16">
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
+    </row>
+    <row r="53" spans="1:63" ht="16">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
       <c r="S53" s="1"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="4"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="2"/>
-      <c r="BE53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
       <c r="BH53" s="2"/>
       <c r="BI53" s="2"/>
-    </row>
-    <row r="54" spans="1:61" ht="16">
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+    </row>
+    <row r="54" spans="1:63" ht="16">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-      <c r="AF54" s="1"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+      <c r="L54" s="1"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="5"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="2"/>
       <c r="BH54" s="2"/>
       <c r="BI54" s="2"/>
-    </row>
-    <row r="55" spans="1:61" ht="16">
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="2"/>
+    </row>
+    <row r="55" spans="1:63" ht="16">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-      <c r="AF55" s="1"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="4"/>
-      <c r="BC55" s="5"/>
-      <c r="BD55" s="2"/>
-      <c r="BE55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="5"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
       <c r="BH55" s="2"/>
       <c r="BI55" s="2"/>
-    </row>
-    <row r="56" spans="1:61" ht="16">
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="2"/>
+    </row>
+    <row r="56" spans="1:63" ht="16">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-      <c r="K56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="4"/>
-      <c r="BC56" s="5"/>
-      <c r="BD56" s="2"/>
-      <c r="BE56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="S56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="5"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="2"/>
       <c r="BH56" s="2"/>
       <c r="BI56" s="2"/>
-    </row>
-    <row r="57" spans="1:61" ht="16">
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="2"/>
+    </row>
+    <row r="57" spans="1:63" ht="16">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="4"/>
-      <c r="BC57" s="5"/>
-      <c r="BD57" s="2"/>
-      <c r="BE57" s="2"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="4"/>
+      <c r="BE57" s="5"/>
       <c r="BF57" s="2"/>
       <c r="BG57" s="2"/>
       <c r="BH57" s="2"/>
       <c r="BI57" s="2"/>
-    </row>
-    <row r="58" spans="1:61" ht="16">
+      <c r="BJ57" s="2"/>
+      <c r="BK57" s="2"/>
+    </row>
+    <row r="58" spans="1:63" ht="16">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-      <c r="K58" s="1"/>
-      <c r="AZ58" s="2"/>
-      <c r="BA58" s="2"/>
-      <c r="BB58" s="5"/>
-      <c r="BC58" s="5"/>
-      <c r="BD58" s="2"/>
-      <c r="BE58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4"/>
+      <c r="L58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="5"/>
       <c r="BF58" s="2"/>
       <c r="BG58" s="2"/>
       <c r="BH58" s="2"/>
       <c r="BI58" s="2"/>
-    </row>
-    <row r="59" spans="1:61" ht="16">
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="2"/>
+    </row>
+    <row r="59" spans="1:63" ht="16">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-      <c r="R59" s="1"/>
-      <c r="AZ59" s="2"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="5"/>
-      <c r="BC59" s="5"/>
-      <c r="BD59" s="2"/>
-      <c r="BE59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+      <c r="S59" s="1"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="5"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="2"/>
       <c r="BH59" s="2"/>
       <c r="BI59" s="2"/>
-    </row>
-    <row r="60" spans="1:61" ht="16">
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="2"/>
+    </row>
+    <row r="60" spans="1:63" ht="16">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="10"/>
-      <c r="R60" s="1"/>
-      <c r="AZ60" s="2"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="5"/>
-      <c r="BC60" s="5"/>
-      <c r="BD60" s="2"/>
-      <c r="BE60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+      <c r="L60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="5"/>
       <c r="BF60" s="2"/>
       <c r="BG60" s="2"/>
       <c r="BH60" s="2"/>
       <c r="BI60" s="2"/>
-    </row>
-    <row r="61" spans="1:61" ht="16">
+      <c r="BJ60" s="2"/>
+      <c r="BK60" s="2"/>
+    </row>
+    <row r="61" spans="1:63" ht="16">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-      <c r="R61" s="1"/>
-      <c r="AZ61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="5"/>
-      <c r="BC61" s="5"/>
-      <c r="BD61" s="2"/>
-      <c r="BE61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+      <c r="AG61" s="1"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="5"/>
+      <c r="BE61" s="5"/>
       <c r="BF61" s="2"/>
       <c r="BG61" s="2"/>
       <c r="BH61" s="2"/>
       <c r="BI61" s="2"/>
-    </row>
-    <row r="62" spans="1:61" ht="16">
+      <c r="BJ61" s="2"/>
+      <c r="BK61" s="2"/>
+    </row>
+    <row r="62" spans="1:63" ht="16">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-      <c r="K62" s="1"/>
-      <c r="AZ62" s="2"/>
-      <c r="BA62" s="2"/>
-      <c r="BB62" s="4"/>
-      <c r="BC62" s="5"/>
-      <c r="BD62" s="2"/>
-      <c r="BE62" s="2"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+      <c r="L62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="5"/>
+      <c r="BE62" s="5"/>
       <c r="BF62" s="2"/>
       <c r="BG62" s="2"/>
       <c r="BH62" s="2"/>
       <c r="BI62" s="2"/>
-    </row>
-    <row r="63" spans="1:61" ht="16">
+      <c r="BJ62" s="2"/>
+      <c r="BK62" s="2"/>
+    </row>
+    <row r="63" spans="1:63" ht="16">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
-      <c r="AZ63" s="2"/>
-      <c r="BA63" s="2"/>
-      <c r="BB63" s="4"/>
-      <c r="BC63" s="5"/>
-      <c r="BD63" s="2"/>
-      <c r="BE63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+      <c r="O63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="2"/>
+      <c r="BD63" s="5"/>
+      <c r="BE63" s="5"/>
       <c r="BF63" s="2"/>
       <c r="BG63" s="2"/>
       <c r="BH63" s="2"/>
       <c r="BI63" s="2"/>
-    </row>
-    <row r="64" spans="1:61" ht="16">
+      <c r="BJ63" s="2"/>
+      <c r="BK63" s="2"/>
+    </row>
+    <row r="64" spans="1:63" ht="16">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-      <c r="R64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AZ64" s="2"/>
-      <c r="BA64" s="2"/>
-      <c r="BB64" s="4"/>
-      <c r="BC64" s="5"/>
-      <c r="BD64" s="2"/>
-      <c r="BE64" s="2"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+      <c r="O64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="2"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="5"/>
       <c r="BF64" s="2"/>
       <c r="BG64" s="2"/>
       <c r="BH64" s="2"/>
       <c r="BI64" s="2"/>
-    </row>
-    <row r="65" spans="1:61" ht="16">
+      <c r="BJ64" s="2"/>
+      <c r="BK64" s="2"/>
+    </row>
+    <row r="65" spans="1:63" ht="16">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="AZ65" s="2"/>
-      <c r="BA65" s="2"/>
-      <c r="BB65" s="4"/>
-      <c r="BC65" s="5"/>
-      <c r="BD65" s="2"/>
-      <c r="BE65" s="2"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+      <c r="T65" s="1"/>
+      <c r="BB65" s="2"/>
+      <c r="BC65" s="2"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="5"/>
       <c r="BF65" s="2"/>
       <c r="BG65" s="2"/>
       <c r="BH65" s="2"/>
       <c r="BI65" s="2"/>
-    </row>
-    <row r="66" spans="1:61" ht="16">
+      <c r="BJ65" s="2"/>
+      <c r="BK65" s="2"/>
+    </row>
+    <row r="66" spans="1:63" ht="16">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="AZ66" s="2"/>
-      <c r="BA66" s="2"/>
-      <c r="BB66" s="4"/>
-      <c r="BC66" s="5"/>
-      <c r="BD66" s="2"/>
-      <c r="BE66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="5"/>
       <c r="BF66" s="2"/>
       <c r="BG66" s="2"/>
       <c r="BH66" s="2"/>
       <c r="BI66" s="2"/>
-    </row>
-    <row r="67" spans="1:61" ht="16">
+      <c r="BJ66" s="2"/>
+      <c r="BK66" s="2"/>
+    </row>
+    <row r="67" spans="1:63" ht="16">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-      <c r="R67" s="1"/>
-      <c r="AZ67" s="2"/>
-      <c r="BA67" s="2"/>
-      <c r="BB67" s="4"/>
-      <c r="BC67" s="5"/>
-      <c r="BD67" s="2"/>
-      <c r="BE67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+      <c r="L67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="5"/>
       <c r="BF67" s="2"/>
       <c r="BG67" s="2"/>
       <c r="BH67" s="2"/>
       <c r="BI67" s="2"/>
-    </row>
-    <row r="68" spans="1:61" ht="16">
+      <c r="BJ67" s="2"/>
+      <c r="BK67" s="2"/>
+    </row>
+    <row r="68" spans="1:63" ht="16">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="K68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="AZ68" s="2"/>
-      <c r="BA68" s="2"/>
-      <c r="BB68" s="4"/>
-      <c r="BC68" s="5"/>
-      <c r="BD68" s="2"/>
-      <c r="BE68" s="2"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="5"/>
       <c r="BF68" s="2"/>
       <c r="BG68" s="2"/>
       <c r="BH68" s="2"/>
       <c r="BI68" s="2"/>
-    </row>
-    <row r="69" spans="1:61" ht="16">
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+    </row>
+    <row r="69" spans="1:63" ht="16">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-      <c r="AF69" s="1"/>
-      <c r="AZ69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="5"/>
-      <c r="BC69" s="5"/>
-      <c r="BD69" s="2"/>
-      <c r="BE69" s="2"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+      <c r="L69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="5"/>
       <c r="BF69" s="2"/>
       <c r="BG69" s="2"/>
       <c r="BH69" s="2"/>
       <c r="BI69" s="2"/>
-    </row>
-    <row r="70" spans="1:61" ht="16">
+      <c r="BJ69" s="2"/>
+      <c r="BK69" s="2"/>
+    </row>
+    <row r="70" spans="1:63" ht="16">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="AZ70" s="2"/>
-      <c r="BA70" s="2"/>
-      <c r="BB70" s="5"/>
-      <c r="BC70" s="5"/>
-      <c r="BD70" s="2"/>
-      <c r="BE70" s="2"/>
+      <c r="L70" s="1"/>
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="2"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="5"/>
       <c r="BF70" s="2"/>
       <c r="BG70" s="2"/>
       <c r="BH70" s="2"/>
       <c r="BI70" s="2"/>
-    </row>
-    <row r="71" spans="1:61" ht="16">
+      <c r="BJ70" s="2"/>
+      <c r="BK70" s="2"/>
+    </row>
+    <row r="71" spans="1:63" ht="16">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-      <c r="N71" s="1"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+      <c r="L71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="AZ71" s="2"/>
-      <c r="BA71" s="2"/>
-      <c r="BB71" s="5"/>
-      <c r="BC71" s="5"/>
-      <c r="BD71" s="2"/>
-      <c r="BE71" s="2"/>
+      <c r="BB71" s="2"/>
+      <c r="BC71" s="2"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="5"/>
       <c r="BF71" s="2"/>
       <c r="BG71" s="2"/>
       <c r="BH71" s="2"/>
       <c r="BI71" s="2"/>
-    </row>
-    <row r="72" spans="1:61" ht="16">
+      <c r="BJ71" s="2"/>
+      <c r="BK71" s="2"/>
+    </row>
+    <row r="72" spans="1:63" ht="16">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-      <c r="N72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AZ72" s="2"/>
-      <c r="BA72" s="2"/>
-      <c r="BB72" s="4"/>
-      <c r="BC72" s="5"/>
-      <c r="BD72" s="2"/>
-      <c r="BE72" s="2"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="4"/>
+      <c r="S72" s="1"/>
+      <c r="BB72" s="2"/>
+      <c r="BC72" s="2"/>
+      <c r="BD72" s="4"/>
+      <c r="BE72" s="5"/>
       <c r="BF72" s="2"/>
       <c r="BG72" s="2"/>
       <c r="BH72" s="2"/>
       <c r="BI72" s="2"/>
-    </row>
-    <row r="73" spans="1:61" ht="16">
+      <c r="BJ72" s="2"/>
+      <c r="BK72" s="2"/>
+    </row>
+    <row r="73" spans="1:63" ht="16">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="3"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-      <c r="S73" s="1"/>
-      <c r="AZ73" s="2"/>
-      <c r="BA73" s="2"/>
-      <c r="BB73" s="4"/>
-      <c r="BC73" s="5"/>
-      <c r="BD73" s="2"/>
-      <c r="BE73" s="2"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="4"/>
+      <c r="L73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="BB73" s="2"/>
+      <c r="BC73" s="2"/>
+      <c r="BD73" s="4"/>
+      <c r="BE73" s="5"/>
       <c r="BF73" s="2"/>
       <c r="BG73" s="2"/>
       <c r="BH73" s="2"/>
       <c r="BI73" s="2"/>
-    </row>
-    <row r="74" spans="1:61" ht="16">
+      <c r="BJ73" s="2"/>
+      <c r="BK73" s="2"/>
+    </row>
+    <row r="74" spans="1:63" ht="16">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="1"/>
-      <c r="AZ74" s="2"/>
-      <c r="BA74" s="2"/>
-      <c r="BB74" s="4"/>
-      <c r="BC74" s="5"/>
-      <c r="BD74" s="2"/>
-      <c r="BE74" s="2"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="4"/>
+      <c r="L74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="BB74" s="2"/>
+      <c r="BC74" s="2"/>
+      <c r="BD74" s="4"/>
+      <c r="BE74" s="5"/>
       <c r="BF74" s="2"/>
       <c r="BG74" s="2"/>
       <c r="BH74" s="2"/>
       <c r="BI74" s="2"/>
-    </row>
-    <row r="75" spans="1:61" ht="16">
+      <c r="BJ74" s="2"/>
+      <c r="BK74" s="2"/>
+    </row>
+    <row r="75" spans="1:63" ht="16">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-      <c r="K75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="AZ75" s="2"/>
-      <c r="BA75" s="2"/>
-      <c r="BB75" s="4"/>
-      <c r="BC75" s="5"/>
-      <c r="BD75" s="2"/>
-      <c r="BE75" s="2"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="4"/>
+      <c r="AC75" s="1"/>
+      <c r="BB75" s="2"/>
+      <c r="BC75" s="2"/>
+      <c r="BD75" s="4"/>
+      <c r="BE75" s="5"/>
       <c r="BF75" s="2"/>
       <c r="BG75" s="2"/>
       <c r="BH75" s="2"/>
       <c r="BI75" s="2"/>
-    </row>
-    <row r="76" spans="1:61" ht="16">
+      <c r="BJ75" s="2"/>
+      <c r="BK75" s="2"/>
+    </row>
+    <row r="76" spans="1:63" ht="16">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="AZ76" s="2"/>
-      <c r="BA76" s="2"/>
-      <c r="BB76" s="4"/>
-      <c r="BC76" s="5"/>
-      <c r="BD76" s="2"/>
-      <c r="BE76" s="2"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+      <c r="L76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="2"/>
+      <c r="BD76" s="4"/>
+      <c r="BE76" s="5"/>
       <c r="BF76" s="2"/>
       <c r="BG76" s="2"/>
       <c r="BH76" s="2"/>
       <c r="BI76" s="2"/>
-    </row>
-    <row r="77" spans="1:61" ht="16">
+      <c r="BJ76" s="2"/>
+      <c r="BK76" s="2"/>
+    </row>
+    <row r="77" spans="1:63" ht="16">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-      <c r="K77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="AZ77" s="2"/>
-      <c r="BA77" s="2"/>
-      <c r="BB77" s="4"/>
-      <c r="BC77" s="5"/>
-      <c r="BD77" s="2"/>
-      <c r="BE77" s="2"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+      <c r="L77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="2"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="5"/>
       <c r="BF77" s="2"/>
       <c r="BG77" s="2"/>
       <c r="BH77" s="2"/>
       <c r="BI77" s="2"/>
-    </row>
-    <row r="78" spans="1:61" ht="16">
+      <c r="BJ77" s="2"/>
+      <c r="BK77" s="2"/>
+    </row>
+    <row r="78" spans="1:63" ht="16">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="AZ78" s="2"/>
-      <c r="BA78" s="2"/>
-      <c r="BB78" s="4"/>
-      <c r="BC78" s="5"/>
-      <c r="BD78" s="2"/>
-      <c r="BE78" s="2"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+      <c r="L78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="BB78" s="2"/>
+      <c r="BC78" s="2"/>
+      <c r="BD78" s="4"/>
+      <c r="BE78" s="5"/>
       <c r="BF78" s="2"/>
       <c r="BG78" s="2"/>
       <c r="BH78" s="2"/>
       <c r="BI78" s="2"/>
-    </row>
-    <row r="79" spans="1:61" ht="16">
+      <c r="BJ78" s="2"/>
+      <c r="BK78" s="2"/>
+    </row>
+    <row r="79" spans="1:63" ht="16">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="3"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-      <c r="K79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="AZ79" s="2"/>
-      <c r="BA79" s="2"/>
-      <c r="BB79" s="4"/>
-      <c r="BC79" s="5"/>
-      <c r="BD79" s="2"/>
-      <c r="BE79" s="2"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="AL79" s="10"/>
+      <c r="AM79" s="10"/>
+      <c r="AN79" s="10"/>
+      <c r="AO79" s="10"/>
+      <c r="AP79" s="10"/>
+      <c r="AQ79" s="10"/>
+      <c r="AR79" s="10"/>
+      <c r="AS79" s="10"/>
+      <c r="AT79" s="10"/>
+      <c r="AU79" s="10"/>
+      <c r="AV79" s="10"/>
+      <c r="AW79" s="10"/>
+      <c r="AX79" s="10"/>
+      <c r="AY79" s="10"/>
+      <c r="BB79" s="2"/>
+      <c r="BC79" s="2"/>
+      <c r="BD79" s="4"/>
+      <c r="BE79" s="5"/>
       <c r="BF79" s="2"/>
       <c r="BG79" s="2"/>
       <c r="BH79" s="2"/>
       <c r="BI79" s="2"/>
-    </row>
-    <row r="80" spans="1:61" ht="16">
+      <c r="BJ79" s="2"/>
+      <c r="BK79" s="2"/>
+    </row>
+    <row r="80" spans="1:63" ht="16">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="R80" s="1"/>
-      <c r="AZ80" s="2"/>
-      <c r="BA80" s="2"/>
-      <c r="BB80" s="4"/>
-      <c r="BC80" s="5"/>
-      <c r="BD80" s="2"/>
-      <c r="BE80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="4"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="10"/>
+      <c r="AO80" s="10"/>
+      <c r="AP80" s="10"/>
+      <c r="AQ80" s="10"/>
+      <c r="AR80" s="10"/>
+      <c r="AS80" s="10"/>
+      <c r="AT80" s="10"/>
+      <c r="AU80" s="10"/>
+      <c r="AV80" s="10"/>
+      <c r="AW80" s="10"/>
+      <c r="AX80" s="10"/>
+      <c r="AY80" s="10"/>
+      <c r="BB80" s="2"/>
+      <c r="BC80" s="2"/>
+      <c r="BD80" s="4"/>
+      <c r="BE80" s="5"/>
       <c r="BF80" s="2"/>
       <c r="BG80" s="2"/>
       <c r="BH80" s="2"/>
       <c r="BI80" s="2"/>
-    </row>
-    <row r="81" spans="1:61" ht="16">
+      <c r="BJ80" s="2"/>
+      <c r="BK80" s="2"/>
+    </row>
+    <row r="81" spans="1:63" ht="16">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="3"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-      <c r="K81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="AZ81" s="2"/>
-      <c r="BA81" s="2"/>
-      <c r="BB81" s="4"/>
-      <c r="BC81" s="5"/>
-      <c r="BD81" s="2"/>
-      <c r="BE81" s="2"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="4"/>
+      <c r="S81" s="1"/>
+      <c r="AL81" s="10"/>
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="10"/>
+      <c r="AO81" s="10"/>
+      <c r="AP81" s="10"/>
+      <c r="AQ81" s="10"/>
+      <c r="AR81" s="10"/>
+      <c r="AS81" s="10"/>
+      <c r="AT81" s="10"/>
+      <c r="AU81" s="10"/>
+      <c r="AV81" s="10"/>
+      <c r="AW81" s="10"/>
+      <c r="AX81" s="10"/>
+      <c r="AY81" s="10"/>
+      <c r="BB81" s="2"/>
+      <c r="BC81" s="2"/>
+      <c r="BD81" s="4"/>
+      <c r="BE81" s="5"/>
       <c r="BF81" s="2"/>
       <c r="BG81" s="2"/>
       <c r="BH81" s="2"/>
       <c r="BI81" s="2"/>
-    </row>
-    <row r="82" spans="1:61" ht="16">
+      <c r="BJ81" s="2"/>
+      <c r="BK81" s="2"/>
+    </row>
+    <row r="82" spans="1:63" ht="16">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-      <c r="K82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="4"/>
       <c r="S82" s="1"/>
-      <c r="AZ82" s="2"/>
-      <c r="BA82" s="2"/>
-      <c r="BB82" s="4"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="2"/>
-      <c r="BE82" s="2"/>
+      <c r="AL82" s="10"/>
+      <c r="AM82" s="10"/>
+      <c r="AN82" s="10"/>
+      <c r="AO82" s="10"/>
+      <c r="AP82" s="10"/>
+      <c r="AQ82" s="10"/>
+      <c r="AR82" s="10"/>
+      <c r="AS82" s="10"/>
+      <c r="AT82" s="10"/>
+      <c r="AU82" s="10"/>
+      <c r="AV82" s="10"/>
+      <c r="AW82" s="10"/>
+      <c r="AX82" s="10"/>
+      <c r="AY82" s="10"/>
+      <c r="BB82" s="2"/>
+      <c r="BC82" s="2"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="5"/>
       <c r="BF82" s="2"/>
       <c r="BG82" s="2"/>
       <c r="BH82" s="2"/>
       <c r="BI82" s="2"/>
-    </row>
-    <row r="83" spans="1:61" ht="16">
+      <c r="BJ82" s="2"/>
+      <c r="BK82" s="2"/>
+    </row>
+    <row r="83" spans="1:63" ht="16">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="3"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
-      <c r="AB83" s="1"/>
-      <c r="AZ83" s="2"/>
-      <c r="BA83" s="2"/>
-      <c r="BB83" s="4"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="2"/>
-      <c r="BE83" s="2"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="AL83" s="10"/>
+      <c r="AM83" s="10"/>
+      <c r="AN83" s="10"/>
+      <c r="AO83" s="10"/>
+      <c r="AP83" s="10"/>
+      <c r="AQ83" s="10"/>
+      <c r="AR83" s="10"/>
+      <c r="AS83" s="10"/>
+      <c r="AT83" s="10"/>
+      <c r="AU83" s="10"/>
+      <c r="AV83" s="10"/>
+      <c r="AW83" s="10"/>
+      <c r="AX83" s="10"/>
+      <c r="AY83" s="10"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="4"/>
+      <c r="BE83" s="5"/>
       <c r="BF83" s="2"/>
       <c r="BG83" s="2"/>
       <c r="BH83" s="2"/>
       <c r="BI83" s="2"/>
-    </row>
-    <row r="84" spans="1:61" ht="16">
+      <c r="BJ83" s="2"/>
+      <c r="BK83" s="2"/>
+    </row>
+    <row r="84" spans="1:63" ht="16">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-      <c r="K84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="AZ84" s="2"/>
-      <c r="BA84" s="2"/>
-      <c r="BB84" s="4"/>
-      <c r="BC84" s="5"/>
-      <c r="BD84" s="2"/>
-      <c r="BE84" s="2"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+      <c r="L84" s="1"/>
+      <c r="AY84" s="10"/>
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="4"/>
+      <c r="BE84" s="5"/>
       <c r="BF84" s="2"/>
       <c r="BG84" s="2"/>
       <c r="BH84" s="2"/>
       <c r="BI84" s="2"/>
-    </row>
-    <row r="85" spans="1:61" ht="16">
+      <c r="BJ84" s="2"/>
+      <c r="BK84" s="2"/>
+    </row>
+    <row r="85" spans="1:63" ht="16">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="3"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
-      <c r="K85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="AZ85" s="2"/>
-      <c r="BA85" s="2"/>
-      <c r="BB85" s="4"/>
-      <c r="BC85" s="5"/>
-      <c r="BD85" s="2"/>
-      <c r="BE85" s="2"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+      <c r="L85" s="1"/>
+      <c r="AY85" s="10"/>
+      <c r="BB85" s="2"/>
+      <c r="BC85" s="2"/>
+      <c r="BD85" s="4"/>
+      <c r="BE85" s="5"/>
       <c r="BF85" s="2"/>
       <c r="BG85" s="2"/>
       <c r="BH85" s="2"/>
       <c r="BI85" s="2"/>
-    </row>
-    <row r="86" spans="1:61" ht="16">
+      <c r="BJ85" s="2"/>
+      <c r="BK85" s="2"/>
+    </row>
+    <row r="86" spans="1:63" ht="16">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
-      <c r="K86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="AZ86" s="2"/>
-      <c r="BA86" s="2"/>
-      <c r="BB86" s="4"/>
-      <c r="BC86" s="5"/>
-      <c r="BD86" s="2"/>
-      <c r="BE86" s="2"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+      <c r="L86" s="1"/>
+      <c r="AY86" s="10"/>
+      <c r="BB86" s="2"/>
+      <c r="BC86" s="2"/>
+      <c r="BD86" s="4"/>
+      <c r="BE86" s="5"/>
       <c r="BF86" s="2"/>
       <c r="BG86" s="2"/>
       <c r="BH86" s="2"/>
       <c r="BI86" s="2"/>
-    </row>
-    <row r="87" spans="1:61" ht="16">
+      <c r="BJ86" s="2"/>
+      <c r="BK86" s="2"/>
+    </row>
+    <row r="87" spans="1:63" ht="16">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="3"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="AK87" s="10"/>
-      <c r="AL87" s="10"/>
-      <c r="AM87" s="10"/>
-      <c r="AN87" s="10"/>
-      <c r="AO87" s="10"/>
-      <c r="AP87" s="10"/>
-      <c r="AQ87" s="10"/>
-      <c r="AR87" s="10"/>
-      <c r="AS87" s="10"/>
-      <c r="AT87" s="10"/>
-      <c r="AU87" s="10"/>
-      <c r="AV87" s="10"/>
-      <c r="AW87" s="10"/>
-      <c r="AZ87" s="2"/>
-      <c r="BA87" s="2"/>
-      <c r="BB87" s="4"/>
-      <c r="BC87" s="5"/>
-      <c r="BD87" s="2"/>
-      <c r="BE87" s="2"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+      <c r="BB87" s="2"/>
+      <c r="BC87" s="2"/>
+      <c r="BD87" s="4"/>
+      <c r="BE87" s="5"/>
       <c r="BF87" s="2"/>
       <c r="BG87" s="2"/>
       <c r="BH87" s="2"/>
       <c r="BI87" s="2"/>
-    </row>
-    <row r="88" spans="1:61" ht="16">
+      <c r="BJ87" s="2"/>
+      <c r="BK87" s="2"/>
+    </row>
+    <row r="88" spans="1:63" ht="16">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="AK88" s="10"/>
-      <c r="AL88" s="10"/>
-      <c r="AM88" s="10"/>
-      <c r="AN88" s="10"/>
-      <c r="AO88" s="10"/>
-      <c r="AP88" s="10"/>
-      <c r="AQ88" s="10"/>
-      <c r="AR88" s="10"/>
-      <c r="AS88" s="10"/>
-      <c r="AT88" s="10"/>
-      <c r="AU88" s="10"/>
-      <c r="AV88" s="10"/>
-      <c r="AW88" s="10"/>
-      <c r="AZ88" s="2"/>
-      <c r="BA88" s="2"/>
-      <c r="BB88" s="4"/>
-      <c r="BC88" s="5"/>
-      <c r="BD88" s="2"/>
-      <c r="BE88" s="2"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="4"/>
+      <c r="L88" s="1"/>
+      <c r="BB88" s="2"/>
+      <c r="BC88" s="2"/>
+      <c r="BD88" s="4"/>
+      <c r="BE88" s="5"/>
       <c r="BF88" s="2"/>
       <c r="BG88" s="2"/>
       <c r="BH88" s="2"/>
       <c r="BI88" s="2"/>
-    </row>
-    <row r="89" spans="1:61" ht="16">
+      <c r="BJ88" s="2"/>
+      <c r="BK88" s="2"/>
+    </row>
+    <row r="89" spans="1:63" ht="16">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="3"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
-      <c r="R89" s="1"/>
-      <c r="AK89" s="10"/>
-      <c r="AL89" s="10"/>
-      <c r="AM89" s="10"/>
-      <c r="AN89" s="10"/>
-      <c r="AO89" s="10"/>
-      <c r="AP89" s="10"/>
-      <c r="AQ89" s="10"/>
-      <c r="AR89" s="10"/>
-      <c r="AS89" s="10"/>
-      <c r="AT89" s="10"/>
-      <c r="AU89" s="10"/>
-      <c r="AV89" s="10"/>
-      <c r="AW89" s="10"/>
-      <c r="AZ89" s="2"/>
-      <c r="BA89" s="2"/>
-      <c r="BB89" s="4"/>
-      <c r="BC89" s="5"/>
-      <c r="BD89" s="2"/>
-      <c r="BE89" s="2"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="4"/>
+      <c r="L89" s="1"/>
+      <c r="BB89" s="2"/>
+      <c r="BC89" s="2"/>
+      <c r="BD89" s="4"/>
+      <c r="BE89" s="5"/>
       <c r="BF89" s="2"/>
       <c r="BG89" s="2"/>
       <c r="BH89" s="2"/>
       <c r="BI89" s="2"/>
-    </row>
-    <row r="90" spans="1:61" ht="16">
+      <c r="BJ89" s="2"/>
+      <c r="BK89" s="2"/>
+    </row>
+    <row r="90" spans="1:63" ht="16">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="4"/>
-      <c r="R90" s="1"/>
-      <c r="AK90" s="10"/>
-      <c r="AL90" s="10"/>
-      <c r="AM90" s="10"/>
-      <c r="AN90" s="10"/>
-      <c r="AO90" s="10"/>
-      <c r="AP90" s="10"/>
-      <c r="AQ90" s="10"/>
-      <c r="AR90" s="10"/>
-      <c r="AS90" s="10"/>
-      <c r="AT90" s="10"/>
-      <c r="AU90" s="10"/>
-      <c r="AV90" s="10"/>
-      <c r="AW90" s="10"/>
-      <c r="AZ90" s="2"/>
-      <c r="BA90" s="2"/>
-      <c r="BB90" s="4"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="2"/>
-      <c r="BE90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="4"/>
+      <c r="L90" s="1"/>
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="4"/>
+      <c r="BE90" s="5"/>
       <c r="BF90" s="2"/>
       <c r="BG90" s="2"/>
       <c r="BH90" s="2"/>
       <c r="BI90" s="2"/>
-    </row>
-    <row r="91" spans="1:61" ht="16">
+      <c r="BJ90" s="2"/>
+      <c r="BK90" s="5"/>
+    </row>
+    <row r="91" spans="1:63" ht="16">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="3"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="AK91" s="10"/>
-      <c r="AL91" s="10"/>
-      <c r="AM91" s="10"/>
-      <c r="AN91" s="10"/>
-      <c r="AO91" s="10"/>
-      <c r="AP91" s="10"/>
-      <c r="AQ91" s="10"/>
-      <c r="AR91" s="10"/>
-      <c r="AS91" s="10"/>
-      <c r="AT91" s="10"/>
-      <c r="AU91" s="10"/>
-      <c r="AV91" s="10"/>
-      <c r="AW91" s="10"/>
-      <c r="AZ91" s="2"/>
-      <c r="BA91" s="2"/>
-      <c r="BB91" s="4"/>
-      <c r="BC91" s="5"/>
-      <c r="BD91" s="2"/>
-      <c r="BE91" s="2"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+      <c r="L91" s="1"/>
+      <c r="BB91" s="2"/>
+      <c r="BC91" s="2"/>
+      <c r="BD91" s="4"/>
+      <c r="BE91" s="5"/>
       <c r="BF91" s="2"/>
       <c r="BG91" s="2"/>
       <c r="BH91" s="2"/>
       <c r="BI91" s="2"/>
-    </row>
-    <row r="92" spans="1:61" ht="16">
+      <c r="BJ91" s="2"/>
+      <c r="BK91" s="5"/>
+    </row>
+    <row r="92" spans="1:63" ht="16">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
-      <c r="K92" s="1"/>
-      <c r="AW92" s="10"/>
-      <c r="AZ92" s="2"/>
-      <c r="BA92" s="2"/>
-      <c r="BB92" s="4"/>
-      <c r="BC92" s="5"/>
-      <c r="BD92" s="2"/>
-      <c r="BE92" s="2"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+      <c r="L92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="BB92" s="2"/>
+      <c r="BC92" s="2"/>
+      <c r="BD92" s="4"/>
+      <c r="BE92" s="5"/>
       <c r="BF92" s="2"/>
       <c r="BG92" s="2"/>
       <c r="BH92" s="2"/>
       <c r="BI92" s="2"/>
-    </row>
-    <row r="93" spans="1:61" ht="16">
+      <c r="BJ92" s="2"/>
+      <c r="BK92" s="5"/>
+    </row>
+    <row r="93" spans="1:63" ht="16">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="3"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="4"/>
-      <c r="K93" s="1"/>
-      <c r="AW93" s="10"/>
-      <c r="AZ93" s="2"/>
-      <c r="BA93" s="2"/>
-      <c r="BB93" s="4"/>
-      <c r="BC93" s="5"/>
-      <c r="BD93" s="2"/>
-      <c r="BE93" s="2"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+      <c r="L93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="BB93" s="2"/>
+      <c r="BC93" s="2"/>
+      <c r="BD93" s="4"/>
+      <c r="BE93" s="5"/>
       <c r="BF93" s="2"/>
       <c r="BG93" s="2"/>
       <c r="BH93" s="2"/>
       <c r="BI93" s="2"/>
-    </row>
-    <row r="94" spans="1:61" ht="16">
+      <c r="BJ93" s="2"/>
+      <c r="BK93" s="5"/>
+    </row>
+    <row r="94" spans="1:63" ht="16">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="3"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="1"/>
-      <c r="AW94" s="10"/>
-      <c r="AZ94" s="2"/>
-      <c r="BA94" s="2"/>
-      <c r="BB94" s="4"/>
-      <c r="BC94" s="5"/>
-      <c r="BD94" s="2"/>
-      <c r="BE94" s="2"/>
+      <c r="L94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="BB94" s="2"/>
+      <c r="BC94" s="2"/>
+      <c r="BD94" s="4"/>
+      <c r="BE94" s="5"/>
       <c r="BF94" s="2"/>
       <c r="BG94" s="2"/>
       <c r="BH94" s="2"/>
       <c r="BI94" s="2"/>
-    </row>
-    <row r="95" spans="1:61" ht="16">
+      <c r="BJ94" s="2"/>
+      <c r="BK94" s="5"/>
+    </row>
+    <row r="95" spans="1:63" ht="16">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="3"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
-      <c r="AZ95" s="2"/>
-      <c r="BA95" s="2"/>
-      <c r="BB95" s="4"/>
-      <c r="BC95" s="5"/>
-      <c r="BD95" s="2"/>
-      <c r="BE95" s="2"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+      <c r="L95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="BB95" s="2"/>
+      <c r="BC95" s="2"/>
+      <c r="BD95" s="5"/>
+      <c r="BE95" s="5"/>
       <c r="BF95" s="2"/>
       <c r="BG95" s="2"/>
       <c r="BH95" s="2"/>
       <c r="BI95" s="2"/>
-    </row>
-    <row r="96" spans="1:61" ht="16">
+      <c r="BJ95" s="2"/>
+      <c r="BK95" s="5"/>
+    </row>
+    <row r="96" spans="1:63" ht="16">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="3"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
-      <c r="K96" s="1"/>
-      <c r="AZ96" s="2"/>
-      <c r="BA96" s="2"/>
-      <c r="BB96" s="4"/>
-      <c r="BC96" s="5"/>
-      <c r="BD96" s="2"/>
-      <c r="BE96" s="2"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+      <c r="L96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="BB96" s="2"/>
+      <c r="BC96" s="2"/>
+      <c r="BD96" s="5"/>
+      <c r="BE96" s="5"/>
       <c r="BF96" s="2"/>
       <c r="BG96" s="2"/>
       <c r="BH96" s="2"/>
       <c r="BI96" s="2"/>
-    </row>
-    <row r="97" spans="1:61" ht="16">
+      <c r="BJ96" s="2"/>
+      <c r="BK96" s="5"/>
+    </row>
+    <row r="97" spans="1:63" ht="16">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="3"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="4"/>
-      <c r="K97" s="1"/>
-      <c r="AZ97" s="2"/>
-      <c r="BA97" s="2"/>
-      <c r="BB97" s="4"/>
-      <c r="BC97" s="5"/>
-      <c r="BD97" s="2"/>
-      <c r="BE97" s="2"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="4"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="BB97" s="2"/>
+      <c r="BC97" s="2"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="5"/>
       <c r="BF97" s="2"/>
       <c r="BG97" s="2"/>
       <c r="BH97" s="2"/>
       <c r="BI97" s="2"/>
-    </row>
-    <row r="98" spans="1:61" ht="16">
+      <c r="BJ97" s="2"/>
+      <c r="BK97" s="5"/>
+    </row>
+    <row r="98" spans="1:63" ht="16">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="3"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
-      <c r="K98" s="1"/>
-      <c r="AZ98" s="2"/>
-      <c r="BA98" s="2"/>
-      <c r="BB98" s="4"/>
-      <c r="BC98" s="5"/>
-      <c r="BD98" s="2"/>
-      <c r="BE98" s="2"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="4"/>
+      <c r="L98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="BB98" s="2"/>
+      <c r="BC98" s="2"/>
+      <c r="BD98" s="5"/>
+      <c r="BE98" s="5"/>
       <c r="BF98" s="2"/>
       <c r="BG98" s="2"/>
       <c r="BH98" s="2"/>
-      <c r="BI98" s="5"/>
-    </row>
-    <row r="99" spans="1:61" ht="16">
+      <c r="BI98" s="2"/>
+      <c r="BJ98" s="2"/>
+      <c r="BK98" s="5"/>
+    </row>
+    <row r="99" spans="1:63" ht="16">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="3"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="4"/>
-      <c r="K99" s="1"/>
-      <c r="AZ99" s="2"/>
-      <c r="BA99" s="2"/>
-      <c r="BB99" s="4"/>
-      <c r="BC99" s="5"/>
-      <c r="BD99" s="2"/>
-      <c r="BE99" s="2"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4"/>
+      <c r="M99" s="1"/>
+      <c r="BB99" s="2"/>
+      <c r="BC99" s="2"/>
+      <c r="BD99" s="4"/>
+      <c r="BE99" s="5"/>
       <c r="BF99" s="2"/>
       <c r="BG99" s="2"/>
       <c r="BH99" s="2"/>
-      <c r="BI99" s="5"/>
-    </row>
-    <row r="100" spans="1:61" ht="16">
+      <c r="BI99" s="2"/>
+      <c r="BJ99" s="2"/>
+      <c r="BK99" s="5"/>
+    </row>
+    <row r="100" spans="1:63" ht="16">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="3"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
-      <c r="K100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AZ100" s="2"/>
-      <c r="BA100" s="2"/>
-      <c r="BB100" s="4"/>
-      <c r="BC100" s="5"/>
-      <c r="BD100" s="2"/>
-      <c r="BE100" s="2"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4"/>
+      <c r="T100" s="1"/>
+      <c r="BB100" s="2"/>
+      <c r="BC100" s="2"/>
+      <c r="BD100" s="4"/>
+      <c r="BE100" s="5"/>
       <c r="BF100" s="2"/>
       <c r="BG100" s="2"/>
       <c r="BH100" s="2"/>
-      <c r="BI100" s="5"/>
-    </row>
-    <row r="101" spans="1:61" ht="16">
+      <c r="BI100" s="2"/>
+      <c r="BJ100" s="2"/>
+      <c r="BK100" s="5"/>
+    </row>
+    <row r="101" spans="1:63" ht="16">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="3"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="4"/>
-      <c r="K101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="AZ101" s="2"/>
-      <c r="BA101" s="2"/>
-      <c r="BB101" s="4"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="2"/>
-      <c r="BE101" s="2"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+      <c r="L101" s="1"/>
+      <c r="BB101" s="2"/>
+      <c r="BC101" s="2"/>
+      <c r="BD101" s="4"/>
+      <c r="BE101" s="5"/>
       <c r="BF101" s="2"/>
       <c r="BG101" s="2"/>
       <c r="BH101" s="2"/>
-      <c r="BI101" s="5"/>
-    </row>
-    <row r="102" spans="1:61" ht="16">
+      <c r="BI101" s="2"/>
+      <c r="BJ101" s="2"/>
+      <c r="BK101" s="5"/>
+    </row>
+    <row r="102" spans="1:63" ht="16">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="3"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="AF102" s="1"/>
-      <c r="AZ102" s="2"/>
-      <c r="BA102" s="2"/>
-      <c r="BB102" s="4"/>
-      <c r="BC102" s="5"/>
-      <c r="BD102" s="2"/>
-      <c r="BE102" s="2"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+      <c r="L102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="BB102" s="2"/>
+      <c r="BC102" s="2"/>
+      <c r="BD102" s="4"/>
+      <c r="BE102" s="5"/>
       <c r="BF102" s="2"/>
       <c r="BG102" s="2"/>
       <c r="BH102" s="2"/>
-      <c r="BI102" s="5"/>
-    </row>
-    <row r="103" spans="1:61" ht="16">
+      <c r="BI102" s="2"/>
+      <c r="BJ102" s="2"/>
+      <c r="BK102" s="5"/>
+    </row>
+    <row r="103" spans="1:63" ht="16">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="3"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="4"/>
-      <c r="K103" s="1"/>
-      <c r="X103" s="1"/>
-      <c r="AF103" s="1"/>
-      <c r="AZ103" s="2"/>
-      <c r="BA103" s="2"/>
-      <c r="BB103" s="5"/>
-      <c r="BC103" s="5"/>
-      <c r="BD103" s="2"/>
-      <c r="BE103" s="2"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+      <c r="L103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="BB103" s="2"/>
+      <c r="BC103" s="2"/>
+      <c r="BD103" s="4"/>
+      <c r="BE103" s="5"/>
       <c r="BF103" s="2"/>
       <c r="BG103" s="2"/>
       <c r="BH103" s="2"/>
-      <c r="BI103" s="5"/>
-    </row>
-    <row r="104" spans="1:61" ht="16">
+      <c r="BI103" s="2"/>
+      <c r="BJ103" s="2"/>
+      <c r="BK103" s="5"/>
+    </row>
+    <row r="104" spans="1:63" ht="16">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
-      <c r="K104" s="1"/>
-      <c r="AF104" s="1"/>
-      <c r="AZ104" s="2"/>
-      <c r="BA104" s="2"/>
-      <c r="BB104" s="5"/>
-      <c r="BC104" s="5"/>
-      <c r="BD104" s="2"/>
-      <c r="BE104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="4"/>
+      <c r="L104" s="1"/>
+      <c r="BB104" s="2"/>
+      <c r="BC104" s="2"/>
+      <c r="BD104" s="4"/>
+      <c r="BE104" s="5"/>
       <c r="BF104" s="2"/>
       <c r="BG104" s="2"/>
       <c r="BH104" s="2"/>
-      <c r="BI104" s="5"/>
-    </row>
-    <row r="105" spans="1:61" ht="16">
+      <c r="BI104" s="2"/>
+      <c r="BJ104" s="2"/>
+      <c r="BK104" s="5"/>
+    </row>
+    <row r="105" spans="1:63" ht="16">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
-      <c r="AG105" s="1"/>
-      <c r="AH105" s="1"/>
-      <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
-      <c r="AK105" s="1"/>
-      <c r="AL105" s="1"/>
-      <c r="AM105" s="1"/>
-      <c r="AN105" s="1"/>
-      <c r="AO105" s="1"/>
-      <c r="AP105" s="1"/>
-      <c r="AQ105" s="1"/>
-      <c r="AR105" s="1"/>
-      <c r="AS105" s="1"/>
-      <c r="AT105" s="1"/>
-      <c r="AU105" s="1"/>
-      <c r="AZ105" s="2"/>
-      <c r="BA105" s="2"/>
-      <c r="BB105" s="4"/>
-      <c r="BC105" s="5"/>
-      <c r="BD105" s="2"/>
-      <c r="BE105" s="2"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="4"/>
+      <c r="L105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="BB105" s="2"/>
+      <c r="BC105" s="2"/>
+      <c r="BD105" s="4"/>
+      <c r="BE105" s="5"/>
       <c r="BF105" s="2"/>
       <c r="BG105" s="2"/>
       <c r="BH105" s="2"/>
-      <c r="BI105" s="5"/>
-    </row>
-    <row r="106" spans="1:61" ht="16">
+      <c r="BI105" s="2"/>
+      <c r="BJ105" s="2"/>
+      <c r="BK105" s="5"/>
+    </row>
+    <row r="106" spans="1:63" ht="16">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="4"/>
-      <c r="K106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AZ106" s="2"/>
-      <c r="BA106" s="2"/>
-      <c r="BB106" s="5"/>
-      <c r="BC106" s="5"/>
-      <c r="BD106" s="2"/>
-      <c r="BE106" s="2"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="4"/>
+      <c r="L106" s="1"/>
+      <c r="BB106" s="2"/>
+      <c r="BC106" s="2"/>
+      <c r="BD106" s="4"/>
+      <c r="BE106" s="5"/>
       <c r="BF106" s="2"/>
       <c r="BG106" s="2"/>
       <c r="BH106" s="2"/>
-      <c r="BI106" s="5"/>
-    </row>
-    <row r="107" spans="1:61" ht="16">
+      <c r="BI106" s="2"/>
+      <c r="BJ106" s="2"/>
+      <c r="BK106" s="5"/>
+    </row>
+    <row r="107" spans="1:63" ht="16">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="4"/>
-      <c r="L107" s="1"/>
-      <c r="AZ107" s="2"/>
-      <c r="BA107" s="2"/>
-      <c r="BB107" s="4"/>
-      <c r="BC107" s="5"/>
-      <c r="BD107" s="2"/>
-      <c r="BE107" s="2"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="4"/>
+      <c r="Z107" s="1"/>
+      <c r="BB107" s="2"/>
+      <c r="BC107" s="2"/>
+      <c r="BD107" s="5"/>
+      <c r="BE107" s="5"/>
       <c r="BF107" s="2"/>
       <c r="BG107" s="2"/>
       <c r="BH107" s="2"/>
-      <c r="BI107" s="5"/>
-    </row>
-    <row r="108" spans="1:61" ht="16">
+      <c r="BI107" s="2"/>
+      <c r="BJ107" s="2"/>
+      <c r="BK107" s="5"/>
+    </row>
+    <row r="108" spans="1:63" ht="16">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="4"/>
-      <c r="S108" s="1"/>
-      <c r="AZ108" s="2"/>
-      <c r="BA108" s="2"/>
-      <c r="BB108" s="4"/>
-      <c r="BC108" s="5"/>
-      <c r="BD108" s="2"/>
-      <c r="BE108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+      <c r="L108" s="1"/>
+      <c r="BB108" s="2"/>
+      <c r="BC108" s="2"/>
+      <c r="BD108" s="4"/>
+      <c r="BE108" s="5"/>
       <c r="BF108" s="2"/>
       <c r="BG108" s="2"/>
       <c r="BH108" s="2"/>
-      <c r="BI108" s="5"/>
-    </row>
-    <row r="109" spans="1:61" ht="16">
+      <c r="BI108" s="2"/>
+      <c r="BJ108" s="2"/>
+      <c r="BK108" s="5"/>
+    </row>
+    <row r="109" spans="1:63" ht="16">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="4"/>
-      <c r="K109" s="1"/>
-      <c r="AZ109" s="2"/>
-      <c r="BA109" s="2"/>
-      <c r="BB109" s="4"/>
-      <c r="BC109" s="5"/>
-      <c r="BD109" s="2"/>
-      <c r="BE109" s="2"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+      <c r="T109" s="1"/>
+      <c r="BB109" s="2"/>
+      <c r="BC109" s="2"/>
+      <c r="BD109" s="4"/>
+      <c r="BE109" s="5"/>
       <c r="BF109" s="2"/>
       <c r="BG109" s="2"/>
       <c r="BH109" s="2"/>
-      <c r="BI109" s="5"/>
-    </row>
-    <row r="110" spans="1:61" ht="16">
+      <c r="BI109" s="2"/>
+      <c r="BJ109" s="2"/>
+      <c r="BK109" s="5"/>
+    </row>
+    <row r="110" spans="1:63" ht="16">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="3"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="4"/>
-      <c r="K110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="AZ110" s="2"/>
-      <c r="BA110" s="2"/>
-      <c r="BB110" s="4"/>
-      <c r="BC110" s="5"/>
-      <c r="BD110" s="2"/>
-      <c r="BE110" s="2"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4"/>
+      <c r="T110" s="1"/>
+      <c r="BB110" s="2"/>
+      <c r="BC110" s="2"/>
+      <c r="BD110" s="4"/>
+      <c r="BE110" s="5"/>
       <c r="BF110" s="2"/>
       <c r="BG110" s="2"/>
       <c r="BH110" s="2"/>
-      <c r="BI110" s="5"/>
-    </row>
-    <row r="111" spans="1:61" ht="16">
+      <c r="BI110" s="2"/>
+      <c r="BJ110" s="2"/>
+      <c r="BK110" s="5"/>
+    </row>
+    <row r="111" spans="1:63" ht="16">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="3"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="4"/>
-      <c r="K111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="AZ111" s="2"/>
-      <c r="BA111" s="2"/>
-      <c r="BB111" s="4"/>
-      <c r="BC111" s="5"/>
-      <c r="BD111" s="2"/>
-      <c r="BE111" s="2"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+      <c r="T111" s="1"/>
+      <c r="BB111" s="2"/>
+      <c r="BC111" s="2"/>
+      <c r="BD111" s="4"/>
+      <c r="BE111" s="5"/>
       <c r="BF111" s="2"/>
       <c r="BG111" s="2"/>
       <c r="BH111" s="2"/>
-      <c r="BI111" s="5"/>
-    </row>
-    <row r="112" spans="1:61" ht="16">
+      <c r="BI111" s="2"/>
+      <c r="BJ111" s="2"/>
+      <c r="BK111" s="5"/>
+    </row>
+    <row r="112" spans="1:63" ht="16">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="4"/>
-      <c r="K112" s="1"/>
-      <c r="AZ112" s="2"/>
-      <c r="BA112" s="2"/>
-      <c r="BB112" s="4"/>
-      <c r="BC112" s="5"/>
-      <c r="BD112" s="2"/>
-      <c r="BE112" s="2"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="4"/>
+      <c r="T112" s="1"/>
+      <c r="BB112" s="2"/>
+      <c r="BC112" s="2"/>
+      <c r="BD112" s="4"/>
+      <c r="BE112" s="5"/>
       <c r="BF112" s="2"/>
       <c r="BG112" s="2"/>
       <c r="BH112" s="2"/>
-      <c r="BI112" s="5"/>
-    </row>
-    <row r="113" spans="1:61" ht="16">
+      <c r="BI112" s="2"/>
+      <c r="BJ112" s="2"/>
+      <c r="BK112" s="5"/>
+    </row>
+    <row r="113" spans="1:63" ht="16">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="3"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="4"/>
-      <c r="K113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="AZ113" s="2"/>
-      <c r="BA113" s="2"/>
-      <c r="BB113" s="4"/>
-      <c r="BC113" s="5"/>
-      <c r="BD113" s="2"/>
-      <c r="BE113" s="2"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="4"/>
+      <c r="V113" s="1"/>
+      <c r="BB113" s="2"/>
+      <c r="BC113" s="2"/>
+      <c r="BD113" s="4"/>
+      <c r="BE113" s="5"/>
       <c r="BF113" s="2"/>
       <c r="BG113" s="2"/>
       <c r="BH113" s="2"/>
-      <c r="BI113" s="5"/>
-    </row>
-    <row r="114" spans="1:61" ht="16">
+      <c r="BI113" s="2"/>
+      <c r="BJ113" s="2"/>
+      <c r="BK113" s="5"/>
+    </row>
+    <row r="114" spans="1:63" ht="16">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="3"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="4"/>
-      <c r="K114" s="1"/>
-      <c r="AZ114" s="2"/>
-      <c r="BA114" s="2"/>
-      <c r="BB114" s="4"/>
-      <c r="BC114" s="5"/>
-      <c r="BD114" s="2"/>
-      <c r="BE114" s="2"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="4"/>
+      <c r="L114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="BB114" s="2"/>
+      <c r="BC114" s="2"/>
+      <c r="BD114" s="4"/>
+      <c r="BE114" s="5"/>
       <c r="BF114" s="2"/>
       <c r="BG114" s="2"/>
       <c r="BH114" s="2"/>
-      <c r="BI114" s="5"/>
-    </row>
-    <row r="115" spans="1:61" ht="16">
+      <c r="BI114" s="2"/>
+      <c r="BJ114" s="2"/>
+      <c r="BK114" s="5"/>
+    </row>
+    <row r="115" spans="1:63" ht="16">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="4"/>
-      <c r="Y115" s="1"/>
-      <c r="AZ115" s="2"/>
-      <c r="BA115" s="2"/>
-      <c r="BB115" s="5"/>
-      <c r="BC115" s="5"/>
-      <c r="BD115" s="2"/>
-      <c r="BE115" s="2"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4"/>
+      <c r="AG115" s="1"/>
+      <c r="BB115" s="2"/>
+      <c r="BC115" s="2"/>
+      <c r="BD115" s="4"/>
+      <c r="BE115" s="5"/>
       <c r="BF115" s="2"/>
       <c r="BG115" s="2"/>
       <c r="BH115" s="2"/>
-      <c r="BI115" s="5"/>
-    </row>
-    <row r="116" spans="1:61" ht="16">
+      <c r="BI115" s="2"/>
+      <c r="BJ115" s="2"/>
+      <c r="BK115" s="5"/>
+    </row>
+    <row r="116" spans="1:63" ht="16">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -5496,331 +5278,345 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="4"/>
-      <c r="K116" s="1"/>
-      <c r="AZ116" s="2"/>
-      <c r="BA116" s="2"/>
-      <c r="BB116" s="4"/>
-      <c r="BC116" s="5"/>
-      <c r="BD116" s="2"/>
-      <c r="BE116" s="2"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="4"/>
+      <c r="Z116" s="1"/>
+      <c r="BB116" s="2"/>
+      <c r="BC116" s="2"/>
+      <c r="BD116" s="5"/>
+      <c r="BE116" s="5"/>
       <c r="BF116" s="2"/>
       <c r="BG116" s="2"/>
       <c r="BH116" s="2"/>
-      <c r="BI116" s="5"/>
-    </row>
-    <row r="117" spans="1:61" ht="16">
+      <c r="BI116" s="2"/>
+      <c r="BJ116" s="2"/>
+      <c r="BK116" s="5"/>
+    </row>
+    <row r="117" spans="1:63" ht="16">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="4"/>
-      <c r="S117" s="1"/>
-      <c r="AZ117" s="2"/>
-      <c r="BA117" s="2"/>
-      <c r="BB117" s="4"/>
-      <c r="BC117" s="5"/>
-      <c r="BD117" s="2"/>
-      <c r="BE117" s="2"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="4"/>
+      <c r="V117" s="1"/>
+      <c r="BB117" s="2"/>
+      <c r="BC117" s="2"/>
+      <c r="BD117" s="4"/>
+      <c r="BE117" s="5"/>
       <c r="BF117" s="2"/>
       <c r="BG117" s="2"/>
       <c r="BH117" s="2"/>
-      <c r="BI117" s="5"/>
-    </row>
-    <row r="118" spans="1:61" ht="16">
+      <c r="BI117" s="2"/>
+      <c r="BJ117" s="2"/>
+      <c r="BK117" s="5"/>
+    </row>
+    <row r="118" spans="1:63" ht="16">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="3"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="4"/>
-      <c r="S118" s="1"/>
-      <c r="AZ118" s="2"/>
-      <c r="BA118" s="2"/>
-      <c r="BB118" s="4"/>
-      <c r="BC118" s="5"/>
-      <c r="BD118" s="2"/>
-      <c r="BE118" s="2"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="4"/>
+      <c r="P118" s="1"/>
+      <c r="BB118" s="2"/>
+      <c r="BC118" s="2"/>
+      <c r="BD118" s="4"/>
+      <c r="BE118" s="5"/>
       <c r="BF118" s="2"/>
       <c r="BG118" s="2"/>
       <c r="BH118" s="2"/>
-      <c r="BI118" s="5"/>
-    </row>
-    <row r="119" spans="1:61" ht="16">
+      <c r="BI118" s="2"/>
+      <c r="BJ118" s="2"/>
+      <c r="BK118" s="5"/>
+    </row>
+    <row r="119" spans="1:63" ht="16">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="3"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="4"/>
-      <c r="S119" s="1"/>
-      <c r="AZ119" s="2"/>
-      <c r="BA119" s="2"/>
-      <c r="BB119" s="4"/>
-      <c r="BC119" s="5"/>
-      <c r="BD119" s="2"/>
-      <c r="BE119" s="2"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+      <c r="L119" s="1"/>
+      <c r="BB119" s="2"/>
+      <c r="BC119" s="2"/>
+      <c r="BD119" s="4"/>
+      <c r="BE119" s="5"/>
       <c r="BF119" s="2"/>
       <c r="BG119" s="2"/>
       <c r="BH119" s="2"/>
-      <c r="BI119" s="5"/>
-    </row>
-    <row r="120" spans="1:61" ht="16">
+      <c r="BI119" s="2"/>
+      <c r="BJ119" s="2"/>
+      <c r="BK119" s="5"/>
+    </row>
+    <row r="120" spans="1:63" ht="16">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="4"/>
-      <c r="S120" s="1"/>
-      <c r="AZ120" s="2"/>
-      <c r="BA120" s="2"/>
-      <c r="BB120" s="4"/>
-      <c r="BC120" s="5"/>
-      <c r="BD120" s="2"/>
-      <c r="BE120" s="2"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="4"/>
+      <c r="L120" s="1"/>
+      <c r="BB120" s="2"/>
+      <c r="BC120" s="2"/>
+      <c r="BD120" s="4"/>
+      <c r="BE120" s="5"/>
       <c r="BF120" s="2"/>
       <c r="BG120" s="2"/>
       <c r="BH120" s="2"/>
-      <c r="BI120" s="5"/>
-    </row>
-    <row r="121" spans="1:61" ht="16">
+      <c r="BI120" s="2"/>
+      <c r="BJ120" s="2"/>
+      <c r="BK120" s="5"/>
+    </row>
+    <row r="121" spans="1:63" ht="16">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="3"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="4"/>
-      <c r="U121" s="1"/>
-      <c r="AZ121" s="2"/>
-      <c r="BA121" s="2"/>
-      <c r="BB121" s="4"/>
-      <c r="BC121" s="5"/>
-      <c r="BD121" s="2"/>
-      <c r="BE121" s="2"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="4"/>
+      <c r="L121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="BB121" s="2"/>
+      <c r="BC121" s="2"/>
+      <c r="BD121" s="4"/>
+      <c r="BE121" s="5"/>
       <c r="BF121" s="2"/>
       <c r="BG121" s="2"/>
       <c r="BH121" s="2"/>
-      <c r="BI121" s="5"/>
-    </row>
-    <row r="122" spans="1:61" ht="16">
+      <c r="BI121" s="2"/>
+      <c r="BJ121" s="2"/>
+      <c r="BK121" s="5"/>
+    </row>
+    <row r="122" spans="1:63" ht="16">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="3"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="4"/>
-      <c r="K122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="AZ122" s="2"/>
-      <c r="BA122" s="2"/>
-      <c r="BB122" s="4"/>
-      <c r="BC122" s="5"/>
-      <c r="BD122" s="2"/>
-      <c r="BE122" s="2"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="4"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="BB122" s="2"/>
+      <c r="BC122" s="2"/>
+      <c r="BD122" s="4"/>
+      <c r="BE122" s="5"/>
       <c r="BF122" s="2"/>
       <c r="BG122" s="2"/>
       <c r="BH122" s="2"/>
-      <c r="BI122" s="5"/>
-    </row>
-    <row r="123" spans="1:61" ht="16">
+      <c r="BI122" s="2"/>
+      <c r="BJ122" s="2"/>
+      <c r="BK122" s="5"/>
+    </row>
+    <row r="123" spans="1:63" ht="16">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="4"/>
-      <c r="AF123" s="1"/>
-      <c r="AZ123" s="2"/>
-      <c r="BA123" s="2"/>
-      <c r="BB123" s="4"/>
-      <c r="BC123" s="5"/>
-      <c r="BD123" s="2"/>
-      <c r="BE123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="4"/>
+      <c r="T123" s="1"/>
+      <c r="BB123" s="2"/>
+      <c r="BC123" s="2"/>
+      <c r="BD123" s="4"/>
+      <c r="BE123" s="5"/>
       <c r="BF123" s="2"/>
       <c r="BG123" s="2"/>
       <c r="BH123" s="2"/>
-      <c r="BI123" s="5"/>
-    </row>
-    <row r="124" spans="1:61" ht="16">
+      <c r="BI123" s="2"/>
+      <c r="BJ123" s="2"/>
+      <c r="BK123" s="5"/>
+    </row>
+    <row r="124" spans="1:63" ht="16">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="3"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="4"/>
-      <c r="Y124" s="1"/>
-      <c r="AZ124" s="2"/>
-      <c r="BA124" s="2"/>
-      <c r="BB124" s="5"/>
-      <c r="BC124" s="5"/>
-      <c r="BD124" s="2"/>
-      <c r="BE124" s="2"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="1"/>
+      <c r="BB124" s="2"/>
+      <c r="BC124" s="2"/>
+      <c r="BD124" s="5"/>
+      <c r="BE124" s="5"/>
       <c r="BF124" s="2"/>
       <c r="BG124" s="2"/>
       <c r="BH124" s="2"/>
-      <c r="BI124" s="5"/>
-    </row>
-    <row r="125" spans="1:61" ht="16">
+      <c r="BI124" s="2"/>
+      <c r="BJ124" s="2"/>
+      <c r="BK124" s="5"/>
+    </row>
+    <row r="125" spans="1:63" ht="16">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="4"/>
-      <c r="U125" s="1"/>
-      <c r="AZ125" s="2"/>
-      <c r="BA125" s="2"/>
-      <c r="BB125" s="4"/>
-      <c r="BC125" s="5"/>
-      <c r="BD125" s="2"/>
-      <c r="BE125" s="2"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+      <c r="Z125" s="1"/>
+      <c r="BB125" s="2"/>
+      <c r="BC125" s="2"/>
+      <c r="BD125" s="5"/>
+      <c r="BE125" s="5"/>
       <c r="BF125" s="2"/>
       <c r="BG125" s="2"/>
       <c r="BH125" s="2"/>
-      <c r="BI125" s="5"/>
-    </row>
-    <row r="126" spans="1:61" ht="16">
+      <c r="BI125" s="2"/>
+      <c r="BJ125" s="2"/>
+      <c r="BK125" s="5"/>
+    </row>
+    <row r="126" spans="1:63" ht="16">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="3"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="4"/>
-      <c r="O126" s="1"/>
-      <c r="AZ126" s="2"/>
-      <c r="BA126" s="2"/>
-      <c r="BB126" s="4"/>
-      <c r="BC126" s="5"/>
-      <c r="BD126" s="2"/>
-      <c r="BE126" s="2"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+      <c r="T126" s="1"/>
+      <c r="BB126" s="2"/>
+      <c r="BC126" s="2"/>
+      <c r="BD126" s="4"/>
+      <c r="BE126" s="5"/>
       <c r="BF126" s="2"/>
       <c r="BG126" s="2"/>
       <c r="BH126" s="2"/>
-      <c r="BI126" s="5"/>
-    </row>
-    <row r="127" spans="1:61" ht="16">
+      <c r="BI126" s="2"/>
+      <c r="BJ126" s="2"/>
+      <c r="BK126" s="5"/>
+    </row>
+    <row r="127" spans="1:63" ht="16">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="3"/>
+      <c r="G127" s="2"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="4"/>
-      <c r="K127" s="1"/>
-      <c r="AZ127" s="2"/>
-      <c r="BA127" s="2"/>
-      <c r="BB127" s="4"/>
-      <c r="BC127" s="5"/>
-      <c r="BD127" s="2"/>
-      <c r="BE127" s="2"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+      <c r="AG127" s="1"/>
+      <c r="BB127" s="2"/>
+      <c r="BC127" s="2"/>
+      <c r="BD127" s="5"/>
+      <c r="BE127" s="5"/>
       <c r="BF127" s="2"/>
       <c r="BG127" s="2"/>
       <c r="BH127" s="2"/>
-      <c r="BI127" s="5"/>
-    </row>
-    <row r="128" spans="1:61" ht="16">
+      <c r="BI127" s="2"/>
+      <c r="BJ127" s="2"/>
+      <c r="BK127" s="5"/>
+    </row>
+    <row r="128" spans="1:63" ht="16">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="3"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="4"/>
-      <c r="K128" s="1"/>
-      <c r="AZ128" s="2"/>
-      <c r="BA128" s="2"/>
-      <c r="BB128" s="4"/>
-      <c r="BC128" s="5"/>
-      <c r="BD128" s="2"/>
-      <c r="BE128" s="2"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="4"/>
+      <c r="Z128" s="1"/>
+      <c r="BB128" s="2"/>
+      <c r="BC128" s="2"/>
+      <c r="BD128" s="5"/>
+      <c r="BE128" s="5"/>
       <c r="BF128" s="2"/>
       <c r="BG128" s="2"/>
       <c r="BH128" s="2"/>
-      <c r="BI128" s="5"/>
-    </row>
-    <row r="129" spans="1:61" ht="16">
+      <c r="BI128" s="2"/>
+      <c r="BJ128" s="2"/>
+      <c r="BK128" s="5"/>
+    </row>
+    <row r="129" spans="1:63" ht="16">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="3"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="4"/>
-      <c r="K129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="AZ129" s="2"/>
-      <c r="BA129" s="2"/>
-      <c r="BB129" s="4"/>
-      <c r="BC129" s="5"/>
-      <c r="BD129" s="2"/>
-      <c r="BE129" s="2"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="4"/>
+      <c r="S129" s="1"/>
+      <c r="BB129" s="2"/>
+      <c r="BC129" s="2"/>
+      <c r="BD129" s="4"/>
+      <c r="BE129" s="5"/>
       <c r="BF129" s="2"/>
       <c r="BG129" s="2"/>
       <c r="BH129" s="2"/>
-      <c r="BI129" s="5"/>
-    </row>
-    <row r="130" spans="1:61" ht="16">
+      <c r="BI129" s="2"/>
+      <c r="BJ129" s="2"/>
+      <c r="BK129" s="5"/>
+    </row>
+    <row r="130" spans="1:63" ht="16">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="3"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="4"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AZ130" s="2"/>
-      <c r="BA130" s="2"/>
-      <c r="BB130" s="4"/>
-      <c r="BC130" s="5"/>
-      <c r="BD130" s="2"/>
-      <c r="BE130" s="2"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="4"/>
+      <c r="L130" s="1"/>
+      <c r="BB130" s="2"/>
+      <c r="BC130" s="2"/>
+      <c r="BD130" s="5"/>
+      <c r="BE130" s="5"/>
       <c r="BF130" s="2"/>
       <c r="BG130" s="2"/>
       <c r="BH130" s="2"/>
-      <c r="BI130" s="5"/>
-    </row>
-    <row r="131" spans="1:61" ht="16">
+      <c r="BI130" s="2"/>
+      <c r="BJ130" s="2"/>
+      <c r="BK130" s="5"/>
+    </row>
+    <row r="131" spans="1:63" ht="16">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -5829,196 +5625,209 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="4"/>
-      <c r="S131" s="1"/>
-      <c r="AZ131" s="2"/>
-      <c r="BA131" s="2"/>
-      <c r="BB131" s="4"/>
-      <c r="BC131" s="5"/>
-      <c r="BD131" s="2"/>
-      <c r="BE131" s="2"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="4"/>
+      <c r="Z131" s="1"/>
+      <c r="BB131" s="2"/>
+      <c r="BC131" s="2"/>
+      <c r="BD131" s="5"/>
+      <c r="BE131" s="5"/>
       <c r="BF131" s="2"/>
       <c r="BG131" s="2"/>
       <c r="BH131" s="2"/>
-      <c r="BI131" s="5"/>
-    </row>
-    <row r="132" spans="1:61" ht="16">
+      <c r="BI131" s="2"/>
+      <c r="BJ131" s="2"/>
+      <c r="BK131" s="5"/>
+    </row>
+    <row r="132" spans="1:63" ht="16">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="1"/>
-      <c r="AZ132" s="2"/>
-      <c r="BA132" s="2"/>
-      <c r="BB132" s="5"/>
-      <c r="BC132" s="5"/>
-      <c r="BD132" s="2"/>
-      <c r="BE132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+      <c r="L132" s="1"/>
+      <c r="BB132" s="2"/>
+      <c r="BD132" s="4"/>
+      <c r="BE132" s="5"/>
       <c r="BF132" s="2"/>
       <c r="BG132" s="2"/>
       <c r="BH132" s="2"/>
-      <c r="BI132" s="5"/>
-    </row>
-    <row r="133" spans="1:61" ht="16">
+      <c r="BI132" s="2"/>
+      <c r="BJ132" s="2"/>
+      <c r="BK132" s="5"/>
+    </row>
+    <row r="133" spans="1:63" ht="16">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="3"/>
+      <c r="G133" s="2"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="4"/>
-      <c r="Y133" s="1"/>
-      <c r="AZ133" s="2"/>
-      <c r="BA133" s="2"/>
-      <c r="BB133" s="5"/>
-      <c r="BC133" s="5"/>
-      <c r="BD133" s="2"/>
-      <c r="BE133" s="2"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="BB133" s="2"/>
+      <c r="BC133" s="2"/>
+      <c r="BD133" s="5"/>
+      <c r="BE133" s="5"/>
       <c r="BF133" s="2"/>
       <c r="BG133" s="2"/>
       <c r="BH133" s="2"/>
-      <c r="BI133" s="5"/>
-    </row>
-    <row r="134" spans="1:61" ht="16">
+      <c r="BI133" s="2"/>
+      <c r="BJ133" s="2"/>
+      <c r="BK133" s="5"/>
+    </row>
+    <row r="134" spans="1:63" ht="16">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="3"/>
+      <c r="G134" s="2"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="4"/>
-      <c r="S134" s="1"/>
-      <c r="AZ134" s="2"/>
-      <c r="BA134" s="2"/>
-      <c r="BB134" s="4"/>
-      <c r="BC134" s="5"/>
-      <c r="BD134" s="2"/>
-      <c r="BE134" s="2"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="BB134" s="2"/>
+      <c r="BC134" s="2"/>
+      <c r="BD134" s="5"/>
+      <c r="BE134" s="5"/>
       <c r="BF134" s="2"/>
       <c r="BG134" s="2"/>
       <c r="BH134" s="2"/>
-      <c r="BI134" s="5"/>
-    </row>
-    <row r="135" spans="1:61" ht="16">
+      <c r="BI134" s="2"/>
+      <c r="BJ134" s="2"/>
+      <c r="BK134" s="5"/>
+    </row>
+    <row r="135" spans="1:63" ht="16">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="3"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="4"/>
-      <c r="AF135" s="1"/>
-      <c r="AZ135" s="2"/>
-      <c r="BA135" s="2"/>
-      <c r="BB135" s="5"/>
-      <c r="BC135" s="5"/>
-      <c r="BD135" s="2"/>
-      <c r="BE135" s="2"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+      <c r="V135" s="1"/>
+      <c r="BB135" s="2"/>
+      <c r="BC135" s="2"/>
+      <c r="BD135" s="5"/>
+      <c r="BE135" s="5"/>
       <c r="BF135" s="2"/>
       <c r="BG135" s="2"/>
       <c r="BH135" s="2"/>
-      <c r="BI135" s="5"/>
-    </row>
-    <row r="136" spans="1:61" ht="16">
+      <c r="BI135" s="2"/>
+      <c r="BJ135" s="2"/>
+      <c r="BK135" s="5"/>
+    </row>
+    <row r="136" spans="1:63" ht="16">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="3"/>
+      <c r="G136" s="2"/>
       <c r="H136" s="3"/>
-      <c r="I136" s="4"/>
-      <c r="Y136" s="1"/>
-      <c r="AZ136" s="2"/>
-      <c r="BA136" s="2"/>
-      <c r="BB136" s="5"/>
-      <c r="BC136" s="5"/>
-      <c r="BD136" s="2"/>
-      <c r="BE136" s="2"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="4"/>
+      <c r="V136" s="1"/>
+      <c r="BB136" s="2"/>
+      <c r="BC136" s="2"/>
+      <c r="BD136" s="5"/>
+      <c r="BE136" s="5"/>
       <c r="BF136" s="2"/>
       <c r="BG136" s="2"/>
       <c r="BH136" s="2"/>
-      <c r="BI136" s="5"/>
-    </row>
-    <row r="137" spans="1:61" ht="16">
+      <c r="BI136" s="2"/>
+      <c r="BJ136" s="2"/>
+      <c r="BK136" s="5"/>
+    </row>
+    <row r="137" spans="1:63" ht="16">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
-      <c r="G137" s="3"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="4"/>
-      <c r="R137" s="1"/>
-      <c r="AZ137" s="2"/>
-      <c r="BA137" s="2"/>
-      <c r="BB137" s="4"/>
-      <c r="BC137" s="5"/>
-      <c r="BD137" s="2"/>
-      <c r="BE137" s="2"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="4"/>
+      <c r="AG137" s="1"/>
+      <c r="BB137" s="2"/>
+      <c r="BC137" s="2"/>
+      <c r="BD137" s="4"/>
+      <c r="BE137" s="5"/>
       <c r="BF137" s="2"/>
       <c r="BG137" s="2"/>
       <c r="BH137" s="2"/>
-      <c r="BI137" s="5"/>
-    </row>
-    <row r="138" spans="1:61" ht="16">
+      <c r="BI137" s="2"/>
+      <c r="BJ137" s="2"/>
+      <c r="BK137" s="5"/>
+    </row>
+    <row r="138" spans="1:63" ht="16">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-      <c r="G138" s="3"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="3"/>
-      <c r="I138" s="4"/>
-      <c r="K138" s="1"/>
-      <c r="AZ138" s="2"/>
-      <c r="BA138" s="2"/>
-      <c r="BB138" s="5"/>
-      <c r="BC138" s="5"/>
-      <c r="BD138" s="2"/>
-      <c r="BE138" s="2"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="4"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="BB138" s="2"/>
+      <c r="BC138" s="2"/>
+      <c r="BD138" s="4"/>
+      <c r="BE138" s="5"/>
       <c r="BF138" s="2"/>
       <c r="BG138" s="2"/>
       <c r="BH138" s="2"/>
-      <c r="BI138" s="5"/>
-    </row>
-    <row r="139" spans="1:61" ht="16">
+      <c r="BI138" s="2"/>
+      <c r="BJ138" s="2"/>
+      <c r="BK138" s="5"/>
+    </row>
+    <row r="139" spans="1:63" ht="16">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="3"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="4"/>
-      <c r="Y139" s="1"/>
-      <c r="AZ139" s="2"/>
-      <c r="BA139" s="2"/>
-      <c r="BB139" s="5"/>
-      <c r="BC139" s="5"/>
-      <c r="BD139" s="2"/>
-      <c r="BE139" s="2"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="4"/>
+      <c r="AG139" s="1"/>
+      <c r="BB139" s="2"/>
+      <c r="BC139" s="2"/>
+      <c r="BD139" s="5"/>
+      <c r="BE139" s="5"/>
       <c r="BF139" s="2"/>
       <c r="BG139" s="2"/>
       <c r="BH139" s="2"/>
-      <c r="BI139" s="5"/>
-    </row>
-    <row r="140" spans="1:61" ht="16">
+      <c r="BI139" s="2"/>
+      <c r="BJ139" s="2"/>
+      <c r="BK139" s="2"/>
+    </row>
+    <row r="140" spans="1:63" ht="16">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -6027,700 +5836,548 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="4"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
       <c r="K140" s="1"/>
-      <c r="AZ140" s="2"/>
-      <c r="BB140" s="4"/>
-      <c r="BC140" s="5"/>
-      <c r="BD140" s="2"/>
-      <c r="BE140" s="2"/>
+      <c r="BB140" s="2"/>
+      <c r="BC140" s="2"/>
+      <c r="BD140" s="5"/>
+      <c r="BE140" s="5"/>
       <c r="BF140" s="2"/>
       <c r="BG140" s="2"/>
       <c r="BH140" s="2"/>
-      <c r="BI140" s="5"/>
-    </row>
-    <row r="141" spans="1:61" ht="16">
-      <c r="A141" s="2"/>
+      <c r="BI140" s="2"/>
+      <c r="BJ140" s="2"/>
+      <c r="BK140" s="2"/>
+    </row>
+    <row r="141" spans="1:63" ht="16">
+      <c r="A141" s="7"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="3"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="Y141" s="1"/>
-      <c r="AZ141" s="2"/>
-      <c r="BA141" s="2"/>
-      <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="2"/>
-      <c r="BE141" s="2"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="1"/>
+      <c r="BB141" s="7"/>
+      <c r="BC141" s="2"/>
+      <c r="BD141" s="4"/>
+      <c r="BE141" s="5"/>
       <c r="BF141" s="2"/>
       <c r="BG141" s="2"/>
       <c r="BH141" s="2"/>
-      <c r="BI141" s="5"/>
-    </row>
-    <row r="142" spans="1:61" ht="16">
+      <c r="BI141" s="2"/>
+      <c r="BJ141" s="2"/>
+      <c r="BK141" s="2"/>
+    </row>
+    <row r="142" spans="1:63" ht="16">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="3"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="AB142" s="1"/>
-      <c r="AZ142" s="2"/>
-      <c r="BA142" s="2"/>
-      <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="2"/>
-      <c r="BE142" s="2"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+      <c r="S142" s="1"/>
+      <c r="BB142" s="2"/>
+      <c r="BC142" s="2"/>
+      <c r="BD142" s="4"/>
+      <c r="BE142" s="5"/>
       <c r="BF142" s="2"/>
       <c r="BG142" s="2"/>
       <c r="BH142" s="2"/>
-      <c r="BI142" s="5"/>
-    </row>
-    <row r="143" spans="1:61" ht="16">
+      <c r="BI142" s="2"/>
+      <c r="BJ142" s="2"/>
+      <c r="BK142" s="2"/>
+    </row>
+    <row r="143" spans="1:63" ht="16">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="3"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="4"/>
-      <c r="U143" s="1"/>
-      <c r="AZ143" s="2"/>
-      <c r="BA143" s="2"/>
-      <c r="BB143" s="5"/>
-      <c r="BC143" s="5"/>
-      <c r="BD143" s="2"/>
-      <c r="BE143" s="2"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+      <c r="L143" s="1"/>
+      <c r="BB143" s="2"/>
+      <c r="BC143" s="2"/>
+      <c r="BD143" s="4"/>
+      <c r="BE143" s="5"/>
       <c r="BF143" s="2"/>
       <c r="BG143" s="2"/>
       <c r="BH143" s="2"/>
-      <c r="BI143" s="5"/>
-    </row>
-    <row r="144" spans="1:61" ht="16">
+      <c r="BI143" s="2"/>
+      <c r="BJ143" s="2"/>
+      <c r="BK143" s="2"/>
+    </row>
+    <row r="144" spans="1:63" ht="16">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="3"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="3"/>
-      <c r="I144" s="4"/>
-      <c r="U144" s="1"/>
-      <c r="AZ144" s="2"/>
-      <c r="BA144" s="2"/>
-      <c r="BB144" s="5"/>
-      <c r="BC144" s="5"/>
-      <c r="BD144" s="2"/>
-      <c r="BE144" s="2"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="4"/>
+      <c r="AG144" s="1"/>
+      <c r="BB144" s="2"/>
+      <c r="BC144" s="2"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
       <c r="BF144" s="2"/>
       <c r="BG144" s="2"/>
       <c r="BH144" s="2"/>
-      <c r="BI144" s="5"/>
-    </row>
-    <row r="145" spans="1:61" ht="16">
+      <c r="BI144" s="2"/>
+      <c r="BJ144" s="2"/>
+      <c r="BK144" s="2"/>
+    </row>
+    <row r="145" spans="1:63" ht="16">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="3"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="4"/>
-      <c r="AF145" s="1"/>
-      <c r="AZ145" s="2"/>
-      <c r="BA145" s="2"/>
-      <c r="BB145" s="4"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="2"/>
-      <c r="BE145" s="2"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="4"/>
+      <c r="L145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="AG145" s="1"/>
+      <c r="BB145" s="2"/>
+      <c r="BC145" s="2"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
       <c r="BF145" s="2"/>
       <c r="BG145" s="2"/>
       <c r="BH145" s="2"/>
-      <c r="BI145" s="5"/>
-    </row>
-    <row r="146" spans="1:61" ht="16">
+      <c r="BI145" s="2"/>
+      <c r="BJ145" s="2"/>
+      <c r="BK145" s="2"/>
+    </row>
+    <row r="146" spans="1:63" ht="16">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
-      <c r="G146" s="3"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="4"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="1"/>
-      <c r="AZ146" s="2"/>
-      <c r="BA146" s="2"/>
-      <c r="BB146" s="4"/>
-      <c r="BC146" s="5"/>
-      <c r="BD146" s="2"/>
-      <c r="BE146" s="2"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="4"/>
+      <c r="S146" s="1"/>
+      <c r="BB146" s="2"/>
+      <c r="BC146" s="2"/>
+      <c r="BD146" s="4"/>
+      <c r="BE146" s="5"/>
       <c r="BF146" s="2"/>
       <c r="BG146" s="2"/>
       <c r="BH146" s="2"/>
-      <c r="BI146" s="5"/>
-    </row>
-    <row r="147" spans="1:61" ht="16">
+      <c r="BI146" s="2"/>
+      <c r="BJ146" s="2"/>
+      <c r="BK146" s="2"/>
+    </row>
+    <row r="147" spans="1:63" ht="16">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="3"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="4"/>
-      <c r="AF147" s="1"/>
-      <c r="AZ147" s="2"/>
-      <c r="BA147" s="2"/>
-      <c r="BB147" s="5"/>
-      <c r="BC147" s="5"/>
-      <c r="BD147" s="2"/>
-      <c r="BE147" s="2"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="4"/>
+      <c r="L147" s="1"/>
+      <c r="BB147" s="2"/>
+      <c r="BC147" s="2"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
       <c r="BF147" s="2"/>
       <c r="BG147" s="2"/>
       <c r="BH147" s="2"/>
       <c r="BI147" s="2"/>
-    </row>
-    <row r="148" spans="1:61" ht="16">
+      <c r="BJ147" s="2"/>
+      <c r="BK147" s="2"/>
+    </row>
+    <row r="148" spans="1:63" ht="16">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="3"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="1"/>
-      <c r="AZ148" s="2"/>
-      <c r="BA148" s="2"/>
-      <c r="BB148" s="5"/>
-      <c r="BC148" s="5"/>
-      <c r="BD148" s="2"/>
-      <c r="BE148" s="2"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+      <c r="V148" s="1"/>
+      <c r="BB148" s="2"/>
+      <c r="BC148" s="2"/>
+      <c r="BD148" s="5"/>
+      <c r="BE148" s="5"/>
       <c r="BF148" s="2"/>
       <c r="BG148" s="2"/>
       <c r="BH148" s="2"/>
       <c r="BI148" s="2"/>
-    </row>
-    <row r="149" spans="1:61" ht="16">
-      <c r="A149" s="7"/>
+      <c r="BJ148" s="2"/>
+      <c r="BK148" s="2"/>
+    </row>
+    <row r="149" spans="1:63" ht="16">
+      <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="3"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="1"/>
-      <c r="AZ149" s="7"/>
-      <c r="BA149" s="2"/>
-      <c r="BB149" s="4"/>
-      <c r="BC149" s="5"/>
-      <c r="BD149" s="2"/>
-      <c r="BE149" s="2"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+      <c r="Z149" s="1"/>
+      <c r="BB149" s="2"/>
+      <c r="BC149" s="2"/>
+      <c r="BD149" s="5"/>
+      <c r="BE149" s="5"/>
       <c r="BF149" s="2"/>
       <c r="BG149" s="2"/>
       <c r="BH149" s="2"/>
       <c r="BI149" s="2"/>
-    </row>
-    <row r="150" spans="1:61" ht="16">
+      <c r="BJ149" s="2"/>
+      <c r="BK149" s="2"/>
+    </row>
+    <row r="150" spans="1:63" ht="16">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="3"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="4"/>
-      <c r="R150" s="1"/>
-      <c r="AZ150" s="2"/>
-      <c r="BA150" s="2"/>
-      <c r="BB150" s="4"/>
-      <c r="BC150" s="5"/>
-      <c r="BD150" s="2"/>
-      <c r="BE150" s="2"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+      <c r="M150" s="1"/>
+      <c r="V150" s="10"/>
+      <c r="BB150" s="2"/>
+      <c r="BC150" s="2"/>
+      <c r="BD150" s="4"/>
+      <c r="BE150" s="5"/>
       <c r="BF150" s="2"/>
       <c r="BG150" s="2"/>
       <c r="BH150" s="2"/>
       <c r="BI150" s="2"/>
-    </row>
-    <row r="151" spans="1:61" ht="16">
+      <c r="BJ150" s="2"/>
+      <c r="BK150" s="2"/>
+    </row>
+    <row r="151" spans="1:63" ht="16">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="3"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="3"/>
-      <c r="I151" s="4"/>
-      <c r="K151" s="1"/>
-      <c r="AZ151" s="2"/>
-      <c r="BA151" s="2"/>
-      <c r="BB151" s="4"/>
-      <c r="BC151" s="5"/>
-      <c r="BD151" s="2"/>
-      <c r="BE151" s="2"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+      <c r="M151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="BB151" s="2"/>
+      <c r="BC151" s="2"/>
+      <c r="BD151" s="4"/>
+      <c r="BE151" s="5"/>
       <c r="BF151" s="2"/>
       <c r="BG151" s="2"/>
       <c r="BH151" s="2"/>
       <c r="BI151" s="2"/>
-    </row>
-    <row r="152" spans="1:61" ht="16">
+      <c r="BJ151" s="2"/>
+      <c r="BK151" s="2"/>
+    </row>
+    <row r="152" spans="1:63" ht="16">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="3"/>
+      <c r="G152" s="2"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="4"/>
-      <c r="AF152" s="1"/>
-      <c r="AZ152" s="2"/>
-      <c r="BA152" s="2"/>
-      <c r="BB152" s="5"/>
-      <c r="BC152" s="5"/>
-      <c r="BD152" s="2"/>
-      <c r="BE152" s="2"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="4"/>
+      <c r="T152" s="1"/>
+      <c r="BB152" s="2"/>
+      <c r="BC152" s="2"/>
+      <c r="BD152" s="4"/>
+      <c r="BE152" s="5"/>
       <c r="BF152" s="2"/>
       <c r="BG152" s="2"/>
       <c r="BH152" s="2"/>
       <c r="BI152" s="2"/>
-    </row>
-    <row r="153" spans="1:61" ht="16">
+      <c r="BJ152" s="2"/>
+      <c r="BK152" s="2"/>
+    </row>
+    <row r="153" spans="1:63" ht="16">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="3"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="4"/>
-      <c r="K153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="AF153" s="1"/>
-      <c r="AZ153" s="2"/>
-      <c r="BA153" s="2"/>
-      <c r="BB153" s="5"/>
-      <c r="BC153" s="5"/>
-      <c r="BD153" s="2"/>
-      <c r="BE153" s="2"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="4"/>
+      <c r="AG153" s="1"/>
+      <c r="BB153" s="2"/>
+      <c r="BC153" s="2"/>
+      <c r="BD153" s="5"/>
+      <c r="BE153" s="5"/>
       <c r="BF153" s="2"/>
       <c r="BG153" s="2"/>
       <c r="BH153" s="2"/>
       <c r="BI153" s="2"/>
-    </row>
-    <row r="154" spans="1:61" ht="16">
+      <c r="BJ153" s="2"/>
+      <c r="BK153" s="2"/>
+    </row>
+    <row r="154" spans="1:63" ht="16">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="3"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="4"/>
-      <c r="R154" s="1"/>
-      <c r="AZ154" s="2"/>
-      <c r="BA154" s="2"/>
-      <c r="BB154" s="4"/>
-      <c r="BC154" s="5"/>
-      <c r="BD154" s="2"/>
-      <c r="BE154" s="2"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="4"/>
+      <c r="W154" s="1"/>
+      <c r="BB154" s="2"/>
+      <c r="BC154" s="2"/>
+      <c r="BD154" s="4"/>
+      <c r="BE154" s="5"/>
       <c r="BF154" s="2"/>
       <c r="BG154" s="2"/>
       <c r="BH154" s="2"/>
       <c r="BI154" s="2"/>
-    </row>
-    <row r="155" spans="1:61" ht="16">
+      <c r="BJ154" s="2"/>
+      <c r="BK154" s="2"/>
+    </row>
+    <row r="155" spans="1:63" ht="16">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="4"/>
-      <c r="K155" s="1"/>
-      <c r="AZ155" s="2"/>
-      <c r="BA155" s="2"/>
-      <c r="BB155" s="5"/>
-      <c r="BC155" s="5"/>
-      <c r="BD155" s="2"/>
-      <c r="BE155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+      <c r="S155" s="1"/>
+      <c r="BB155" s="2"/>
+      <c r="BC155" s="2"/>
+      <c r="BD155" s="4"/>
+      <c r="BE155" s="5"/>
       <c r="BF155" s="2"/>
       <c r="BG155" s="2"/>
       <c r="BH155" s="2"/>
       <c r="BI155" s="2"/>
-    </row>
-    <row r="156" spans="1:61" ht="16">
+      <c r="BJ155" s="2"/>
+      <c r="BK155" s="2"/>
+    </row>
+    <row r="156" spans="1:63" ht="16">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="3"/>
+      <c r="G156" s="2"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="4"/>
-      <c r="U156" s="1"/>
-      <c r="AZ156" s="2"/>
-      <c r="BA156" s="2"/>
-      <c r="BB156" s="5"/>
-      <c r="BC156" s="5"/>
-      <c r="BD156" s="2"/>
-      <c r="BE156" s="2"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+      <c r="AG156" s="1"/>
+      <c r="BB156" s="2"/>
+      <c r="BC156" s="2"/>
+      <c r="BD156" s="4"/>
+      <c r="BE156" s="5"/>
       <c r="BF156" s="2"/>
       <c r="BG156" s="2"/>
       <c r="BH156" s="2"/>
       <c r="BI156" s="2"/>
-    </row>
-    <row r="157" spans="1:61" ht="16">
+      <c r="BJ156" s="2"/>
+      <c r="BK156" s="2"/>
+    </row>
+    <row r="157" spans="1:63" ht="16">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="3"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="4"/>
-      <c r="Y157" s="1"/>
-      <c r="AZ157" s="2"/>
-      <c r="BA157" s="2"/>
-      <c r="BB157" s="5"/>
-      <c r="BC157" s="5"/>
-      <c r="BD157" s="2"/>
-      <c r="BE157" s="2"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+      <c r="BB157" s="2"/>
+      <c r="BC157" s="2"/>
+      <c r="BD157" s="4"/>
+      <c r="BE157" s="5"/>
       <c r="BF157" s="2"/>
       <c r="BG157" s="2"/>
       <c r="BH157" s="2"/>
       <c r="BI157" s="2"/>
-    </row>
-    <row r="158" spans="1:61" ht="16">
+      <c r="BJ157" s="2"/>
+      <c r="BK157" s="2"/>
+    </row>
+    <row r="158" spans="1:63" ht="16">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="3"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="4"/>
-      <c r="L158" s="1"/>
-      <c r="U158" s="10"/>
-      <c r="AZ158" s="2"/>
-      <c r="BA158" s="2"/>
-      <c r="BB158" s="4"/>
-      <c r="BC158" s="5"/>
-      <c r="BD158" s="2"/>
-      <c r="BE158" s="2"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="BB158" s="2"/>
+      <c r="BC158" s="2"/>
+      <c r="BD158" s="4"/>
+      <c r="BE158" s="5"/>
       <c r="BF158" s="2"/>
       <c r="BG158" s="2"/>
       <c r="BH158" s="2"/>
       <c r="BI158" s="2"/>
-    </row>
-    <row r="159" spans="1:61" ht="16">
+      <c r="BJ158" s="2"/>
+      <c r="BK158" s="2"/>
+    </row>
+    <row r="159" spans="1:63" ht="16">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
-      <c r="G159" s="3"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="4"/>
-      <c r="L159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="AZ159" s="2"/>
-      <c r="BA159" s="2"/>
-      <c r="BB159" s="4"/>
-      <c r="BC159" s="5"/>
-      <c r="BD159" s="2"/>
-      <c r="BE159" s="2"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+      <c r="Z159" s="1"/>
+      <c r="BB159" s="2"/>
+      <c r="BC159" s="2"/>
+      <c r="BD159" s="4"/>
+      <c r="BE159" s="5"/>
       <c r="BF159" s="2"/>
       <c r="BG159" s="2"/>
       <c r="BH159" s="2"/>
       <c r="BI159" s="2"/>
-    </row>
-    <row r="160" spans="1:61" ht="16">
+      <c r="BJ159" s="2"/>
+      <c r="BK159" s="2"/>
+    </row>
+    <row r="160" spans="1:63" ht="16">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-      <c r="G160" s="3"/>
+      <c r="G160" s="2"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="4"/>
-      <c r="S160" s="1"/>
-      <c r="AZ160" s="2"/>
-      <c r="BA160" s="2"/>
-      <c r="BB160" s="4"/>
-      <c r="BC160" s="5"/>
-      <c r="BD160" s="2"/>
-      <c r="BE160" s="2"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="4"/>
+      <c r="AG160" s="1"/>
+      <c r="BB160" s="2"/>
+      <c r="BC160" s="2"/>
+      <c r="BD160" s="5"/>
+      <c r="BE160" s="5"/>
       <c r="BF160" s="2"/>
       <c r="BG160" s="2"/>
       <c r="BH160" s="2"/>
       <c r="BI160" s="2"/>
-    </row>
-    <row r="161" spans="1:61" ht="16">
+      <c r="BJ160" s="2"/>
+      <c r="BK160" s="2"/>
+    </row>
+    <row r="161" spans="1:63" ht="16">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="3"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="3"/>
-      <c r="I161" s="4"/>
-      <c r="AF161" s="1"/>
-      <c r="AZ161" s="2"/>
-      <c r="BA161" s="2"/>
-      <c r="BB161" s="5"/>
-      <c r="BC161" s="5"/>
-      <c r="BD161" s="2"/>
-      <c r="BE161" s="2"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="4"/>
+      <c r="AG161" s="1"/>
+      <c r="BB161" s="2"/>
+      <c r="BC161" s="2"/>
+      <c r="BD161" s="4"/>
+      <c r="BE161" s="5"/>
       <c r="BF161" s="2"/>
       <c r="BG161" s="2"/>
       <c r="BH161" s="2"/>
       <c r="BI161" s="2"/>
-    </row>
-    <row r="162" spans="1:61" ht="16">
-      <c r="A162" s="2"/>
+      <c r="BJ161" s="2"/>
+      <c r="BK161" s="2"/>
+    </row>
+    <row r="162" spans="1:63" ht="15.75" customHeight="1">
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="4"/>
-      <c r="V162" s="1"/>
-      <c r="AZ162" s="2"/>
-      <c r="BA162" s="2"/>
-      <c r="BB162" s="4"/>
-      <c r="BC162" s="5"/>
-      <c r="BD162" s="2"/>
-      <c r="BE162" s="2"/>
-      <c r="BF162" s="2"/>
-      <c r="BG162" s="2"/>
-      <c r="BH162" s="2"/>
-      <c r="BI162" s="2"/>
-    </row>
-    <row r="163" spans="1:61" ht="16">
-      <c r="A163" s="2"/>
+    </row>
+    <row r="163" spans="1:63" ht="15.75" customHeight="1">
       <c r="B163" s="3"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="4"/>
-      <c r="R163" s="1"/>
-      <c r="AZ163" s="2"/>
-      <c r="BA163" s="2"/>
-      <c r="BB163" s="4"/>
-      <c r="BC163" s="5"/>
-      <c r="BD163" s="2"/>
-      <c r="BE163" s="2"/>
-      <c r="BF163" s="2"/>
-      <c r="BG163" s="2"/>
-      <c r="BH163" s="2"/>
-      <c r="BI163" s="2"/>
-    </row>
-    <row r="164" spans="1:61" ht="16">
-      <c r="A164" s="2"/>
+    </row>
+    <row r="164" spans="1:63" ht="15.75" customHeight="1">
       <c r="B164" s="3"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="4"/>
-      <c r="AF164" s="1"/>
-      <c r="AZ164" s="2"/>
-      <c r="BA164" s="2"/>
-      <c r="BB164" s="4"/>
-      <c r="BC164" s="5"/>
-      <c r="BD164" s="2"/>
-      <c r="BE164" s="2"/>
-      <c r="BF164" s="2"/>
-      <c r="BG164" s="2"/>
-      <c r="BH164" s="2"/>
-      <c r="BI164" s="2"/>
-    </row>
-    <row r="165" spans="1:61" ht="16">
-      <c r="A165" s="2"/>
+    </row>
+    <row r="165" spans="1:63" ht="15.75" customHeight="1">
       <c r="B165" s="3"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="4"/>
-      <c r="AZ165" s="2"/>
-      <c r="BA165" s="2"/>
-      <c r="BB165" s="4"/>
-      <c r="BC165" s="5"/>
-      <c r="BD165" s="2"/>
-      <c r="BE165" s="2"/>
-      <c r="BF165" s="2"/>
-      <c r="BG165" s="2"/>
-      <c r="BH165" s="2"/>
-      <c r="BI165" s="2"/>
-    </row>
-    <row r="166" spans="1:61" ht="16">
-      <c r="A166" s="2"/>
+    </row>
+    <row r="166" spans="1:63" ht="15.75" customHeight="1">
       <c r="B166" s="3"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="AZ166" s="2"/>
-      <c r="BA166" s="2"/>
-      <c r="BB166" s="4"/>
-      <c r="BC166" s="5"/>
-      <c r="BD166" s="2"/>
-      <c r="BE166" s="2"/>
-      <c r="BF166" s="2"/>
-      <c r="BG166" s="2"/>
-      <c r="BH166" s="2"/>
-      <c r="BI166" s="2"/>
-    </row>
-    <row r="167" spans="1:61" ht="16">
-      <c r="A167" s="2"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="4"/>
-      <c r="Y167" s="1"/>
-      <c r="AZ167" s="2"/>
-      <c r="BA167" s="2"/>
-      <c r="BB167" s="4"/>
-      <c r="BC167" s="5"/>
-      <c r="BD167" s="2"/>
-      <c r="BE167" s="2"/>
-      <c r="BF167" s="2"/>
-      <c r="BG167" s="2"/>
-      <c r="BH167" s="2"/>
-      <c r="BI167" s="2"/>
-    </row>
-    <row r="168" spans="1:61" ht="16">
-      <c r="A168" s="2"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="4"/>
-      <c r="AF168" s="1"/>
-      <c r="AZ168" s="2"/>
-      <c r="BA168" s="2"/>
-      <c r="BB168" s="5"/>
-      <c r="BC168" s="5"/>
-      <c r="BD168" s="2"/>
-      <c r="BE168" s="2"/>
-      <c r="BF168" s="2"/>
-      <c r="BG168" s="2"/>
-      <c r="BH168" s="2"/>
-      <c r="BI168" s="2"/>
-    </row>
-    <row r="169" spans="1:61" ht="16">
-      <c r="A169" s="2"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="4"/>
-      <c r="AF169" s="1"/>
-      <c r="AZ169" s="2"/>
-      <c r="BA169" s="2"/>
-      <c r="BB169" s="4"/>
-      <c r="BC169" s="5"/>
-      <c r="BD169" s="2"/>
-      <c r="BE169" s="2"/>
-      <c r="BF169" s="2"/>
-      <c r="BG169" s="2"/>
-      <c r="BH169" s="2"/>
-      <c r="BI169" s="2"/>
-    </row>
-    <row r="170" spans="1:61" ht="15.75" customHeight="1">
-      <c r="B170" s="3"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:61" ht="15.75" customHeight="1">
-      <c r="B171" s="3"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:61" ht="15.75" customHeight="1">
-      <c r="B172" s="3"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:61" ht="15.75" customHeight="1">
-      <c r="B173" s="3"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:61" ht="15.75" customHeight="1">
-      <c r="B174" s="3"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="1048573" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B1048573" s="3"/>
-      <c r="C1048573" s="2"/>
-      <c r="D1048573" s="2"/>
-      <c r="E1048573" s="2"/>
+    </row>
+    <row r="1048565" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B1048565" s="3"/>
+      <c r="C1048565" s="2"/>
+      <c r="D1048565" s="2"/>
+      <c r="E1048565" s="2"/>
+      <c r="F1048565" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
